--- a/data/climate-data.xlsx
+++ b/data/climate-data.xlsx
@@ -42,7 +42,7 @@
     <t>Län</t>
   </si>
   <si>
-    <t>KPI1: Förändringstakt andel laddbara bilar</t>
+    <t>KPI1: Förändringstakt andel laddbara bilar (%)</t>
   </si>
   <si>
     <t>KPI2: Klimatplan länk</t>
@@ -1761,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0.04848084661477944</v>
+        <v>4.8</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.07043528444297543</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1795,7 +1795,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.06084937111254478</v>
+        <v>6.1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1812,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.05164583397223511</v>
+        <v>5.2</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1829,7 +1829,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.06815959442215519</v>
+        <v>6.8</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1880,7 +1880,7 @@
         <v>141</v>
       </c>
       <c r="C2">
-        <v>0.03093897466485612</v>
+        <v>3.1</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1897,7 +1897,7 @@
         <v>141</v>
       </c>
       <c r="C3">
-        <v>0.06399848551346246</v>
+        <v>6.4</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1914,7 +1914,7 @@
         <v>141</v>
       </c>
       <c r="C4">
-        <v>0.05515919356681476</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1931,7 +1931,7 @@
         <v>141</v>
       </c>
       <c r="C5">
-        <v>0.0377335161585747</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1948,7 +1948,7 @@
         <v>141</v>
       </c>
       <c r="C6">
-        <v>0.06042340263846041</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1965,7 +1965,7 @@
         <v>141</v>
       </c>
       <c r="C7">
-        <v>0.06810241001823615</v>
+        <v>6.8</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1982,7 +1982,7 @@
         <v>141</v>
       </c>
       <c r="C8">
-        <v>0.04653639904835516</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1999,7 +1999,7 @@
         <v>141</v>
       </c>
       <c r="C9">
-        <v>0.05977188843177565</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -2016,7 +2016,7 @@
         <v>141</v>
       </c>
       <c r="C10">
-        <v>0.05512807341840541</v>
+        <v>5.5</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>142</v>
@@ -2033,7 +2033,7 @@
         <v>141</v>
       </c>
       <c r="C11">
-        <v>0.07563750342085944</v>
+        <v>7.6</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -2050,7 +2050,7 @@
         <v>141</v>
       </c>
       <c r="C12">
-        <v>0.08428524112409641</v>
+        <v>8.4</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -2067,7 +2067,7 @@
         <v>141</v>
       </c>
       <c r="C13">
-        <v>0.06055208372530786</v>
+        <v>6.1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>143</v>
@@ -2084,7 +2084,7 @@
         <v>141</v>
       </c>
       <c r="C14">
-        <v>0.03895314311746793</v>
+        <v>3.9</v>
       </c>
       <c r="D14" t="s">
         <v>144</v>
@@ -2101,7 +2101,7 @@
         <v>141</v>
       </c>
       <c r="C15">
-        <v>0.03892288872701098</v>
+        <v>3.9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>145</v>
@@ -2153,7 +2153,7 @@
         <v>179</v>
       </c>
       <c r="C2">
-        <v>0.06736436245177074</v>
+        <v>6.7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>180</v>
@@ -2170,7 +2170,7 @@
         <v>179</v>
       </c>
       <c r="C3">
-        <v>0.08181108702724145</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>181</v>
@@ -2187,7 +2187,7 @@
         <v>179</v>
       </c>
       <c r="C4">
-        <v>0.04753188216316283</v>
+        <v>4.8</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -2204,7 +2204,7 @@
         <v>179</v>
       </c>
       <c r="C5">
-        <v>0.08439202799046437</v>
+        <v>8.4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>182</v>
@@ -2221,7 +2221,7 @@
         <v>179</v>
       </c>
       <c r="C6">
-        <v>0.07524982951593966</v>
+        <v>7.5</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -2238,7 +2238,7 @@
         <v>179</v>
       </c>
       <c r="C7">
-        <v>0.03301981588753814</v>
+        <v>3.3</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -2255,7 +2255,7 @@
         <v>179</v>
       </c>
       <c r="C8">
-        <v>0.04610376188397754</v>
+        <v>4.6</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -2272,7 +2272,7 @@
         <v>179</v>
       </c>
       <c r="C9">
-        <v>0.09283559648488335</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -2289,7 +2289,7 @@
         <v>179</v>
       </c>
       <c r="C10">
-        <v>0.08962152539618798</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>183</v>
@@ -2306,7 +2306,7 @@
         <v>179</v>
       </c>
       <c r="C11">
-        <v>0.07491986404593716</v>
+        <v>7.5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>184</v>
@@ -2323,7 +2323,7 @@
         <v>179</v>
       </c>
       <c r="C12">
-        <v>0.0663886080143808</v>
+        <v>6.6</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -2340,7 +2340,7 @@
         <v>179</v>
       </c>
       <c r="C13">
-        <v>0.06578047080306838</v>
+        <v>6.6</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>185</v>
@@ -2357,7 +2357,7 @@
         <v>179</v>
       </c>
       <c r="C14">
-        <v>0.07039356467764031</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -2374,7 +2374,7 @@
         <v>179</v>
       </c>
       <c r="C15">
-        <v>0.06332638122639997</v>
+        <v>6.3</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -2391,7 +2391,7 @@
         <v>179</v>
       </c>
       <c r="C16">
-        <v>0.02923280316780341</v>
+        <v>2.9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>186</v>
@@ -2408,7 +2408,7 @@
         <v>179</v>
       </c>
       <c r="C17">
-        <v>0.07115187962866446</v>
+        <v>7.1</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -2425,7 +2425,7 @@
         <v>179</v>
       </c>
       <c r="C18">
-        <v>0.05433778381448846</v>
+        <v>5.4</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>187</v>
@@ -2442,7 +2442,7 @@
         <v>179</v>
       </c>
       <c r="C19">
-        <v>0.06374565186486536</v>
+        <v>6.4</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -2459,7 +2459,7 @@
         <v>179</v>
       </c>
       <c r="C20">
-        <v>0.06431778429002259</v>
+        <v>6.4</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>188</v>
@@ -2476,7 +2476,7 @@
         <v>179</v>
       </c>
       <c r="C21">
-        <v>0.07218936624257806</v>
+        <v>7.2</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>189</v>
@@ -2493,7 +2493,7 @@
         <v>179</v>
       </c>
       <c r="C22">
-        <v>0.08030708204415621</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -2510,7 +2510,7 @@
         <v>179</v>
       </c>
       <c r="C23">
-        <v>0.06443229869056234</v>
+        <v>6.4</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -2527,7 +2527,7 @@
         <v>179</v>
       </c>
       <c r="C24">
-        <v>0.1035858311647119</v>
+        <v>10.4</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>190</v>
@@ -2544,7 +2544,7 @@
         <v>179</v>
       </c>
       <c r="C25">
-        <v>0.07376566900343701</v>
+        <v>7.4</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -2561,7 +2561,7 @@
         <v>179</v>
       </c>
       <c r="C26">
-        <v>0.06302096256173736</v>
+        <v>6.3</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>191</v>
@@ -2578,7 +2578,7 @@
         <v>179</v>
       </c>
       <c r="C27">
-        <v>0.07286294683214967</v>
+        <v>7.3</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>192</v>
@@ -2595,7 +2595,7 @@
         <v>179</v>
       </c>
       <c r="C28">
-        <v>0.05901942847303372</v>
+        <v>5.9</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -2612,7 +2612,7 @@
         <v>179</v>
       </c>
       <c r="C29">
-        <v>0.05677580065707093</v>
+        <v>5.7</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>193</v>
@@ -2629,7 +2629,7 @@
         <v>179</v>
       </c>
       <c r="C30">
-        <v>0.07304337752578609</v>
+        <v>7.3</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -2646,7 +2646,7 @@
         <v>179</v>
       </c>
       <c r="C31">
-        <v>0.07535474375627423</v>
+        <v>7.5</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>194</v>
@@ -2663,7 +2663,7 @@
         <v>179</v>
       </c>
       <c r="C32">
-        <v>0.06034983087158206</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -2680,7 +2680,7 @@
         <v>179</v>
       </c>
       <c r="C33">
-        <v>0.06255937990183585</v>
+        <v>6.3</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -2697,7 +2697,7 @@
         <v>179</v>
       </c>
       <c r="C34">
-        <v>0.05603986261884942</v>
+        <v>5.6</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -2761,7 +2761,7 @@
         <v>221</v>
       </c>
       <c r="C2">
-        <v>0.0765374063331129</v>
+        <v>7.7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>222</v>
@@ -2778,7 +2778,7 @@
         <v>221</v>
       </c>
       <c r="C3">
-        <v>0.08854171329681397</v>
+        <v>8.9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>223</v>
@@ -2795,7 +2795,7 @@
         <v>221</v>
       </c>
       <c r="C4">
-        <v>0.07938435305447579</v>
+        <v>7.9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>224</v>
@@ -2812,7 +2812,7 @@
         <v>221</v>
       </c>
       <c r="C5">
-        <v>0.09712375610874407</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>225</v>
@@ -2829,7 +2829,7 @@
         <v>221</v>
       </c>
       <c r="C6">
-        <v>0.08209290709034771</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>226</v>
@@ -2846,7 +2846,7 @@
         <v>221</v>
       </c>
       <c r="C7">
-        <v>0.09099684043102808</v>
+        <v>9.1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>227</v>
@@ -2863,7 +2863,7 @@
         <v>221</v>
       </c>
       <c r="C8">
-        <v>0.06869420554248744</v>
+        <v>6.9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>228</v>
@@ -2880,7 +2880,7 @@
         <v>221</v>
       </c>
       <c r="C9">
-        <v>0.06410773867813389</v>
+        <v>6.4</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>229</v>
@@ -2897,7 +2897,7 @@
         <v>221</v>
       </c>
       <c r="C10">
-        <v>0.0714780271065529</v>
+        <v>7.1</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -2914,7 +2914,7 @@
         <v>221</v>
       </c>
       <c r="C11">
-        <v>0.06666338594504451</v>
+        <v>6.7</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>230</v>
@@ -2931,7 +2931,7 @@
         <v>221</v>
       </c>
       <c r="C12">
-        <v>0.08346914882009587</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>231</v>
@@ -2948,7 +2948,7 @@
         <v>221</v>
       </c>
       <c r="C13">
-        <v>0.08185558879772066</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>232</v>
@@ -2965,7 +2965,7 @@
         <v>221</v>
       </c>
       <c r="C14">
-        <v>0.06462434911498847</v>
+        <v>6.5</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -2982,7 +2982,7 @@
         <v>221</v>
       </c>
       <c r="C15">
-        <v>0.08723877258687399</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -2999,7 +2999,7 @@
         <v>221</v>
       </c>
       <c r="C16">
-        <v>0.104575205822188</v>
+        <v>10.5</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>233</v>
@@ -3016,7 +3016,7 @@
         <v>221</v>
       </c>
       <c r="C17">
-        <v>0.09384386828142256</v>
+        <v>9.4</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>234</v>
@@ -3033,7 +3033,7 @@
         <v>221</v>
       </c>
       <c r="C18">
-        <v>0.09141670840433368</v>
+        <v>9.1</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>235</v>
@@ -3050,7 +3050,7 @@
         <v>221</v>
       </c>
       <c r="C19">
-        <v>0.07725999060272203</v>
+        <v>7.7</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -3067,7 +3067,7 @@
         <v>221</v>
       </c>
       <c r="C20">
-        <v>0.0938950133601959</v>
+        <v>9.4</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -3084,7 +3084,7 @@
         <v>221</v>
       </c>
       <c r="C21">
-        <v>0.1128371249859808</v>
+        <v>11.3</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -3101,7 +3101,7 @@
         <v>221</v>
       </c>
       <c r="C22">
-        <v>0.09063096588168804</v>
+        <v>9.1</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>236</v>
@@ -3118,7 +3118,7 @@
         <v>221</v>
       </c>
       <c r="C23">
-        <v>0.08638179745773583</v>
+        <v>8.6</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>237</v>
@@ -3135,7 +3135,7 @@
         <v>221</v>
       </c>
       <c r="C24">
-        <v>0.0854422793529529</v>
+        <v>8.5</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>238</v>
@@ -3152,7 +3152,7 @@
         <v>221</v>
       </c>
       <c r="C25">
-        <v>0.06271267374618099</v>
+        <v>6.3</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>239</v>
@@ -3169,7 +3169,7 @@
         <v>221</v>
       </c>
       <c r="C26">
-        <v>0.08230968541458143</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>240</v>
@@ -3186,7 +3186,7 @@
         <v>221</v>
       </c>
       <c r="C27">
-        <v>0.07270911712824234</v>
+        <v>7.3</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>241</v>
@@ -3255,7 +3255,7 @@
         <v>251</v>
       </c>
       <c r="C2">
-        <v>0.06369487159665729</v>
+        <v>6.4</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -3272,7 +3272,7 @@
         <v>251</v>
       </c>
       <c r="C3">
-        <v>0.07878057228987029</v>
+        <v>7.9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>252</v>
@@ -3289,7 +3289,7 @@
         <v>251</v>
       </c>
       <c r="C4">
-        <v>0.0666231467111337</v>
+        <v>6.7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>253</v>
@@ -3306,7 +3306,7 @@
         <v>251</v>
       </c>
       <c r="C5">
-        <v>0.06918068895426813</v>
+        <v>6.9</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -3323,7 +3323,7 @@
         <v>251</v>
       </c>
       <c r="C6">
-        <v>0.06586217303091861</v>
+        <v>6.6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>254</v>
@@ -3340,7 +3340,7 @@
         <v>251</v>
       </c>
       <c r="C7">
-        <v>0.06806819251218851</v>
+        <v>6.8</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -3357,7 +3357,7 @@
         <v>251</v>
       </c>
       <c r="C8">
-        <v>0.07440516778597488</v>
+        <v>7.4</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>255</v>
@@ -3374,7 +3374,7 @@
         <v>251</v>
       </c>
       <c r="C9">
-        <v>0.06106344520813337</v>
+        <v>6.1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>256</v>
@@ -3391,7 +3391,7 @@
         <v>251</v>
       </c>
       <c r="C10">
-        <v>0.07994518335545023</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -3445,7 +3445,7 @@
         <v>265</v>
       </c>
       <c r="C2">
-        <v>0.06332352673472733</v>
+        <v>6.3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>266</v>
@@ -3462,7 +3462,7 @@
         <v>265</v>
       </c>
       <c r="C3">
-        <v>0.08039150618547321</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -3479,7 +3479,7 @@
         <v>265</v>
       </c>
       <c r="C4">
-        <v>0.09554434701457269</v>
+        <v>9.6</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -3496,7 +3496,7 @@
         <v>265</v>
       </c>
       <c r="C5">
-        <v>0.07250361450039211</v>
+        <v>7.3</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -3513,7 +3513,7 @@
         <v>265</v>
       </c>
       <c r="C6">
-        <v>0.08058750519372183</v>
+        <v>8.1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>267</v>
@@ -3530,7 +3530,7 @@
         <v>265</v>
       </c>
       <c r="C7">
-        <v>0.07604799399367819</v>
+        <v>7.6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>268</v>
@@ -3547,7 +3547,7 @@
         <v>265</v>
       </c>
       <c r="C8">
-        <v>0.07283663159432276</v>
+        <v>7.3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>269</v>
@@ -3564,7 +3564,7 @@
         <v>265</v>
       </c>
       <c r="C9">
-        <v>0.05800046961784733</v>
+        <v>5.8</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -3617,7 +3617,7 @@
         <v>286</v>
       </c>
       <c r="C2">
-        <v>0.06355871073210718</v>
+        <v>6.4</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -3634,7 +3634,7 @@
         <v>286</v>
       </c>
       <c r="C3">
-        <v>0.04019340700337465</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>287</v>
@@ -3651,7 +3651,7 @@
         <v>286</v>
       </c>
       <c r="C4">
-        <v>0.04892038514354501</v>
+        <v>4.9</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -3668,7 +3668,7 @@
         <v>286</v>
       </c>
       <c r="C5">
-        <v>0.06211116863729343</v>
+        <v>6.2</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -3685,7 +3685,7 @@
         <v>286</v>
       </c>
       <c r="C6">
-        <v>0.0712436857988574</v>
+        <v>7.1</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -3702,7 +3702,7 @@
         <v>286</v>
       </c>
       <c r="C7">
-        <v>0.05845845875138749</v>
+        <v>5.8</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -3719,7 +3719,7 @@
         <v>286</v>
       </c>
       <c r="C8">
-        <v>0.07085106106291314</v>
+        <v>7.1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>288</v>
@@ -3736,7 +3736,7 @@
         <v>286</v>
       </c>
       <c r="C9">
-        <v>0.07597880990069575</v>
+        <v>7.6</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -3753,7 +3753,7 @@
         <v>286</v>
       </c>
       <c r="C10">
-        <v>0.04682916517497189</v>
+        <v>4.7</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -3770,7 +3770,7 @@
         <v>286</v>
       </c>
       <c r="C11">
-        <v>0.05265839985775768</v>
+        <v>5.3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>289</v>
@@ -3787,7 +3787,7 @@
         <v>286</v>
       </c>
       <c r="C12">
-        <v>0.04989308453351107</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -3804,7 +3804,7 @@
         <v>286</v>
       </c>
       <c r="C13">
-        <v>0.05632201864964928</v>
+        <v>5.6</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -3821,7 +3821,7 @@
         <v>286</v>
       </c>
       <c r="C14">
-        <v>0.04838530752286105</v>
+        <v>4.8</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -3838,7 +3838,7 @@
         <v>286</v>
       </c>
       <c r="C15">
-        <v>0.02410397443604743</v>
+        <v>2.4</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>290</v>
@@ -3855,7 +3855,7 @@
         <v>286</v>
       </c>
       <c r="C16">
-        <v>0.06325904988850772</v>
+        <v>6.3</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -3872,7 +3872,7 @@
         <v>286</v>
       </c>
       <c r="C17">
-        <v>0.06686873815265758</v>
+        <v>6.7</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>291</v>
@@ -3926,7 +3926,7 @@
         <v>307</v>
       </c>
       <c r="C2">
-        <v>0.08463110138607759</v>
+        <v>8.5</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -3943,7 +3943,7 @@
         <v>307</v>
       </c>
       <c r="C3">
-        <v>0.06209325396825398</v>
+        <v>6.2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>308</v>
@@ -3960,7 +3960,7 @@
         <v>307</v>
       </c>
       <c r="C4">
-        <v>0.08172730299016158</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -3977,7 +3977,7 @@
         <v>307</v>
       </c>
       <c r="C5">
-        <v>0.100632611114207</v>
+        <v>10.1</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -3994,7 +3994,7 @@
         <v>307</v>
       </c>
       <c r="C6">
-        <v>0.1022547543607607</v>
+        <v>10.2</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -4011,7 +4011,7 @@
         <v>307</v>
       </c>
       <c r="C7">
-        <v>0.03897844908714474</v>
+        <v>3.9</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -4028,7 +4028,7 @@
         <v>307</v>
       </c>
       <c r="C8">
-        <v>0.05899824729406899</v>
+        <v>5.9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>309</v>
@@ -4045,7 +4045,7 @@
         <v>307</v>
       </c>
       <c r="C9">
-        <v>0.01785714285714285</v>
+        <v>1.8</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -4062,7 +4062,7 @@
         <v>307</v>
       </c>
       <c r="C10">
-        <v>0.03745039682539682</v>
+        <v>3.7</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -4079,7 +4079,7 @@
         <v>307</v>
       </c>
       <c r="C11">
-        <v>0.08293148872104252</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -4096,7 +4096,7 @@
         <v>307</v>
       </c>
       <c r="C12">
-        <v>0.05728046158686402</v>
+        <v>5.7</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -4113,7 +4113,7 @@
         <v>307</v>
       </c>
       <c r="C13">
-        <v>0.07965942787371361</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -4130,7 +4130,7 @@
         <v>307</v>
       </c>
       <c r="C14">
-        <v>0.07299210060480074</v>
+        <v>7.3</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>310</v>
@@ -4147,7 +4147,7 @@
         <v>307</v>
       </c>
       <c r="C15">
-        <v>0.06312012057143704</v>
+        <v>6.3</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -4164,7 +4164,7 @@
         <v>307</v>
       </c>
       <c r="C16">
-        <v>0.08220670884696615</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>311</v>
@@ -4217,7 +4217,7 @@
         <v>319</v>
       </c>
       <c r="C2">
-        <v>0.05920741158752741</v>
+        <v>5.9</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -4234,7 +4234,7 @@
         <v>319</v>
       </c>
       <c r="C3">
-        <v>0.07530256376717442</v>
+        <v>7.5</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -4251,7 +4251,7 @@
         <v>319</v>
       </c>
       <c r="C4">
-        <v>0.07240952545804048</v>
+        <v>7.2</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -4268,7 +4268,7 @@
         <v>319</v>
       </c>
       <c r="C5">
-        <v>0.06560283314932576</v>
+        <v>6.6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>320</v>
@@ -4285,7 +4285,7 @@
         <v>319</v>
       </c>
       <c r="C6">
-        <v>0.08132507376740258</v>
+        <v>8.1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>321</v>
@@ -4302,7 +4302,7 @@
         <v>319</v>
       </c>
       <c r="C7">
-        <v>0.06229187253517578</v>
+        <v>6.2</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -4319,7 +4319,7 @@
         <v>319</v>
       </c>
       <c r="C8">
-        <v>0.06104495238337404</v>
+        <v>6.1</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -4370,7 +4370,7 @@
         <v>332</v>
       </c>
       <c r="C2">
-        <v>0.08467082063406652</v>
+        <v>8.5</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -4387,7 +4387,7 @@
         <v>332</v>
       </c>
       <c r="C3">
-        <v>0.08341704594444087</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -4404,7 +4404,7 @@
         <v>332</v>
       </c>
       <c r="C4">
-        <v>0.07679359962426027</v>
+        <v>7.7</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -4421,7 +4421,7 @@
         <v>332</v>
       </c>
       <c r="C5">
-        <v>0.08123456469983636</v>
+        <v>8.1</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -4438,7 +4438,7 @@
         <v>332</v>
       </c>
       <c r="C6">
-        <v>0.08162202620088913</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>333</v>
@@ -4455,7 +4455,7 @@
         <v>332</v>
       </c>
       <c r="C7">
-        <v>0.07642102938412798</v>
+        <v>7.6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>334</v>
@@ -4472,7 +4472,7 @@
         <v>332</v>
       </c>
       <c r="C8">
-        <v>0.06924026936717274</v>
+        <v>6.9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>335</v>
@@ -4489,7 +4489,7 @@
         <v>332</v>
       </c>
       <c r="C9">
-        <v>0.05952735943117683</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -4506,7 +4506,7 @@
         <v>332</v>
       </c>
       <c r="C10">
-        <v>0.0670495271242888</v>
+        <v>6.7</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -4523,7 +4523,7 @@
         <v>332</v>
       </c>
       <c r="C11">
-        <v>0.07658767428480581</v>
+        <v>7.7</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -4575,7 +4575,7 @@
         <v>385</v>
       </c>
       <c r="C2">
-        <v>0.08968315530502405</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>386</v>
@@ -4592,7 +4592,7 @@
         <v>385</v>
       </c>
       <c r="C3">
-        <v>0.07797206459456414</v>
+        <v>7.8</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -4609,7 +4609,7 @@
         <v>385</v>
       </c>
       <c r="C4">
-        <v>0.07675163702380684</v>
+        <v>7.7</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -4626,7 +4626,7 @@
         <v>385</v>
       </c>
       <c r="C5">
-        <v>0.08220843541623976</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -4643,7 +4643,7 @@
         <v>385</v>
       </c>
       <c r="C6">
-        <v>0.0817404698595658</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -4660,7 +4660,7 @@
         <v>385</v>
       </c>
       <c r="C7">
-        <v>0.07628487606585559</v>
+        <v>7.6</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -4677,7 +4677,7 @@
         <v>385</v>
       </c>
       <c r="C8">
-        <v>0.08320347022902196</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>387</v>
@@ -4694,7 +4694,7 @@
         <v>385</v>
       </c>
       <c r="C9">
-        <v>0.07614390539753603</v>
+        <v>7.6</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -4711,7 +4711,7 @@
         <v>385</v>
       </c>
       <c r="C10">
-        <v>0.07740142887033657</v>
+        <v>7.7</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>388</v>
@@ -4728,7 +4728,7 @@
         <v>385</v>
       </c>
       <c r="C11">
-        <v>0.07013240027920878</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>389</v>
@@ -4745,7 +4745,7 @@
         <v>385</v>
       </c>
       <c r="C12">
-        <v>0.05543863728702094</v>
+        <v>5.5</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -4762,7 +4762,7 @@
         <v>385</v>
       </c>
       <c r="C13">
-        <v>0.07763704818023739</v>
+        <v>7.8</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>390</v>
@@ -4779,7 +4779,7 @@
         <v>385</v>
       </c>
       <c r="C14">
-        <v>0.08931430314467403</v>
+        <v>8.9</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -4796,7 +4796,7 @@
         <v>385</v>
       </c>
       <c r="C15">
-        <v>0.07425641056499373</v>
+        <v>7.4</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -4813,7 +4813,7 @@
         <v>385</v>
       </c>
       <c r="C16">
-        <v>0.0749761798547102</v>
+        <v>7.5</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -4830,7 +4830,7 @@
         <v>385</v>
       </c>
       <c r="C17">
-        <v>0.06330140371433526</v>
+        <v>6.3</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -4847,7 +4847,7 @@
         <v>385</v>
       </c>
       <c r="C18">
-        <v>0.05532045814186719</v>
+        <v>5.5</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -4864,7 +4864,7 @@
         <v>385</v>
       </c>
       <c r="C19">
-        <v>0.06578073314142187</v>
+        <v>6.6</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -4881,7 +4881,7 @@
         <v>385</v>
       </c>
       <c r="C20">
-        <v>0.0465946550369637</v>
+        <v>4.7</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -4898,7 +4898,7 @@
         <v>385</v>
       </c>
       <c r="C21">
-        <v>0.0701876136565409</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -4915,7 +4915,7 @@
         <v>385</v>
       </c>
       <c r="C22">
-        <v>0.05503121325281628</v>
+        <v>5.5</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -4932,7 +4932,7 @@
         <v>385</v>
       </c>
       <c r="C23">
-        <v>0.05547856641444567</v>
+        <v>5.5</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -4949,7 +4949,7 @@
         <v>385</v>
       </c>
       <c r="C24">
-        <v>0.07145206664468494</v>
+        <v>7.1</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -4966,7 +4966,7 @@
         <v>385</v>
       </c>
       <c r="C25">
-        <v>0.05887189376903463</v>
+        <v>5.9</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -4983,7 +4983,7 @@
         <v>385</v>
       </c>
       <c r="C26">
-        <v>0.07129087547601946</v>
+        <v>7.1</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -5000,7 +5000,7 @@
         <v>385</v>
       </c>
       <c r="C27">
-        <v>0.07421594247781289</v>
+        <v>7.4</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>391</v>
@@ -5017,7 +5017,7 @@
         <v>385</v>
       </c>
       <c r="C28">
-        <v>0.08063160922382689</v>
+        <v>8.1</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>392</v>
@@ -5034,7 +5034,7 @@
         <v>385</v>
       </c>
       <c r="C29">
-        <v>0.05796873288707401</v>
+        <v>5.8</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>393</v>
@@ -5051,7 +5051,7 @@
         <v>385</v>
       </c>
       <c r="C30">
-        <v>0.07900324612193288</v>
+        <v>7.9</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -5068,7 +5068,7 @@
         <v>385</v>
       </c>
       <c r="C31">
-        <v>0.05767007673304146</v>
+        <v>5.8</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>394</v>
@@ -5085,7 +5085,7 @@
         <v>385</v>
       </c>
       <c r="C32">
-        <v>0.08139978209978142</v>
+        <v>8.1</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>395</v>
@@ -5102,7 +5102,7 @@
         <v>385</v>
       </c>
       <c r="C33">
-        <v>0.08264060483353733</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>396</v>
@@ -5119,7 +5119,7 @@
         <v>385</v>
       </c>
       <c r="C34">
-        <v>0.06459040640158112</v>
+        <v>6.5</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -5136,7 +5136,7 @@
         <v>385</v>
       </c>
       <c r="C35">
-        <v>0.06799621860120332</v>
+        <v>6.8</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -5153,7 +5153,7 @@
         <v>385</v>
       </c>
       <c r="C36">
-        <v>0.08432083248236984</v>
+        <v>8.4</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>397</v>
@@ -5170,7 +5170,7 @@
         <v>385</v>
       </c>
       <c r="C37">
-        <v>0.07956377478869936</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>398</v>
@@ -5187,7 +5187,7 @@
         <v>385</v>
       </c>
       <c r="C38">
-        <v>0.06902258111591543</v>
+        <v>6.9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>399</v>
@@ -5204,7 +5204,7 @@
         <v>385</v>
       </c>
       <c r="C39">
-        <v>0.07693129067052229</v>
+        <v>7.7</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -5221,7 +5221,7 @@
         <v>385</v>
       </c>
       <c r="C40">
-        <v>0.05692912903302751</v>
+        <v>5.7</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>400</v>
@@ -5238,7 +5238,7 @@
         <v>385</v>
       </c>
       <c r="C41">
-        <v>0.0688514886498573</v>
+        <v>6.9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>401</v>
@@ -5255,7 +5255,7 @@
         <v>385</v>
       </c>
       <c r="C42">
-        <v>0.05423459046932939</v>
+        <v>5.4</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -5272,7 +5272,7 @@
         <v>385</v>
       </c>
       <c r="C43">
-        <v>0.04722049692122803</v>
+        <v>4.7</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>402</v>
@@ -5289,7 +5289,7 @@
         <v>385</v>
       </c>
       <c r="C44">
-        <v>0.05800223919314745</v>
+        <v>5.8</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -5306,7 +5306,7 @@
         <v>385</v>
       </c>
       <c r="C45">
-        <v>0.06323238491530066</v>
+        <v>6.3</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -5323,7 +5323,7 @@
         <v>385</v>
       </c>
       <c r="C46">
-        <v>0.06307028341146065</v>
+        <v>6.3</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>403</v>
@@ -5340,7 +5340,7 @@
         <v>385</v>
       </c>
       <c r="C47">
-        <v>0.06008614401892933</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>404</v>
@@ -5357,7 +5357,7 @@
         <v>385</v>
       </c>
       <c r="C48">
-        <v>0.0739392676549078</v>
+        <v>7.4</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -5374,7 +5374,7 @@
         <v>385</v>
       </c>
       <c r="C49">
-        <v>0.06286312320785492</v>
+        <v>6.3</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -5391,7 +5391,7 @@
         <v>385</v>
       </c>
       <c r="C50">
-        <v>0.06034227676939238</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>405</v>
@@ -5460,7 +5460,7 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>0.06892917836138833</v>
+        <v>6.9</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -5477,7 +5477,7 @@
         <v>30</v>
       </c>
       <c r="C3">
-        <v>0.06841056261265648</v>
+        <v>6.8</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -5494,7 +5494,7 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>0.07890026754016323</v>
+        <v>7.9</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -5511,7 +5511,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.07429398622338473</v>
+        <v>7.4</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -5528,7 +5528,7 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>0.06738883066063339</v>
+        <v>6.7</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -5545,7 +5545,7 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>0.06616169766656933</v>
+        <v>6.6</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -5562,7 +5562,7 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>0.05055099741651649</v>
+        <v>5.1</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -5579,7 +5579,7 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>0.07060793700347996</v>
+        <v>7.1</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -5596,7 +5596,7 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <v>0.07610466370177843</v>
+        <v>7.6</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -5613,7 +5613,7 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>0.07338052290831522</v>
+        <v>7.3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
@@ -5630,7 +5630,7 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0.06932502973026199</v>
+        <v>6.9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
@@ -5647,7 +5647,7 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>0.0856519990705167</v>
+        <v>8.6</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -5664,7 +5664,7 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>0.07311584698923557</v>
+        <v>7.3</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -5681,7 +5681,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>0.0635646911666385</v>
+        <v>6.4</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>35</v>
@@ -5698,7 +5698,7 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>0.06305293399226239</v>
+        <v>6.3</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -5751,7 +5751,7 @@
         <v>418</v>
       </c>
       <c r="C2">
-        <v>0.08794698058806111</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>419</v>
@@ -5768,7 +5768,7 @@
         <v>418</v>
       </c>
       <c r="C3">
-        <v>0.07003482854357825</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -5785,7 +5785,7 @@
         <v>418</v>
       </c>
       <c r="C4">
-        <v>0.06981823238845705</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -5802,7 +5802,7 @@
         <v>418</v>
       </c>
       <c r="C5">
-        <v>0.05963444012440951</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>420</v>
@@ -5819,7 +5819,7 @@
         <v>418</v>
       </c>
       <c r="C6">
-        <v>0.02273222109920967</v>
+        <v>2.3</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -5836,7 +5836,7 @@
         <v>418</v>
       </c>
       <c r="C7">
-        <v>0.06161332505413199</v>
+        <v>6.2</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -5853,7 +5853,7 @@
         <v>418</v>
       </c>
       <c r="C8">
-        <v>0.06838985391189982</v>
+        <v>6.8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>421</v>
@@ -5870,7 +5870,7 @@
         <v>418</v>
       </c>
       <c r="C9">
-        <v>0.07362269170409613</v>
+        <v>7.4</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -5887,7 +5887,7 @@
         <v>418</v>
       </c>
       <c r="C10">
-        <v>0.08155194210851513</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>422</v>
@@ -5904,7 +5904,7 @@
         <v>418</v>
       </c>
       <c r="C11">
-        <v>0.06741071126861059</v>
+        <v>6.7</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>423</v>
@@ -5921,7 +5921,7 @@
         <v>418</v>
       </c>
       <c r="C12">
-        <v>0.07832037383929294</v>
+        <v>7.8</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -5938,7 +5938,7 @@
         <v>418</v>
       </c>
       <c r="C13">
-        <v>0.06278204096372671</v>
+        <v>6.3</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -5992,7 +5992,7 @@
         <v>437</v>
       </c>
       <c r="C2">
-        <v>0.07059067095543468</v>
+        <v>7.1</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -6009,7 +6009,7 @@
         <v>437</v>
       </c>
       <c r="C3">
-        <v>0.06084149828047423</v>
+        <v>6.1</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -6026,7 +6026,7 @@
         <v>437</v>
       </c>
       <c r="C4">
-        <v>0.07656595537898003</v>
+        <v>7.7</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -6043,7 +6043,7 @@
         <v>437</v>
       </c>
       <c r="C5">
-        <v>0.06825478883054295</v>
+        <v>6.8</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -6060,7 +6060,7 @@
         <v>437</v>
       </c>
       <c r="C6">
-        <v>0.07781171707064609</v>
+        <v>7.8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>438</v>
@@ -6077,7 +6077,7 @@
         <v>437</v>
       </c>
       <c r="C7">
-        <v>0.06605029780674963</v>
+        <v>6.6</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -6094,7 +6094,7 @@
         <v>437</v>
       </c>
       <c r="C8">
-        <v>0.06314947707714712</v>
+        <v>6.3</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -6111,7 +6111,7 @@
         <v>437</v>
       </c>
       <c r="C9">
-        <v>0.07817576996138308</v>
+        <v>7.8</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>439</v>
@@ -6128,7 +6128,7 @@
         <v>437</v>
       </c>
       <c r="C10">
-        <v>0.06870100704679302</v>
+        <v>6.9</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -6145,7 +6145,7 @@
         <v>437</v>
       </c>
       <c r="C11">
-        <v>0.07926457547430098</v>
+        <v>7.9</v>
       </c>
       <c r="D11" t="s">
         <v>440</v>
@@ -6162,7 +6162,7 @@
         <v>437</v>
       </c>
       <c r="C12">
-        <v>0.06052378665984954</v>
+        <v>6.1</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -6179,7 +6179,7 @@
         <v>437</v>
       </c>
       <c r="C13">
-        <v>0.08264479516777649</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -6196,7 +6196,7 @@
         <v>437</v>
       </c>
       <c r="C14">
-        <v>0.08345160061637033</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>441</v>
@@ -6248,7 +6248,7 @@
         <v>37</v>
       </c>
       <c r="C2">
-        <v>0.06565393185052729</v>
+        <v>6.6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
@@ -6298,7 +6298,7 @@
         <v>49</v>
       </c>
       <c r="C2">
-        <v>0.06545456857956859</v>
+        <v>6.5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>50</v>
@@ -6315,7 +6315,7 @@
         <v>49</v>
       </c>
       <c r="C3">
-        <v>0.05644063397675594</v>
+        <v>5.6</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -6332,7 +6332,7 @@
         <v>49</v>
       </c>
       <c r="C4">
-        <v>0.06444507425844531</v>
+        <v>6.4</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -6349,7 +6349,7 @@
         <v>49</v>
       </c>
       <c r="C5">
-        <v>0.07440985234652259</v>
+        <v>7.4</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -6366,7 +6366,7 @@
         <v>49</v>
       </c>
       <c r="C6">
-        <v>0.03798298146198286</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -6383,7 +6383,7 @@
         <v>49</v>
       </c>
       <c r="C7">
-        <v>0.06100513406216745</v>
+        <v>6.1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -6400,7 +6400,7 @@
         <v>49</v>
       </c>
       <c r="C8">
-        <v>0.04678196704923624</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -6417,7 +6417,7 @@
         <v>49</v>
       </c>
       <c r="C9">
-        <v>0.06065326724571211</v>
+        <v>6.1</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -6434,7 +6434,7 @@
         <v>49</v>
       </c>
       <c r="C10">
-        <v>0.0455480925238178</v>
+        <v>4.6</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>52</v>
@@ -6451,7 +6451,7 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>0.0678566222826768</v>
+        <v>6.8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>53</v>
@@ -6504,7 +6504,7 @@
         <v>60</v>
       </c>
       <c r="C2">
-        <v>0.07418984128266769</v>
+        <v>7.4</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -6521,7 +6521,7 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.06722475368112807</v>
+        <v>6.7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>61</v>
@@ -6538,7 +6538,7 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>0.06060519070905029</v>
+        <v>6.1</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -6555,7 +6555,7 @@
         <v>60</v>
       </c>
       <c r="C5">
-        <v>0.06571854867722164</v>
+        <v>6.6</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -6572,7 +6572,7 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.07092690309096124</v>
+        <v>7.1</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -6589,7 +6589,7 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>0.08085876171896782</v>
+        <v>8.1</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -6639,7 +6639,7 @@
         <v>70</v>
       </c>
       <c r="C2">
-        <v>0.05061831836025384</v>
+        <v>5.1</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -6656,7 +6656,7 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>0.07074002442836098</v>
+        <v>7.1</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -6673,7 +6673,7 @@
         <v>70</v>
       </c>
       <c r="C4">
-        <v>0.0929713150065911</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -6690,7 +6690,7 @@
         <v>70</v>
       </c>
       <c r="C5">
-        <v>0.02445954370121613</v>
+        <v>2.4</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -6707,7 +6707,7 @@
         <v>70</v>
       </c>
       <c r="C6">
-        <v>0.07488338094349196</v>
+        <v>7.5</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -6724,7 +6724,7 @@
         <v>70</v>
       </c>
       <c r="C7">
-        <v>0.08054448179106087</v>
+        <v>8.1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>71</v>
@@ -6741,7 +6741,7 @@
         <v>70</v>
       </c>
       <c r="C8">
-        <v>0.04683688671842642</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -6758,7 +6758,7 @@
         <v>70</v>
       </c>
       <c r="C9">
-        <v>0.0601379340337174</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>72</v>
@@ -6809,7 +6809,7 @@
         <v>86</v>
       </c>
       <c r="C2">
-        <v>0.08172603954176877</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>87</v>
@@ -6826,7 +6826,7 @@
         <v>86</v>
       </c>
       <c r="C3">
-        <v>0.08002508252892905</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -6843,7 +6843,7 @@
         <v>86</v>
       </c>
       <c r="C4">
-        <v>0.07766504804834294</v>
+        <v>7.8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>88</v>
@@ -6860,7 +6860,7 @@
         <v>86</v>
       </c>
       <c r="C5">
-        <v>0.0777714944006703</v>
+        <v>7.8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>89</v>
@@ -6877,7 +6877,7 @@
         <v>86</v>
       </c>
       <c r="C6">
-        <v>0.07401713658926597</v>
+        <v>7.4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>90</v>
@@ -6894,7 +6894,7 @@
         <v>86</v>
       </c>
       <c r="C7">
-        <v>0.07424964946747815</v>
+        <v>7.4</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>91</v>
@@ -6911,7 +6911,7 @@
         <v>86</v>
       </c>
       <c r="C8">
-        <v>0.06056694861443521</v>
+        <v>6.1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>92</v>
@@ -6928,7 +6928,7 @@
         <v>86</v>
       </c>
       <c r="C9">
-        <v>0.06298481115583551</v>
+        <v>6.3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>93</v>
@@ -6945,7 +6945,7 @@
         <v>86</v>
       </c>
       <c r="C10">
-        <v>0.05898399875619671</v>
+        <v>5.9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>94</v>
@@ -6962,7 +6962,7 @@
         <v>86</v>
       </c>
       <c r="C11">
-        <v>0.06408601095112333</v>
+        <v>6.4</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -6979,7 +6979,7 @@
         <v>86</v>
       </c>
       <c r="C12">
-        <v>0.06388548378969891</v>
+        <v>6.4</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -6996,7 +6996,7 @@
         <v>86</v>
       </c>
       <c r="C13">
-        <v>0.05980457047951254</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -7013,7 +7013,7 @@
         <v>86</v>
       </c>
       <c r="C14">
-        <v>0.07134073785204356</v>
+        <v>7.1</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>95</v>
@@ -7071,7 +7071,7 @@
         <v>108</v>
       </c>
       <c r="C2">
-        <v>0.04783248420472141</v>
+        <v>4.8</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -7088,7 +7088,7 @@
         <v>108</v>
       </c>
       <c r="C3">
-        <v>0.06160773789915487</v>
+        <v>6.2</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -7105,7 +7105,7 @@
         <v>108</v>
       </c>
       <c r="C4">
-        <v>0.07017005932384283</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -7122,7 +7122,7 @@
         <v>108</v>
       </c>
       <c r="C5">
-        <v>0.04809009227386411</v>
+        <v>4.8</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -7139,7 +7139,7 @@
         <v>108</v>
       </c>
       <c r="C6">
-        <v>0.06519788486631281</v>
+        <v>6.5</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -7156,7 +7156,7 @@
         <v>108</v>
       </c>
       <c r="C7">
-        <v>0.05328922529549373</v>
+        <v>5.3</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -7173,7 +7173,7 @@
         <v>108</v>
       </c>
       <c r="C8">
-        <v>0.05652943773447291</v>
+        <v>5.7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>109</v>
@@ -7190,7 +7190,7 @@
         <v>108</v>
       </c>
       <c r="C9">
-        <v>0.06330461512168965</v>
+        <v>6.3</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -7207,7 +7207,7 @@
         <v>108</v>
       </c>
       <c r="C10">
-        <v>0.05955514770451151</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -7224,7 +7224,7 @@
         <v>108</v>
       </c>
       <c r="C11">
-        <v>0.0577145209931009</v>
+        <v>5.8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>110</v>
@@ -7241,7 +7241,7 @@
         <v>108</v>
       </c>
       <c r="C12">
-        <v>0.05544340720325495</v>
+        <v>5.5</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -7258,7 +7258,7 @@
         <v>108</v>
       </c>
       <c r="C13">
-        <v>0.07454415068255339</v>
+        <v>7.5</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>111</v>
@@ -7310,7 +7310,7 @@
         <v>120</v>
       </c>
       <c r="C2">
-        <v>0.06993258639548683</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>121</v>
@@ -7327,7 +7327,7 @@
         <v>120</v>
       </c>
       <c r="C3">
-        <v>0.07914745524942891</v>
+        <v>7.9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>122</v>
@@ -7344,7 +7344,7 @@
         <v>120</v>
       </c>
       <c r="C4">
-        <v>0.0596922019546265</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>123</v>
@@ -7361,7 +7361,7 @@
         <v>120</v>
       </c>
       <c r="C5">
-        <v>0.08469554797215427</v>
+        <v>8.5</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -7378,7 +7378,7 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>0.07081995808507044</v>
+        <v>7.1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>124</v>
@@ -7395,7 +7395,7 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>0.06568561484182897</v>
+        <v>6.6</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -7412,7 +7412,7 @@
         <v>120</v>
       </c>
       <c r="C8">
-        <v>0.06986862307772726</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>125</v>
@@ -7429,7 +7429,7 @@
         <v>120</v>
       </c>
       <c r="C9">
-        <v>0.05866861261891208</v>
+        <v>5.9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>126</v>

--- a/data/climate-data.xlsx
+++ b/data/climate-data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="455">
   <si>
     <t>Kommun</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Blekinge län</t>
   </si>
   <si>
-    <t>/data/climatePlans/Olofström_Handlingsplan för klimat och energi.pdf</t>
+    <t>/data/climatePlans/Olofstr%C3%B6m_Handlingsplan%20f%C3%B6r%20klimat%20och%20energi.pdf</t>
   </si>
   <si>
     <t>https://www.karlskrona.se/globalassets/kommun-och-politik/sa-arbetar-vi-med/hallbarhetsprogram_karlskrona_kommun_210517.pdf</t>
@@ -129,7 +129,7 @@
     <t>Dalarnas län</t>
   </si>
   <si>
-    <t>public/data/climatePlans/Vansbro_Energi- och klimatplan.pdf</t>
+    <t>/data/climatePlans/Vansbro_Energi och klimatplan.pdf</t>
   </si>
   <si>
     <t>https://www.falun.se/download/18.7eb630aa16a59ef02cf6d5b8/1557238559519/energi_och_klimatprogram_2013_webb.pdf</t>
@@ -222,6 +222,9 @@
     <t>https://www.halmstad.se/download/18.1ab5eabc17db948137827c20/1643015898074/Plan-for-energi-och-klimat-anpassad.pdf</t>
   </si>
   <si>
+    <t>https://kungsbacka.se/download/18.5c06deb5186a19d6e5c23920/1678800987979/Klimatstrategi%202022.pdf</t>
+  </si>
+  <si>
     <t>Ragunda</t>
   </si>
   <si>
@@ -411,7 +414,7 @@
     <t>https://www.almhult.se/stadsutvecklingplanering/strategiskplanering/miljoplan2030.1994.html</t>
   </si>
   <si>
-    <t>https://vaxjo.se/download/18.5975292f184b921397ce18b0/1670511806917/V%C3%A4xj%C3%B6%20kommun%20klimatkontrakt%202022.pdf</t>
+    <t>https://vaxjo.se/download/18.58d9f57a16d9ce07d02dd012/1571219603597/H%C3%A5llbarhetsprogrammet%20H%C3%A5llbara%20V%C3%A4xj%C3%B6%202030_antaget%20av%20KF.pdf</t>
   </si>
   <si>
     <t>https://www.ljungby.se/globalassets/dokument-och-innehall/miljo-och-klimat/hallbar-utveckling/klimat--och-energiplan_digital-lasning.pdf</t>
@@ -465,6 +468,9 @@
     <t>http://www3.alvsbyn.se/styrdoc/Styrdok.nsf/Formnytt.xsp?documentId=D921B3CF75BFCEFFC125868C00428F58&amp;action=openDocument</t>
   </si>
   <si>
+    <t>https://www.pitea.se/contentassets/9c4b5902081c401a985a37bee096f992/handlingsplan-miljo-klimat-och-energi.pdf?t=638201013076470932</t>
+  </si>
+  <si>
     <t>https://www.boden.se/kommunen/organisation-och-styrning/viktiga-styrdokument</t>
   </si>
   <si>
@@ -582,6 +588,9 @@
     <t>https://staffanstorp.se/wp-content/uploads/2021/11/6-17-miljoplan.pdf</t>
   </si>
   <si>
+    <t>https://burlov.se/download/18.1c32a37617b4106947ea55dd/1629702323432/Milj%C3%B6program%202030.pdf</t>
+  </si>
+  <si>
     <t>https://vellinge.se/siteassets/boende-miljo-och-trafik/pdf/vellinge_program-for-hallbar-utveckling_2021_slutlig-version.pdf</t>
   </si>
   <si>
@@ -591,6 +600,9 @@
     <t>https://www.svedala.se/contentassets/ff83c3d46b1e464cb1c0a32030db2256/hallbarhetsstrategi-svedala-kommun-2021-tillganglighetsanpassad-webb.pdf</t>
   </si>
   <si>
+    <t>https://www.skurup.se/36987</t>
+  </si>
+  <si>
     <t>https://www.sjobo.se/bygga-bo-och-miljo/hallbarhet-miljo-och-natur/lokala-miljomal.html</t>
   </si>
   <si>
@@ -600,12 +612,18 @@
     <t>https://www.osby.se/bygga-bo--miljo/natur-och-hallbarhet/klimatarbete.html</t>
   </si>
   <si>
+    <t>https://www.perstorp.se/download/18.6ee8abfe17bedf7491a2a38/1643719465669/Klimat-%20och%20energiprogram.pdf</t>
+  </si>
+  <si>
     <t>https://www.klippan.se/download/18.1b71982c18529d736e712692/1673968304934/Ha%CC%8Allbarhetsstrategi.pdf?query=klimat</t>
   </si>
   <si>
     <t>https://medborgarportalen.astorp.se/welcome-sv/namnder-styrelser/bygg-och-miljonamndens-arbetsutskott/bygg-och-miljonamndens-arbetsutskott/agenda/02-verksamhetsplan-for-strategiskt-arbetsmiljoarbete-2022pdf?downloadMode=open</t>
   </si>
   <si>
+    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab4da16fc858ade542fa/1670425421810/Viable-Cities-Klimatkontrakt-Malmo-FINAL.pdf</t>
+  </si>
+  <si>
     <t>https://lund.se/download/18.2899fac318093d2b72817dd7/1666783006521/Lunds%20kommuns%20program%20f%C3%B6r%20ekologisk%20h%C3%A5llbar%20utveckling%202021-2030.pdf</t>
   </si>
   <si>
@@ -744,6 +762,12 @@
     <t>https://start.stockholm/globalassets/start/om-stockholms-stad/politik-och-demokrati/styrdokument/klimathandlingsplan-2020-2023.pdf</t>
   </si>
   <si>
+    <t>https://www.sodertalje.se/globalassets/styrande-dokument/miljo--och-klimatstrategi-2022-2030_antagen-av-kf.pdf</t>
+  </si>
+  <si>
+    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab5d7343c933175d7561/1670425438238/Viable-Cities-Klimatkontrakt-Nacka-FINAL.pdf</t>
+  </si>
+  <si>
     <t>https://www.solna.se/download/18.5002ae1016ed574744199bd/1596180205909/Klimatstrategi_2019.pdf</t>
   </si>
   <si>
@@ -906,6 +930,9 @@
     <t>https://sunne.se/globalassets/dokument/7.-kommun-och-politik/kommunfakta/forfattningssamling/bygga-bo-och-miljo/miljostrategi-2018-2030-kf-2018-05-07.pdf</t>
   </si>
   <si>
+    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab2cd964d14c504ed938/1670425390573/Viable-Cities-Klimatkontrakt-Karlstad-FINAL.pdf</t>
+  </si>
+  <si>
     <t>https://www.hagfors.se/undersidor/miljo-och-energi/miljomal-och-hallbarhetsarbete/miljoverenskommelsen-2022-2025.html</t>
   </si>
   <si>
@@ -969,7 +996,7 @@
     <t>https://www.umea.se/byggaboochmiljo/samhallsutvecklingochhallbarhet/klimatmiljoochhallbarhet/strategisktmiljoarbete/miljomal/programochplanerformiljomalen.4.4c35eecf182e743a9224108.html</t>
   </si>
   <si>
-    <t>https://skelleftea.se/skelleftea-vaxer/skelleftea-vaxer/en-hallbar-plats</t>
+    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab7bb0c4e669d7aee685/1670425468289/Viable-Cities-Klimatkontrakt-Skelleftea-FINAL.pdf</t>
   </si>
   <si>
     <t>Ånge</t>
@@ -1002,6 +1029,9 @@
     <t>https://www.kramfors.se/download/18.22be0c416e405e2b6c7c6cb/1575389653000/Kramfors-kommun-Program-f%C3%B6r-ekologisk-h%C3%A5llbarhet-2020-2031.pdf</t>
   </si>
   <si>
+    <t>https://www.ornskoldsvik.se/download/18.54f6f67017d0e18071cc1e0b/1645188359669/Klimatstrategi%202021-2026.pdf</t>
+  </si>
+  <si>
     <t>Skinnskatteberg</t>
   </si>
   <si>
@@ -1044,6 +1074,9 @@
     <t>https://www.sala.se/resources/files/_Nystruktur/Styrdokument/06%20Planer/Energi-%20och%20klimatstrategi%20Sala%20kommun%202020-2030%20med%20utblick%20mot%202045.pdf</t>
   </si>
   <si>
+    <t>https://www.arboga.se/download/18.626a0440182c91de14a1a5/1661251036439/Energi-%20och%20klimatstrategi%202009%20kf.pdf</t>
+  </si>
+  <si>
     <t>Härryda</t>
   </si>
   <si>
@@ -1197,6 +1230,9 @@
     <t>https://www.harryda.se/download/18.c0a4fce181800179101eedd/1660123092984/Energi-%20och%20klimatplan.pdf</t>
   </si>
   <si>
+    <t>https://www.orust.se/download/18.1c4985fe183bfdb97a25a9/1665396992481/Energi-%20och%20klimatstrategi%202017-2030%20Orust.pdf</t>
+  </si>
+  <si>
     <t>https://www.sotenas.se/download/18.31f128a417e9f4ede9dc1776/1644237756609/H%C3%A5llbarhetsstrategi%202030%20antagen%20210218%20m%C3%A5l%202022.pdf</t>
   </si>
   <si>
@@ -1209,9 +1245,6 @@
     <t>https://www.ale.se/download/18.2dcf200c178661e144145a5/1617883886384/Energi-%20och%20klimatstrategi%202030.pdf</t>
   </si>
   <si>
-    <t>https://herrljunga.se/kommun-och-politik/kommuninformation/klimat-2030.html</t>
-  </si>
-  <si>
     <t>https://vara.se/innehall/2022/02/Milj%C3%B6strategi-2021-2030-antagen-av-KF-2021-10-04-%C2%A7-89.pdf</t>
   </si>
   <si>
@@ -1245,10 +1278,16 @@
     <t>https://www.amal.se/media/467592/antagen-energi-och-klimatstrategi-20171027.pdf</t>
   </si>
   <si>
+    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab5329d52f430f6fe71a/1670425427707/Viable-Cities-Klimatkontrakt-Mariestad-FINAL.pdf</t>
+  </si>
+  <si>
     <t>https://skara.se/download/18.a9ae3d177427fab272ada/1611824198185/milj%C3%B6strategi%202017web.pdf</t>
   </si>
   <si>
     <t>https://skovde.se/globalassets/energi--och-klimatplanen_webb.pdf</t>
+  </si>
+  <si>
+    <t>https://hjo.se/globalassets/dokument/styrdokument/ovrigt/hallbarhetsstrategi-for-hjo-kommun.pdf</t>
   </si>
   <si>
     <t>https://www.falkoping.se/download/18.1adde54a17861a73b1e11aae/1626330208751/Klimatstrategi%202021-2030.pdf</t>
@@ -1874,10 +1913,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2">
         <v>3.1</v>
@@ -1891,10 +1930,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C3">
         <v>6.4</v>
@@ -1908,10 +1947,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4">
         <v>5.5</v>
@@ -1925,10 +1964,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>3.8</v>
@@ -1942,10 +1981,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -1959,10 +1998,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C7">
         <v>6.8</v>
@@ -1976,10 +2015,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C8">
         <v>4.7</v>
@@ -1993,10 +2032,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2010,16 +2049,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10">
         <v>5.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E10">
         <v>2021</v>
@@ -2027,10 +2066,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11">
         <v>7.6</v>
@@ -2044,33 +2083,33 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12">
         <v>8.4</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+      <c r="D12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12">
+        <v>2019</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C13">
         <v>6.1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E13">
         <v>2018</v>
@@ -2078,16 +2117,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14">
         <v>3.9</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E14">
         <v>2012</v>
@@ -2095,16 +2134,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15">
         <v>3.9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E15">
         <v>2015</v>
@@ -2113,8 +2152,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1"/>
-    <hyperlink ref="D13" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
+    <hyperlink ref="D12" r:id="rId2"/>
+    <hyperlink ref="D13" r:id="rId3"/>
+    <hyperlink ref="D15" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2147,16 +2187,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2">
         <v>6.7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2">
         <v>2022</v>
@@ -2164,16 +2204,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C3">
         <v>8.199999999999999</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E3">
         <v>2022</v>
@@ -2181,33 +2221,33 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C4">
         <v>4.8</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+      <c r="D4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4">
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5">
         <v>8.4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E5">
         <v>2021</v>
@@ -2215,10 +2255,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C6">
         <v>7.5</v>
@@ -2232,10 +2272,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C7">
         <v>3.3</v>
@@ -2249,10 +2289,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C8">
         <v>4.6</v>
@@ -2266,10 +2306,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C9">
         <v>9.300000000000001</v>
@@ -2283,16 +2323,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E10">
         <v>2020</v>
@@ -2300,16 +2340,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C11">
         <v>7.5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E11">
         <v>2021</v>
@@ -2317,33 +2357,33 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C12">
         <v>6.6</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+      <c r="D12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12">
+        <v>2017</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C13">
         <v>6.6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E13">
         <v>2022</v>
@@ -2351,10 +2391,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -2368,10 +2408,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15">
         <v>6.3</v>
@@ -2385,27 +2425,27 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16">
         <v>2.9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
+        <v>190</v>
+      </c>
+      <c r="E16">
+        <v>2019</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C17">
         <v>7.1</v>
@@ -2419,16 +2459,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C18">
         <v>5.4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E18">
         <v>2021</v>
@@ -2436,33 +2476,33 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C19">
         <v>6.4</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
+      <c r="D19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19">
+        <v>2021</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C20">
         <v>6.4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -2470,16 +2510,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C21">
         <v>7.2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E21">
         <v>2022</v>
@@ -2487,10 +2527,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -2504,33 +2544,33 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C23">
         <v>6.4</v>
       </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
+      <c r="D23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23">
+        <v>2022</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C24">
         <v>10.4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E24">
         <v>2021</v>
@@ -2538,10 +2578,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C25">
         <v>7.4</v>
@@ -2555,16 +2595,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C26">
         <v>6.3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E26">
         <v>2018</v>
@@ -2572,16 +2612,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C27">
         <v>7.3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E27">
         <v>2015</v>
@@ -2589,10 +2629,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C28">
         <v>5.9</v>
@@ -2606,16 +2646,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C29">
         <v>5.7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E29">
         <v>2020</v>
@@ -2623,10 +2663,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C30">
         <v>7.3</v>
@@ -2640,16 +2680,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C31">
         <v>7.5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E31">
         <v>2023</v>
@@ -2657,10 +2697,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -2674,10 +2714,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C33">
         <v>6.3</v>
@@ -2691,10 +2731,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C34">
         <v>5.6</v>
@@ -2710,19 +2750,23 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="D13" r:id="rId6"/>
-    <hyperlink ref="D16" r:id="rId7"/>
-    <hyperlink ref="D18" r:id="rId8"/>
-    <hyperlink ref="D20" r:id="rId9"/>
-    <hyperlink ref="D21" r:id="rId10"/>
-    <hyperlink ref="D24" r:id="rId11"/>
-    <hyperlink ref="D26" r:id="rId12"/>
-    <hyperlink ref="D27" r:id="rId13"/>
-    <hyperlink ref="D29" r:id="rId14"/>
-    <hyperlink ref="D31" r:id="rId15"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="D11" r:id="rId6"/>
+    <hyperlink ref="D12" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D16" r:id="rId9"/>
+    <hyperlink ref="D18" r:id="rId10"/>
+    <hyperlink ref="D19" r:id="rId11"/>
+    <hyperlink ref="D20" r:id="rId12"/>
+    <hyperlink ref="D21" r:id="rId13"/>
+    <hyperlink ref="D23" r:id="rId14"/>
+    <hyperlink ref="D24" r:id="rId15"/>
+    <hyperlink ref="D26" r:id="rId16"/>
+    <hyperlink ref="D27" r:id="rId17"/>
+    <hyperlink ref="D29" r:id="rId18"/>
+    <hyperlink ref="D31" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2755,16 +2799,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C2">
         <v>7.7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E2">
         <v>2022</v>
@@ -2772,16 +2816,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C3">
         <v>8.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E3">
         <v>2019</v>
@@ -2789,16 +2833,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C4">
         <v>7.9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E4">
         <v>2022</v>
@@ -2806,16 +2850,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C5">
         <v>9.699999999999999</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E5">
         <v>2020</v>
@@ -2823,16 +2867,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C6">
         <v>8.199999999999999</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E6">
         <v>2023</v>
@@ -2840,16 +2884,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C7">
         <v>9.1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E7">
         <v>2020</v>
@@ -2857,16 +2901,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C8">
         <v>6.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E8">
         <v>2022</v>
@@ -2874,16 +2918,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C9">
         <v>6.4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E9">
         <v>2018</v>
@@ -2891,10 +2935,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C10">
         <v>7.1</v>
@@ -2908,16 +2952,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C11">
         <v>6.7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E11">
         <v>2017</v>
@@ -2925,16 +2969,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C12">
         <v>8.300000000000001</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E12">
         <v>2019</v>
@@ -2942,16 +2986,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C13">
         <v>8.199999999999999</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E13">
         <v>2023</v>
@@ -2959,10 +3003,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C14">
         <v>6.5</v>
@@ -2976,10 +3020,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C15">
         <v>8.699999999999999</v>
@@ -2993,16 +3037,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C16">
         <v>10.5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E16">
         <v>2020</v>
@@ -3010,16 +3054,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C17">
         <v>9.4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E17">
         <v>2021</v>
@@ -3027,16 +3071,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C18">
         <v>9.1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E18">
         <v>2020</v>
@@ -3044,44 +3088,44 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C19">
         <v>7.7</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
+      <c r="D19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19">
+        <v>2022</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C20">
         <v>9.4</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
+      <c r="D20" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20">
+        <v>2022</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C21">
         <v>11.3</v>
@@ -3095,16 +3139,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C22">
         <v>9.1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E22">
         <v>2019</v>
@@ -3112,16 +3156,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C23">
         <v>8.6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E23">
         <v>2021</v>
@@ -3129,33 +3173,33 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C24">
         <v>8.5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
+        <v>246</v>
+      </c>
+      <c r="E24">
+        <v>2021</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C25">
         <v>6.3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E25">
         <v>2020</v>
@@ -3163,16 +3207,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C26">
         <v>8.199999999999999</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E26">
         <v>2018</v>
@@ -3180,16 +3224,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C27">
         <v>7.3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E27">
         <v>2022</v>
@@ -3211,12 +3255,14 @@
     <hyperlink ref="D16" r:id="rId12"/>
     <hyperlink ref="D17" r:id="rId13"/>
     <hyperlink ref="D18" r:id="rId14"/>
-    <hyperlink ref="D22" r:id="rId15"/>
-    <hyperlink ref="D23" r:id="rId16"/>
-    <hyperlink ref="D24" r:id="rId17"/>
-    <hyperlink ref="D25" r:id="rId18"/>
-    <hyperlink ref="D26" r:id="rId19"/>
-    <hyperlink ref="D27" r:id="rId20"/>
+    <hyperlink ref="D19" r:id="rId15"/>
+    <hyperlink ref="D20" r:id="rId16"/>
+    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D23" r:id="rId18"/>
+    <hyperlink ref="D24" r:id="rId19"/>
+    <hyperlink ref="D25" r:id="rId20"/>
+    <hyperlink ref="D26" r:id="rId21"/>
+    <hyperlink ref="D27" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3249,10 +3295,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C2">
         <v>6.4</v>
@@ -3266,16 +3312,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C3">
         <v>7.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E3">
         <v>2013</v>
@@ -3283,16 +3329,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C4">
         <v>6.7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E4">
         <v>2022</v>
@@ -3300,10 +3346,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C5">
         <v>6.9</v>
@@ -3317,16 +3363,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C6">
         <v>6.6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E6">
         <v>2019</v>
@@ -3334,10 +3380,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C7">
         <v>6.8</v>
@@ -3351,16 +3397,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C8">
         <v>7.4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E8">
         <v>2022</v>
@@ -3368,16 +3414,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C9">
         <v>6.1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E9">
         <v>2021</v>
@@ -3385,10 +3431,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3439,16 +3485,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C2">
         <v>6.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E2">
         <v>2021</v>
@@ -3456,10 +3502,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -3473,10 +3519,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C4">
         <v>9.6</v>
@@ -3490,10 +3536,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C5">
         <v>7.3</v>
@@ -3507,16 +3553,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C6">
         <v>8.1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E6">
         <v>2020</v>
@@ -3524,16 +3570,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C7">
         <v>7.6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -3541,16 +3587,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C8">
         <v>7.3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E8">
         <v>2022</v>
@@ -3558,10 +3604,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C9">
         <v>5.8</v>
@@ -3611,10 +3657,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C2">
         <v>6.4</v>
@@ -3628,16 +3674,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E3">
         <v>2020</v>
@@ -3645,10 +3691,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C4">
         <v>4.9</v>
@@ -3662,10 +3708,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C5">
         <v>6.2</v>
@@ -3679,10 +3725,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C6">
         <v>7.1</v>
@@ -3696,10 +3742,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C7">
         <v>5.8</v>
@@ -3713,16 +3759,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C8">
         <v>7.1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E8">
         <v>2021</v>
@@ -3730,10 +3776,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C9">
         <v>7.6</v>
@@ -3747,10 +3793,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C10">
         <v>4.7</v>
@@ -3764,16 +3810,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C11">
         <v>5.3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="E11">
         <v>2018</v>
@@ -3781,27 +3827,27 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+      <c r="D12" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C13">
         <v>5.6</v>
@@ -3815,10 +3861,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C14">
         <v>4.8</v>
@@ -3832,16 +3878,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C15">
         <v>2.4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E15">
         <v>2022</v>
@@ -3849,10 +3895,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C16">
         <v>6.3</v>
@@ -3866,16 +3912,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C17">
         <v>6.7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="E17">
         <v>2018</v>
@@ -3886,8 +3932,9 @@
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D8" r:id="rId2"/>
     <hyperlink ref="D11" r:id="rId3"/>
-    <hyperlink ref="D15" r:id="rId4"/>
-    <hyperlink ref="D17" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId4"/>
+    <hyperlink ref="D15" r:id="rId5"/>
+    <hyperlink ref="D17" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3920,10 +3967,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C2">
         <v>8.5</v>
@@ -3937,16 +3984,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C3">
         <v>6.2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E3">
         <v>2021</v>
@@ -3954,10 +4001,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C4">
         <v>8.199999999999999</v>
@@ -3971,10 +4018,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C5">
         <v>10.1</v>
@@ -3988,10 +4035,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C6">
         <v>10.2</v>
@@ -4005,10 +4052,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C7">
         <v>3.9</v>
@@ -4022,16 +4069,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C8">
         <v>5.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E8">
         <v>2020</v>
@@ -4039,10 +4086,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C9">
         <v>1.8</v>
@@ -4056,10 +4103,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C10">
         <v>3.7</v>
@@ -4073,10 +4120,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C11">
         <v>8.300000000000001</v>
@@ -4090,10 +4137,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C12">
         <v>5.7</v>
@@ -4107,10 +4154,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -4124,16 +4171,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C14">
         <v>7.3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E14">
         <v>2022</v>
@@ -4141,10 +4188,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C15">
         <v>6.3</v>
@@ -4158,16 +4205,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C16">
         <v>8.199999999999999</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E16">
         <v>2022</v>
@@ -4211,10 +4258,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C2">
         <v>5.9</v>
@@ -4228,10 +4275,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C3">
         <v>7.5</v>
@@ -4239,16 +4286,16 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>2021</v>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C4">
         <v>7.2</v>
@@ -4262,33 +4309,33 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C5">
         <v>6.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+        <v>329</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C6">
         <v>8.1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E6">
         <v>2019</v>
@@ -4296,10 +4343,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C7">
         <v>6.2</v>
@@ -4313,25 +4360,26 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C8">
         <v>6.1</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
+      <c r="D8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
     <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4364,10 +4412,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C2">
         <v>8.5</v>
@@ -4381,10 +4429,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C3">
         <v>8.300000000000001</v>
@@ -4398,10 +4446,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C4">
         <v>7.7</v>
@@ -4415,10 +4463,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C5">
         <v>8.1</v>
@@ -4432,16 +4480,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C6">
         <v>8.199999999999999</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E6">
         <v>2021</v>
@@ -4449,16 +4497,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C7">
         <v>7.6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="E7">
         <v>2017</v>
@@ -4466,16 +4514,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C8">
         <v>6.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E8">
         <v>2019</v>
@@ -4483,10 +4531,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -4500,10 +4548,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C10">
         <v>6.7</v>
@@ -4517,19 +4565,19 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C11">
         <v>7.7</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
+      <c r="D11" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11">
+        <v>2009</v>
       </c>
     </row>
   </sheetData>
@@ -4537,6 +4585,7 @@
     <hyperlink ref="D6" r:id="rId1"/>
     <hyperlink ref="D7" r:id="rId2"/>
     <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4569,16 +4618,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E2">
         <v>2021</v>
@@ -4586,10 +4635,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C3">
         <v>7.8</v>
@@ -4603,10 +4652,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C4">
         <v>7.7</v>
@@ -4620,10 +4669,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C5">
         <v>8.199999999999999</v>
@@ -4637,10 +4686,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C6">
         <v>8.199999999999999</v>
@@ -4654,33 +4703,33 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C7">
         <v>7.6</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+      <c r="D7" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7">
+        <v>2018</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C8">
         <v>8.300000000000001</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="E8">
         <v>2018</v>
@@ -4688,10 +4737,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C9">
         <v>7.6</v>
@@ -4705,33 +4754,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C10">
         <v>7.7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
+        <v>400</v>
+      </c>
+      <c r="E10">
+        <v>2020</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="E11">
         <v>2020</v>
@@ -4739,10 +4788,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C12">
         <v>5.5</v>
@@ -4756,16 +4805,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C13">
         <v>7.8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E13">
         <v>2021</v>
@@ -4773,10 +4822,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C14">
         <v>8.9</v>
@@ -4790,10 +4839,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C15">
         <v>7.4</v>
@@ -4807,10 +4856,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C16">
         <v>7.5</v>
@@ -4824,10 +4873,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C17">
         <v>6.3</v>
@@ -4841,10 +4890,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C18">
         <v>5.5</v>
@@ -4858,10 +4907,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C19">
         <v>6.6</v>
@@ -4875,10 +4924,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B20" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C20">
         <v>4.7</v>
@@ -4892,10 +4941,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -4909,10 +4958,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B22" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C22">
         <v>5.5</v>
@@ -4926,10 +4975,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B23" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C23">
         <v>5.5</v>
@@ -4943,10 +4992,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B24" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C24">
         <v>7.1</v>
@@ -4954,16 +5003,16 @@
       <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E24">
-        <v>2022</v>
+      <c r="E24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B25" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C25">
         <v>5.9</v>
@@ -4977,10 +5026,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B26" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C26">
         <v>7.1</v>
@@ -4994,33 +5043,33 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="B27" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C27">
         <v>7.4</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E27">
-        <v>2022</v>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B28" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C28">
         <v>8.1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="E28">
         <v>2021</v>
@@ -5028,16 +5077,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C29">
         <v>5.8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="E29">
         <v>2019</v>
@@ -5045,10 +5094,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C30">
         <v>7.9</v>
@@ -5062,16 +5111,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C31">
         <v>5.8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E31">
         <v>2022</v>
@@ -5079,16 +5128,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B32" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C32">
         <v>8.1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="E32">
         <v>2021</v>
@@ -5096,16 +5145,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B33" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C33">
         <v>8.300000000000001</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="E33">
         <v>2022</v>
@@ -5113,10 +5162,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B34" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C34">
         <v>6.5</v>
@@ -5130,10 +5179,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B35" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C35">
         <v>6.8</v>
@@ -5141,22 +5190,22 @@
       <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="E35">
-        <v>2022</v>
+      <c r="E35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C36">
         <v>8.4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E36">
         <v>2022</v>
@@ -5164,16 +5213,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="E37">
         <v>2021</v>
@@ -5181,16 +5230,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C38">
         <v>6.9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E38">
         <v>2022</v>
@@ -5198,10 +5247,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B39" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C39">
         <v>7.7</v>
@@ -5215,16 +5264,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B40" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C40">
         <v>5.7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="E40">
         <v>2022</v>
@@ -5232,16 +5281,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B41" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C41">
         <v>6.9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="E41">
         <v>2020</v>
@@ -5249,10 +5298,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B42" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C42">
         <v>5.4</v>
@@ -5266,16 +5315,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C43">
         <v>4.7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="E43">
         <v>2017</v>
@@ -5283,27 +5332,27 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B44" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C44">
         <v>5.8</v>
       </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
+      <c r="D44" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E44">
+        <v>2022</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C45">
         <v>6.3</v>
@@ -5317,33 +5366,33 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C46">
         <v>6.3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
+        <v>415</v>
+      </c>
+      <c r="E46">
+        <v>2017</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C47">
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E47">
         <v>2021</v>
@@ -5351,27 +5400,27 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C48">
         <v>7.4</v>
       </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
+      <c r="D48" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E48">
+        <v>2018</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C49">
         <v>6.3</v>
@@ -5385,16 +5434,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="E50">
         <v>2021</v>
@@ -5403,11 +5452,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D10" r:id="rId3"/>
-    <hyperlink ref="D11" r:id="rId4"/>
-    <hyperlink ref="D13" r:id="rId5"/>
-    <hyperlink ref="D27" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D10" r:id="rId4"/>
+    <hyperlink ref="D11" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
     <hyperlink ref="D28" r:id="rId7"/>
     <hyperlink ref="D29" r:id="rId8"/>
     <hyperlink ref="D31" r:id="rId9"/>
@@ -5419,9 +5468,11 @@
     <hyperlink ref="D40" r:id="rId15"/>
     <hyperlink ref="D41" r:id="rId16"/>
     <hyperlink ref="D43" r:id="rId17"/>
-    <hyperlink ref="D46" r:id="rId18"/>
-    <hyperlink ref="D47" r:id="rId19"/>
-    <hyperlink ref="D50" r:id="rId20"/>
+    <hyperlink ref="D44" r:id="rId18"/>
+    <hyperlink ref="D46" r:id="rId19"/>
+    <hyperlink ref="D47" r:id="rId20"/>
+    <hyperlink ref="D48" r:id="rId21"/>
+    <hyperlink ref="D50" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5745,16 +5796,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C2">
         <v>8.800000000000001</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="E2">
         <v>2022</v>
@@ -5762,10 +5813,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -5779,10 +5830,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -5796,16 +5847,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="E5">
         <v>2021</v>
@@ -5813,10 +5864,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C6">
         <v>2.3</v>
@@ -5830,10 +5881,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C7">
         <v>6.2</v>
@@ -5847,16 +5898,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C8">
         <v>6.8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="E8">
         <v>2016</v>
@@ -5864,10 +5915,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C9">
         <v>7.4</v>
@@ -5881,16 +5932,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="B10" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C10">
         <v>8.199999999999999</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="E10">
         <v>2022</v>
@@ -5898,16 +5949,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C11">
         <v>6.7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="E11">
         <v>2021</v>
@@ -5915,10 +5966,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C12">
         <v>7.8</v>
@@ -5932,10 +5983,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C13">
         <v>6.3</v>
@@ -5986,10 +6037,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C2">
         <v>7.1</v>
@@ -5997,16 +6048,16 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>2012</v>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C3">
         <v>6.1</v>
@@ -6020,10 +6071,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C4">
         <v>7.7</v>
@@ -6037,10 +6088,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C5">
         <v>6.8</v>
@@ -6054,16 +6105,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C6">
         <v>7.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -6071,10 +6122,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C7">
         <v>6.6</v>
@@ -6082,16 +6133,16 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>2015</v>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C8">
         <v>6.3</v>
@@ -6105,16 +6156,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C9">
         <v>7.8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="E9">
         <v>2022</v>
@@ -6122,10 +6173,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C10">
         <v>6.9</v>
@@ -6139,16 +6190,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C11">
         <v>7.9</v>
       </c>
       <c r="D11" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="E11">
         <v>2022</v>
@@ -6156,10 +6207,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C12">
         <v>6.1</v>
@@ -6173,10 +6224,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C13">
         <v>8.300000000000001</v>
@@ -6190,16 +6241,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B14" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C14">
         <v>8.300000000000001</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -6591,16 +6642,17 @@
       <c r="C7">
         <v>8.1</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6633,10 +6685,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>5.1</v>
@@ -6650,10 +6702,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>7.1</v>
@@ -6667,10 +6719,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>9.300000000000001</v>
@@ -6684,10 +6736,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>2.4</v>
@@ -6701,10 +6753,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>7.5</v>
@@ -6718,16 +6770,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>8.1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -6735,10 +6787,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>4.7</v>
@@ -6752,16 +6804,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>2019</v>
@@ -6803,16 +6855,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>8.199999999999999</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>2011</v>
@@ -6820,10 +6872,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -6837,33 +6889,33 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>7.8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>7.8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>2021</v>
@@ -6871,16 +6923,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>7.4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>2021</v>
@@ -6888,16 +6940,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>7.4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -6905,16 +6957,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>6.1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>2022</v>
@@ -6922,16 +6974,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>6.3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>2016</v>
@@ -6939,16 +6991,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>5.9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -6956,10 +7008,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>6.4</v>
@@ -6973,10 +7025,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>6.4</v>
@@ -6990,10 +7042,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -7007,16 +7059,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>7.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>2022</v>
@@ -7065,10 +7117,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>4.8</v>
@@ -7082,10 +7134,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>6.2</v>
@@ -7099,10 +7151,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -7116,10 +7168,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>4.8</v>
@@ -7133,10 +7185,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>6.5</v>
@@ -7150,10 +7202,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>5.3</v>
@@ -7167,16 +7219,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>5.7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>2019</v>
@@ -7184,10 +7236,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9">
         <v>6.3</v>
@@ -7201,10 +7253,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -7218,16 +7270,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11">
         <v>5.8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <v>2021</v>
@@ -7235,10 +7287,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12">
         <v>5.5</v>
@@ -7252,16 +7304,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13">
         <v>7.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E13">
         <v>2019</v>
@@ -7304,16 +7356,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2">
         <v>2022</v>
@@ -7321,16 +7373,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3">
         <v>7.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3">
         <v>2019</v>
@@ -7338,16 +7390,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4">
         <v>2022</v>
@@ -7355,10 +7407,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <v>8.5</v>
@@ -7372,16 +7424,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>7.1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E6">
         <v>2020</v>
@@ -7389,10 +7441,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>6.6</v>
@@ -7406,33 +7458,33 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
+        <v>126</v>
+      </c>
+      <c r="E8">
+        <v>2019</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>5.9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <v>2020</v>

--- a/data/climate-data.xlsx
+++ b/data/climate-data.xlsx
@@ -51,99 +51,99 @@
     <t>KPI2: Klimatplan antagen år</t>
   </si>
   <si>
+    <t>Karlshamn</t>
+  </si>
+  <si>
+    <t>Karlskrona</t>
+  </si>
+  <si>
     <t>Olofström</t>
   </si>
   <si>
-    <t>Karlskrona</t>
-  </si>
-  <si>
     <t>Ronneby</t>
   </si>
   <si>
-    <t>Karlshamn</t>
-  </si>
-  <si>
     <t>Sölvesborg</t>
   </si>
   <si>
     <t>Blekinge län</t>
   </si>
   <si>
+    <t>Saknas</t>
+  </si>
+  <si>
+    <t>https://www.karlskrona.se/globalassets/kommun-och-politik/sa-arbetar-vi-med/hallbarhetsprogram_karlskrona_kommun_210517.pdf</t>
+  </si>
+  <si>
     <t>/data/climatePlans/Olofstr%C3%B6m_Handlingsplan%20f%C3%B6r%20klimat%20och%20energi.pdf</t>
   </si>
   <si>
-    <t>https://www.karlskrona.se/globalassets/kommun-och-politik/sa-arbetar-vi-med/hallbarhetsprogram_karlskrona_kommun_210517.pdf</t>
-  </si>
-  <si>
     <t>https://www.ronneby.se/download/18.2e5b091017e6102741ae787e/1643191137416/Program%20f%C3%B6r%20klimat%20och%20energi%20Ronneby%20kommun%202021-2025.pdf</t>
   </si>
   <si>
-    <t>Saknas</t>
+    <t>Avesta</t>
+  </si>
+  <si>
+    <t>Borlänge</t>
+  </si>
+  <si>
+    <t>Falun</t>
+  </si>
+  <si>
+    <t>Gagnef</t>
+  </si>
+  <si>
+    <t>Hedemora</t>
+  </si>
+  <si>
+    <t>Leksand</t>
+  </si>
+  <si>
+    <t>Ludvika</t>
+  </si>
+  <si>
+    <t>Malung-Sälen</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>Orsa</t>
+  </si>
+  <si>
+    <t>Rättvik</t>
+  </si>
+  <si>
+    <t>Smedjebacken</t>
+  </si>
+  <si>
+    <t>Säter</t>
   </si>
   <si>
     <t>Vansbro</t>
   </si>
   <si>
-    <t>Malung-Sälen</t>
-  </si>
-  <si>
-    <t>Gagnef</t>
-  </si>
-  <si>
-    <t>Leksand</t>
-  </si>
-  <si>
-    <t>Rättvik</t>
-  </si>
-  <si>
-    <t>Orsa</t>
-  </si>
-  <si>
     <t>Älvdalen</t>
   </si>
   <si>
-    <t>Smedjebacken</t>
-  </si>
-  <si>
-    <t>Mora</t>
-  </si>
-  <si>
-    <t>Falun</t>
-  </si>
-  <si>
-    <t>Borlänge</t>
-  </si>
-  <si>
-    <t>Säter</t>
-  </si>
-  <si>
-    <t>Hedemora</t>
-  </si>
-  <si>
-    <t>Avesta</t>
-  </si>
-  <si>
-    <t>Ludvika</t>
-  </si>
-  <si>
     <t>Dalarnas län</t>
   </si>
   <si>
+    <t>https://avesta.se/contentassets/dffc2e06c2e84440b5edf9ad69ce3cef/hallbarhetsprogram-for-avesta-kommun-2020.pdf</t>
+  </si>
+  <si>
+    <t>https://www.borlange.se/bygga-bo-och-miljo/miljo-och-klimat/miljostrategi</t>
+  </si>
+  <si>
+    <t>https://www.falun.se/download/18.7eb630aa16a59ef02cf6d5b8/1557238559519/energi_och_klimatprogram_2013_webb.pdf</t>
+  </si>
+  <si>
+    <t>https://hedemora.se/wp-content/uploads/2022/10/Energi-_och_klimatstrategi_2020-2025.pdf</t>
+  </si>
+  <si>
     <t>/data/climatePlans/Vansbro_Energi och klimatplan.pdf</t>
   </si>
   <si>
-    <t>https://www.falun.se/download/18.7eb630aa16a59ef02cf6d5b8/1557238559519/energi_och_klimatprogram_2013_webb.pdf</t>
-  </si>
-  <si>
-    <t>https://www.borlange.se/bygga-bo-och-miljo/miljo-och-klimat/miljostrategi</t>
-  </si>
-  <si>
-    <t>https://hedemora.se/wp-content/uploads/2022/10/Energi-_och_klimatstrategi_2020-2025.pdf</t>
-  </si>
-  <si>
-    <t>https://avesta.se/contentassets/dffc2e06c2e84440b5edf9ad69ce3cef/hallbarhetsprogram-for-avesta-kommun-2020.pdf</t>
-  </si>
-  <si>
     <t>Gotland</t>
   </si>
   <si>
@@ -153,69 +153,69 @@
     <t>https://www.gotland.se/115066</t>
   </si>
   <si>
+    <t>Bollnäs</t>
+  </si>
+  <si>
+    <t>Gävle</t>
+  </si>
+  <si>
+    <t>Hofors</t>
+  </si>
+  <si>
+    <t>Hudiksvall</t>
+  </si>
+  <si>
+    <t>Ljusdal</t>
+  </si>
+  <si>
+    <t>Nordanstig</t>
+  </si>
+  <si>
     <t>Ockelbo</t>
   </si>
   <si>
-    <t>Hofors</t>
-  </si>
-  <si>
     <t>Ovanåker</t>
   </si>
   <si>
-    <t>Nordanstig</t>
-  </si>
-  <si>
-    <t>Ljusdal</t>
-  </si>
-  <si>
-    <t>Gävle</t>
-  </si>
-  <si>
     <t>Sandviken</t>
   </si>
   <si>
     <t>Söderhamn</t>
   </si>
   <si>
-    <t>Bollnäs</t>
-  </si>
-  <si>
-    <t>Hudiksvall</t>
-  </si>
-  <si>
     <t>Gävleborgs län</t>
   </si>
   <si>
+    <t>https://bollnas.se/download/18.5bba8c07182e92654f3ac6a/1662039598190/Programmet%20f%C3%B6r%20ekologisk%20h%C3%A5llbarhet%20-%20antagen%20version.pdf</t>
+  </si>
+  <si>
+    <t>https://app.climateview.global/public/board/505eb0d1-3347-4e97-8a55-4138713941d2</t>
+  </si>
+  <si>
+    <t>https://www.hudiksvall.se/Sidor/Kommun-och-politik/Forfattningssamling---Styrdokument/Policy-riktlinjer-planer-och-program/Energi--och-klimatstrategi-2017-2050.html</t>
+  </si>
+  <si>
     <t>https://sandviken.se/download/18.69cc24a417ffd93f9a4c073f/1650969435744/Miljo%CC%88strategiskt%20program_Ockelbo%202022-2026.pdf</t>
   </si>
   <si>
-    <t>https://app.climateview.global/public/board/505eb0d1-3347-4e97-8a55-4138713941d2</t>
-  </si>
-  <si>
-    <t>https://bollnas.se/download/18.5bba8c07182e92654f3ac6a/1662039598190/Programmet%20f%C3%B6r%20ekologisk%20h%C3%A5llbarhet%20-%20antagen%20version.pdf</t>
-  </si>
-  <si>
-    <t>https://www.hudiksvall.se/Sidor/Kommun-och-politik/Forfattningssamling---Styrdokument/Policy-riktlinjer-planer-och-program/Energi--och-klimatstrategi-2017-2050.html</t>
+    <t>Falkenberg</t>
+  </si>
+  <si>
+    <t>Halmstad</t>
   </si>
   <si>
     <t>Hylte</t>
   </si>
   <si>
-    <t>Halmstad</t>
+    <t>Kungsbacka</t>
   </si>
   <si>
     <t>Laholm</t>
   </si>
   <si>
-    <t>Falkenberg</t>
-  </si>
-  <si>
     <t>Varberg</t>
   </si>
   <si>
-    <t>Kungsbacka</t>
-  </si>
-  <si>
     <t>Hallands län</t>
   </si>
   <si>
@@ -225,27 +225,27 @@
     <t>https://kungsbacka.se/download/18.5c06deb5186a19d6e5c23920/1678800987979/Klimatstrategi%202022.pdf</t>
   </si>
   <si>
+    <t>Berg</t>
+  </si>
+  <si>
+    <t>Bräcke</t>
+  </si>
+  <si>
+    <t>Härjedalen</t>
+  </si>
+  <si>
+    <t>Krokom</t>
+  </si>
+  <si>
     <t>Ragunda</t>
   </si>
   <si>
-    <t>Bräcke</t>
-  </si>
-  <si>
-    <t>Krokom</t>
-  </si>
-  <si>
     <t>Strömsund</t>
   </si>
   <si>
     <t>Åre</t>
   </si>
   <si>
-    <t>Berg</t>
-  </si>
-  <si>
-    <t>Härjedalen</t>
-  </si>
-  <si>
     <t>Östersund</t>
   </si>
   <si>
@@ -261,603 +261,606 @@
     <t>Aneby</t>
   </si>
   <si>
+    <t>Eksjö</t>
+  </si>
+  <si>
+    <t>Gislaved</t>
+  </si>
+  <si>
     <t>Gnosjö</t>
   </si>
   <si>
+    <t>Habo</t>
+  </si>
+  <si>
+    <t>Jönköping</t>
+  </si>
+  <si>
     <t>Mullsjö</t>
   </si>
   <si>
-    <t>Habo</t>
-  </si>
-  <si>
-    <t>Gislaved</t>
+    <t>Nässjö</t>
+  </si>
+  <si>
+    <t>Sävsjö</t>
+  </si>
+  <si>
+    <t>Tranås</t>
   </si>
   <si>
     <t>Vaggeryd</t>
   </si>
   <si>
-    <t>Jönköping</t>
-  </si>
-  <si>
-    <t>Nässjö</t>
+    <t>Vetlanda</t>
   </si>
   <si>
     <t>Värnamo</t>
   </si>
   <si>
-    <t>Sävsjö</t>
-  </si>
-  <si>
-    <t>Vetlanda</t>
-  </si>
-  <si>
-    <t>Eksjö</t>
-  </si>
-  <si>
-    <t>Tranås</t>
-  </si>
-  <si>
     <t>Jönköpings län</t>
   </si>
   <si>
     <t>https://www.aneby.se/download/18.10e76864165add3787c19774/1538745539859/Milj%C3%B6m%C3%A5l%20f%C3%B6r%20Aneby%20kommun%202011-2025.pdf</t>
   </si>
   <si>
+    <t>https://www.gislaved.se/download/18.6c7bb61c1851412f92b21f8c/1672839511150/Strategi%20f%C3%B6r%20h%C3%A5llbar%20utveckling%20Gislaveds%20kommun%20antagen%20den%2014%20juni%202021.pdf</t>
+  </si>
+  <si>
+    <t>https://habokommun.se/contentassets/9b46e0c7ebec45209de948336c8fe7e5/klimatprogram-2021-2025.tga.pdf</t>
+  </si>
+  <si>
+    <t>https://www.jonkoping.se/download/18.6751acba183a2e89e794ecfe/1666359577980/Program%20f%C3%B6r%20h%C3%A5llbarhet%20i%20J%C3%B6nk%C3%B6pings%20kommun%202022-2030.pdf</t>
+  </si>
+  <si>
     <t>https://www.mullsjo.se/download/18.6cf2c3af17a7603c29e1ac4a/1625644095092/Milj%C3%B6program_Mullsj%C3%B6%20kommun-2021-2030.pdf</t>
   </si>
   <si>
-    <t>https://habokommun.se/contentassets/9b46e0c7ebec45209de948336c8fe7e5/klimatprogram-2021-2025.tga.pdf</t>
-  </si>
-  <si>
-    <t>https://www.gislaved.se/download/18.6c7bb61c1851412f92b21f8c/1672839511150/Strategi%20f%C3%B6r%20h%C3%A5llbar%20utveckling%20Gislaveds%20kommun%20antagen%20den%2014%20juni%202021.pdf</t>
+    <t>https://nassjo.se/download/18.5887ffce168e1d826e1aa9a/1551969829610/Energi-%20och%20klimatstrategi.pdf</t>
+  </si>
+  <si>
+    <t>https://tranas.se/download/18.671539701847d6e7ad0319/1669301841956/Strategi%20f%C3%B6r%20ekologisk%20h%C3%A5llbarhet%202022%20-2035_tillg%C3%A4nglig.pdf</t>
   </si>
   <si>
     <t>https://www.vaggeryd.se/download/18.1a18992817d52e74471ea1f5/1639407815746/Milj%C3%B6program%202022-2025%20antaget%20KF%20211129%20%C2%A7155.pdf</t>
   </si>
   <si>
-    <t>https://www.jonkoping.se/download/18.6751acba183a2e89e794ecfe/1666359577980/Program%20f%C3%B6r%20h%C3%A5llbarhet%20i%20J%C3%B6nk%C3%B6pings%20kommun%202022-2030.pdf</t>
-  </si>
-  <si>
-    <t>https://nassjo.se/download/18.5887ffce168e1d826e1aa9a/1551969829610/Energi-%20och%20klimatstrategi.pdf</t>
-  </si>
-  <si>
     <t>https://kommun.varnamo.se/kommun-och-politik/styrdokument/planer.html</t>
   </si>
   <si>
-    <t>https://tranas.se/download/18.671539701847d6e7ad0319/1669301841956/Strategi%20f%C3%B6r%20ekologisk%20h%C3%A5llbarhet%202022%20-2035_tillg%C3%A4nglig.pdf</t>
+    <t>Borgholm</t>
+  </si>
+  <si>
+    <t>Emmaboda</t>
+  </si>
+  <si>
+    <t>Hultsfred</t>
   </si>
   <si>
     <t>Högsby</t>
   </si>
   <si>
+    <t>Kalmar</t>
+  </si>
+  <si>
+    <t>Mönsterås</t>
+  </si>
+  <si>
+    <t>Mörbylånga</t>
+  </si>
+  <si>
+    <t>Nybro</t>
+  </si>
+  <si>
+    <t>Oskarshamn</t>
+  </si>
+  <si>
     <t>Torsås</t>
   </si>
   <si>
-    <t>Mörbylånga</t>
-  </si>
-  <si>
-    <t>Hultsfred</t>
-  </si>
-  <si>
-    <t>Mönsterås</t>
-  </si>
-  <si>
-    <t>Emmaboda</t>
-  </si>
-  <si>
-    <t>Kalmar</t>
-  </si>
-  <si>
-    <t>Nybro</t>
-  </si>
-  <si>
-    <t>Oskarshamn</t>
+    <t>Vimmerby</t>
   </si>
   <si>
     <t>Västervik</t>
   </si>
   <si>
-    <t>Vimmerby</t>
-  </si>
-  <si>
-    <t>Borgholm</t>
-  </si>
-  <si>
     <t>Kalmar län</t>
   </si>
   <si>
+    <t>https://www.borgholm.se/wp-content/uploads/2020/05/Energi-och-klimatstrategi-KF-2019-11-27-220.pdf</t>
+  </si>
+  <si>
     <t>https://kalmar.se/download/18.27a4559e1709e0628a5856/1584024404535/handlingsplan-fossilbranslefri-kommun-2030.pdf</t>
   </si>
   <si>
     <t>https://www.vastervik.se/Bygga-bo-och-miljo/Energi-och-uppvarmning/kommunens-energi-och-klimatstrategi/</t>
   </si>
   <si>
-    <t>https://www.borgholm.se/wp-content/uploads/2020/05/Energi-och-klimatstrategi-KF-2019-11-27-220.pdf</t>
+    <t>Alvesta</t>
+  </si>
+  <si>
+    <t>Lessebo</t>
+  </si>
+  <si>
+    <t>Ljungby</t>
+  </si>
+  <si>
+    <t>Markaryd</t>
+  </si>
+  <si>
+    <t>Tingsryd</t>
   </si>
   <si>
     <t>Uppvidinge</t>
   </si>
   <si>
-    <t>Lessebo</t>
-  </si>
-  <si>
-    <t>Tingsryd</t>
-  </si>
-  <si>
-    <t>Alvesta</t>
+    <t>Växjö</t>
   </si>
   <si>
     <t>Älmhult</t>
   </si>
   <si>
-    <t>Markaryd</t>
-  </si>
-  <si>
-    <t>Växjö</t>
-  </si>
-  <si>
-    <t>Ljungby</t>
-  </si>
-  <si>
     <t>Kronobergs län</t>
   </si>
   <si>
+    <t>https://www.lessebo.se/download/18.751dad0a1754f2bbde74234/1603372637882/Energi-%20%20milj%C3%B6-%20och%20klimatstrategiskt%20program%202019-2030%20%20antaget%202020-10-19%20.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ljungby.se/globalassets/dokument-och-innehall/miljo-och-klimat/hallbar-utveckling/klimat--och-energiplan_digital-lasning.pdf</t>
+  </si>
+  <si>
+    <t>https://tingsryd.se/wp-content/blogs.dir/1/files_mf/1647330611Milj%C3%B6program20222027TingsrydD%C3%A4rlivet%C3%A4rh%C3%A5llbart.pdf</t>
+  </si>
+  <si>
     <t>https://www.uppvidinge.se/download/18.57203f4c17cb7cc4b2c7a190/1635761631493/Klimat-%20och%20energistrategi%202022-2030%20f%C3%B6r%20Uppvidinge%20kommun%20f%C3%B6r%20SAMR%C3%85D.pdf</t>
   </si>
   <si>
-    <t>https://www.lessebo.se/download/18.751dad0a1754f2bbde74234/1603372637882/Energi-%20%20milj%C3%B6-%20och%20klimatstrategiskt%20program%202019-2030%20%20antaget%202020-10-19%20.pdf</t>
-  </si>
-  <si>
-    <t>https://tingsryd.se/wp-content/blogs.dir/1/files_mf/1647330611Milj%C3%B6program20222027TingsrydD%C3%A4rlivet%C3%A4rh%C3%A5llbart.pdf</t>
+    <t>https://vaxjo.se/download/18.58d9f57a16d9ce07d02dd012/1571219603597/H%C3%A5llbarhetsprogrammet%20H%C3%A5llbara%20V%C3%A4xj%C3%B6%202030_antaget%20av%20KF.pdf</t>
   </si>
   <si>
     <t>https://www.almhult.se/stadsutvecklingplanering/strategiskplanering/miljoplan2030.1994.html</t>
   </si>
   <si>
-    <t>https://vaxjo.se/download/18.58d9f57a16d9ce07d02dd012/1571219603597/H%C3%A5llbarhetsprogrammet%20H%C3%A5llbara%20V%C3%A4xj%C3%B6%202030_antaget%20av%20KF.pdf</t>
-  </si>
-  <si>
-    <t>https://www.ljungby.se/globalassets/dokument-och-innehall/miljo-och-klimat/hallbar-utveckling/klimat--och-energiplan_digital-lasning.pdf</t>
+    <t>Arjeplog</t>
   </si>
   <si>
     <t>Arvidsjaur</t>
   </si>
   <si>
-    <t>Arjeplog</t>
+    <t>Boden</t>
+  </si>
+  <si>
+    <t>Gällivare</t>
+  </si>
+  <si>
+    <t>Haparanda</t>
   </si>
   <si>
     <t>Jokkmokk</t>
   </si>
   <si>
+    <t>Kalix</t>
+  </si>
+  <si>
+    <t>Kiruna</t>
+  </si>
+  <si>
+    <t>Luleå</t>
+  </si>
+  <si>
+    <t>Pajala</t>
+  </si>
+  <si>
+    <t>Piteå</t>
+  </si>
+  <si>
+    <t>Älvsbyn</t>
+  </si>
+  <si>
     <t>Överkalix</t>
   </si>
   <si>
-    <t>Kalix</t>
-  </si>
-  <si>
     <t>Övertorneå</t>
   </si>
   <si>
-    <t>Pajala</t>
-  </si>
-  <si>
-    <t>Gällivare</t>
-  </si>
-  <si>
-    <t>Älvsbyn</t>
-  </si>
-  <si>
-    <t>Luleå</t>
-  </si>
-  <si>
-    <t>Piteå</t>
-  </si>
-  <si>
-    <t>Boden</t>
-  </si>
-  <si>
-    <t>Haparanda</t>
-  </si>
-  <si>
-    <t>Kiruna</t>
-  </si>
-  <si>
     <t>Norrbottens län</t>
   </si>
   <si>
+    <t>https://www.boden.se/kommunen/organisation-och-styrning/viktiga-styrdokument</t>
+  </si>
+  <si>
+    <t>/data/climatePlans/Haparanda klimatstrategi 2020_2050.pdf</t>
+  </si>
+  <si>
+    <t>https://kiruna.se/download/18.22bd3f5d17597b58e4e4c2/1604915931895/atgardsplan-for-hallbar-energi-tillika-energiplan-for-kiruna-kommunkoncern.pdf</t>
+  </si>
+  <si>
+    <t>https://www.pitea.se/contentassets/9c4b5902081c401a985a37bee096f992/handlingsplan-miljo-klimat-och-energi.pdf?t=638201013076470932</t>
+  </si>
+  <si>
     <t>http://www3.alvsbyn.se/styrdoc/Styrdok.nsf/Formnytt.xsp?documentId=D921B3CF75BFCEFFC125868C00428F58&amp;action=openDocument</t>
   </si>
   <si>
-    <t>https://www.pitea.se/contentassets/9c4b5902081c401a985a37bee096f992/handlingsplan-miljo-klimat-och-energi.pdf?t=638201013076470932</t>
-  </si>
-  <si>
-    <t>https://www.boden.se/kommunen/organisation-och-styrning/viktiga-styrdokument</t>
-  </si>
-  <si>
-    <t>/data/climatePlans/Haparanda klimatstrategi 2020_2050.pdf</t>
-  </si>
-  <si>
-    <t>https://kiruna.se/download/18.22bd3f5d17597b58e4e4c2/1604915931895/atgardsplan-for-hallbar-energi-tillika-energiplan-for-kiruna-kommunkoncern.pdf</t>
+    <t>Bjuv</t>
+  </si>
+  <si>
+    <t>Bromölla</t>
+  </si>
+  <si>
+    <t>Burlöv</t>
+  </si>
+  <si>
+    <t>Båstad</t>
+  </si>
+  <si>
+    <t>Eslöv</t>
+  </si>
+  <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
+    <t>Hässleholm</t>
+  </si>
+  <si>
+    <t>Höganäs</t>
+  </si>
+  <si>
+    <t>Hörby</t>
+  </si>
+  <si>
+    <t>Höör</t>
+  </si>
+  <si>
+    <t>Klippan</t>
+  </si>
+  <si>
+    <t>Kristianstad</t>
+  </si>
+  <si>
+    <t>Kävlinge</t>
+  </si>
+  <si>
+    <t>Landskrona</t>
+  </si>
+  <si>
+    <t>Lomma</t>
+  </si>
+  <si>
+    <t>Lund</t>
+  </si>
+  <si>
+    <t>Malmö</t>
+  </si>
+  <si>
+    <t>Osby</t>
+  </si>
+  <si>
+    <t>Perstorp</t>
+  </si>
+  <si>
+    <t>Simrishamn</t>
+  </si>
+  <si>
+    <t>Sjöbo</t>
+  </si>
+  <si>
+    <t>Skurup</t>
+  </si>
+  <si>
+    <t>Staffanstorp</t>
   </si>
   <si>
     <t>Svalöv</t>
   </si>
   <si>
-    <t>Staffanstorp</t>
-  </si>
-  <si>
-    <t>Burlöv</t>
+    <t>Svedala</t>
+  </si>
+  <si>
+    <t>Tomelilla</t>
+  </si>
+  <si>
+    <t>Trelleborg</t>
   </si>
   <si>
     <t>Vellinge</t>
   </si>
   <si>
+    <t>Ystad</t>
+  </si>
+  <si>
+    <t>Ängelholm</t>
+  </si>
+  <si>
+    <t>Åstorp</t>
+  </si>
+  <si>
+    <t>Örkelljunga</t>
+  </si>
+  <si>
     <t>Östra Göinge</t>
   </si>
   <si>
-    <t>Örkelljunga</t>
-  </si>
-  <si>
-    <t>Bjuv</t>
-  </si>
-  <si>
-    <t>Kävlinge</t>
-  </si>
-  <si>
-    <t>Lomma</t>
-  </si>
-  <si>
-    <t>Svedala</t>
-  </si>
-  <si>
-    <t>Skurup</t>
-  </si>
-  <si>
-    <t>Sjöbo</t>
-  </si>
-  <si>
-    <t>Hörby</t>
-  </si>
-  <si>
-    <t>Höör</t>
-  </si>
-  <si>
-    <t>Tomelilla</t>
-  </si>
-  <si>
-    <t>Bromölla</t>
-  </si>
-  <si>
-    <t>Osby</t>
-  </si>
-  <si>
-    <t>Perstorp</t>
-  </si>
-  <si>
-    <t>Klippan</t>
-  </si>
-  <si>
-    <t>Åstorp</t>
-  </si>
-  <si>
-    <t>Båstad</t>
-  </si>
-  <si>
-    <t>Malmö</t>
-  </si>
-  <si>
-    <t>Lund</t>
-  </si>
-  <si>
-    <t>Landskrona</t>
-  </si>
-  <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
-    <t>Höganäs</t>
-  </si>
-  <si>
-    <t>Eslöv</t>
-  </si>
-  <si>
-    <t>Ystad</t>
-  </si>
-  <si>
-    <t>Trelleborg</t>
-  </si>
-  <si>
-    <t>Kristianstad</t>
-  </si>
-  <si>
-    <t>Simrishamn</t>
-  </si>
-  <si>
-    <t>Ängelholm</t>
-  </si>
-  <si>
-    <t>Hässleholm</t>
-  </si>
-  <si>
     <t>Skåne län</t>
   </si>
   <si>
+    <t>https://burlov.se/download/18.1c32a37617b4106947ea55dd/1629702323432/Milj%C3%B6program%202030.pdf</t>
+  </si>
+  <si>
+    <t>https://helsingborg.se/bo-bygga-och-miljo/klimat-och-miljo/helsingborgs-klimat-och-energiplan/</t>
+  </si>
+  <si>
+    <t>https://www.hoganas.se/download/18.765ba991784b13246f10c29/1618312885309/Milj%C3%B6program%202015-2025_2021.pdf</t>
+  </si>
+  <si>
+    <t>https://www.klippan.se/download/18.1b71982c18529d736e712692/1673968304934/Ha%CC%8Allbarhetsstrategi.pdf?query=klimat</t>
+  </si>
+  <si>
+    <t>https://www.kristianstad.se/sv/bygga-bo-och-miljo/samhallsutveckling-och-hallbarhet/klimat-och-miljo/klimat-och-miljoplan/</t>
+  </si>
+  <si>
+    <t>https://lomma.se/bygga-bo-och-miljo/klimat-miljo-och-hallbarhet/klimatarbete.html</t>
+  </si>
+  <si>
+    <t>https://lund.se/download/18.2899fac318093d2b72817dd7/1666783006521/Lunds%20kommuns%20program%20f%C3%B6r%20ekologisk%20h%C3%A5llbar%20utveckling%202021-2030.pdf</t>
+  </si>
+  <si>
+    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab4da16fc858ade542fa/1670425421810/Viable-Cities-Klimatkontrakt-Malmo-FINAL.pdf</t>
+  </si>
+  <si>
+    <t>https://www.osby.se/bygga-bo--miljo/natur-och-hallbarhet/klimatarbete.html</t>
+  </si>
+  <si>
+    <t>https://www.perstorp.se/download/18.6ee8abfe17bedf7491a2a38/1643719465669/Klimat-%20och%20energiprogram.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sjobo.se/bygga-bo-och-miljo/hallbarhet-miljo-och-natur/lokala-miljomal.html</t>
+  </si>
+  <si>
+    <t>https://www.skurup.se/36987</t>
+  </si>
+  <si>
+    <t>https://staffanstorp.se/wp-content/uploads/2021/11/6-17-miljoplan.pdf</t>
+  </si>
+  <si>
     <t>https://svalov.se/download/18.37f8c5ee180940ed9988850/1652432039176/Energi-%20och%20klimatplan%202022-2030.pdf</t>
   </si>
   <si>
-    <t>https://staffanstorp.se/wp-content/uploads/2021/11/6-17-miljoplan.pdf</t>
-  </si>
-  <si>
-    <t>https://burlov.se/download/18.1c32a37617b4106947ea55dd/1629702323432/Milj%C3%B6program%202030.pdf</t>
+    <t>https://www.svedala.se/contentassets/ff83c3d46b1e464cb1c0a32030db2256/hallbarhetsstrategi-svedala-kommun-2021-tillganglighetsanpassad-webb.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tomelilla.se/fileadmin/tomelilla/kommun_och_politik/pdf/Energi-_och_klimatplan_2020-2025.pdf</t>
   </si>
   <si>
     <t>https://vellinge.se/siteassets/boende-miljo-och-trafik/pdf/vellinge_program-for-hallbar-utveckling_2021_slutlig-version.pdf</t>
   </si>
   <si>
-    <t>https://lomma.se/bygga-bo-och-miljo/klimat-miljo-och-hallbarhet/klimatarbete.html</t>
-  </si>
-  <si>
-    <t>https://www.svedala.se/contentassets/ff83c3d46b1e464cb1c0a32030db2256/hallbarhetsstrategi-svedala-kommun-2021-tillganglighetsanpassad-webb.pdf</t>
-  </si>
-  <si>
-    <t>https://www.skurup.se/36987</t>
-  </si>
-  <si>
-    <t>https://www.sjobo.se/bygga-bo-och-miljo/hallbarhet-miljo-och-natur/lokala-miljomal.html</t>
-  </si>
-  <si>
-    <t>https://www.tomelilla.se/fileadmin/tomelilla/kommun_och_politik/pdf/Energi-_och_klimatplan_2020-2025.pdf</t>
-  </si>
-  <si>
-    <t>https://www.osby.se/bygga-bo--miljo/natur-och-hallbarhet/klimatarbete.html</t>
-  </si>
-  <si>
-    <t>https://www.perstorp.se/download/18.6ee8abfe17bedf7491a2a38/1643719465669/Klimat-%20och%20energiprogram.pdf</t>
-  </si>
-  <si>
-    <t>https://www.klippan.se/download/18.1b71982c18529d736e712692/1673968304934/Ha%CC%8Allbarhetsstrategi.pdf?query=klimat</t>
+    <t>https://ystad.se/globalassets/dokument/lou/avd-f-strat-miljoarb/miljoprogram-2021_2025_webb.pdf?_gl=1*bzsvyx*_ga*Nzk5ODg1NzcyLjE2Nzc3NTI1Mzc.*_up*MQ..)%20och%20en%20sida%20om%20hur%20kommunen%20arbetar%20med%20h%C3%A5llbar%20utveckling%20(https://ystad.se/kommun--politik/hallbarhet/hallbar-kommun/?_gl=1*u0ebdu*_ga*Nzk5ODg1NzcyLjE2Nzc3NTI1Mzc.*_up*MQ..).</t>
   </si>
   <si>
     <t>https://medborgarportalen.astorp.se/welcome-sv/namnder-styrelser/bygg-och-miljonamndens-arbetsutskott/bygg-och-miljonamndens-arbetsutskott/agenda/02-verksamhetsplan-for-strategiskt-arbetsmiljoarbete-2022pdf?downloadMode=open</t>
   </si>
   <si>
-    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab4da16fc858ade542fa/1670425421810/Viable-Cities-Klimatkontrakt-Malmo-FINAL.pdf</t>
-  </si>
-  <si>
-    <t>https://lund.se/download/18.2899fac318093d2b72817dd7/1666783006521/Lunds%20kommuns%20program%20f%C3%B6r%20ekologisk%20h%C3%A5llbar%20utveckling%202021-2030.pdf</t>
-  </si>
-  <si>
-    <t>https://helsingborg.se/bo-bygga-och-miljo/klimat-och-miljo/helsingborgs-klimat-och-energiplan/</t>
-  </si>
-  <si>
-    <t>https://www.hoganas.se/download/18.765ba991784b13246f10c29/1618312885309/Milj%C3%B6program%202015-2025_2021.pdf</t>
-  </si>
-  <si>
-    <t>https://ystad.se/globalassets/dokument/lou/avd-f-strat-miljoarb/miljoprogram-2021_2025_webb.pdf?_gl=1*bzsvyx*_ga*Nzk5ODg1NzcyLjE2Nzc3NTI1Mzc.*_up*MQ..)%20och%20en%20sida%20om%20hur%20kommunen%20arbetar%20med%20h%C3%A5llbar%20utveckling%20(https://ystad.se/kommun--politik/hallbarhet/hallbar-kommun/?_gl=1*u0ebdu*_ga*Nzk5ODg1NzcyLjE2Nzc3NTI1Mzc.*_up*MQ..).</t>
-  </si>
-  <si>
-    <t>https://www.kristianstad.se/sv/bygga-bo-och-miljo/samhallsutveckling-och-hallbarhet/klimat-och-miljo/klimat-och-miljoplan/</t>
+    <t>Botkyrka</t>
+  </si>
+  <si>
+    <t>Danderyd</t>
+  </si>
+  <si>
+    <t>Ekerö</t>
+  </si>
+  <si>
+    <t>Haninge</t>
+  </si>
+  <si>
+    <t>Huddinge</t>
+  </si>
+  <si>
+    <t>Järfälla</t>
+  </si>
+  <si>
+    <t>Lidingö</t>
+  </si>
+  <si>
+    <t>Nacka</t>
+  </si>
+  <si>
+    <t>Norrtälje</t>
+  </si>
+  <si>
+    <t>Nykvarn</t>
+  </si>
+  <si>
+    <t>Nynäshamn</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Sigtuna</t>
+  </si>
+  <si>
+    <t>Sollentuna</t>
+  </si>
+  <si>
+    <t>Solna</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Sundbyberg</t>
+  </si>
+  <si>
+    <t>Södertälje</t>
+  </si>
+  <si>
+    <t>Tyresö</t>
+  </si>
+  <si>
+    <t>Täby</t>
   </si>
   <si>
     <t>Upplands Väsby</t>
   </si>
   <si>
+    <t>Upplands-Bro</t>
+  </si>
+  <si>
     <t>Vallentuna</t>
   </si>
   <si>
+    <t>Vaxholm</t>
+  </si>
+  <si>
+    <t>Värmdö</t>
+  </si>
+  <si>
     <t>Österåker</t>
   </si>
   <si>
-    <t>Värmdö</t>
-  </si>
-  <si>
-    <t>Järfälla</t>
-  </si>
-  <si>
-    <t>Ekerö</t>
-  </si>
-  <si>
-    <t>Huddinge</t>
-  </si>
-  <si>
-    <t>Botkyrka</t>
-  </si>
-  <si>
-    <t>Salem</t>
-  </si>
-  <si>
-    <t>Haninge</t>
-  </si>
-  <si>
-    <t>Tyresö</t>
-  </si>
-  <si>
-    <t>Upplands-Bro</t>
-  </si>
-  <si>
-    <t>Nykvarn</t>
-  </si>
-  <si>
-    <t>Täby</t>
-  </si>
-  <si>
-    <t>Danderyd</t>
-  </si>
-  <si>
-    <t>Sollentuna</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>Södertälje</t>
-  </si>
-  <si>
-    <t>Nacka</t>
-  </si>
-  <si>
-    <t>Sundbyberg</t>
-  </si>
-  <si>
-    <t>Solna</t>
-  </si>
-  <si>
-    <t>Lidingö</t>
-  </si>
-  <si>
-    <t>Vaxholm</t>
-  </si>
-  <si>
-    <t>Norrtälje</t>
-  </si>
-  <si>
-    <t>Sigtuna</t>
-  </si>
-  <si>
-    <t>Nynäshamn</t>
-  </si>
-  <si>
     <t>Stockholms län</t>
   </si>
   <si>
+    <t>https://www.botkyrka.se/download/18.1fbbaae6170bff9469deb3b/1584093805113/Klimatstrategi%20f%C3%B6r%20Botkyrka.pdf</t>
+  </si>
+  <si>
+    <t>https://www.danderyd.se/contentassets/ca8882c4a3184e3abe2d6c966f612bd4/201214_miljo-klimatprogram_final_web.pdf</t>
+  </si>
+  <si>
+    <t>https://medborgare.ekero.se/welcome-sv/namnder-styrelser/kommunfullmaktige/mote-2020-04-21/agenda/energistrategi-for-ekero-kommun-2020-03-23pdf?downloadMode=open</t>
+  </si>
+  <si>
+    <t>https://www.haninge.se/globalassets/globala-katalogen/styrdokument/regler-och-styrande-dokument/bygga-bo-och-miljo/klimat-miljopolitiskt-program/haninge-kommun-klimat-och-miljopolitiskt-program.pdf</t>
+  </si>
+  <si>
+    <t>https://www.huddinge.se/organisation-och-styrning/sa-arbetar-vi-med/miljo-och-klimat/klimat-och-energi/</t>
+  </si>
+  <si>
+    <t>https://www.jarfalla.se/download/18.5e2d810118697502d1121381/1677764821650/Miljoplan-2023-2030-Jarfalla-kommun-med-bolag.pdf</t>
+  </si>
+  <si>
+    <t>https://lidingo.se/download/18.3e1246071764a836a72c45/1607961656265/Milj%C3%B6program%202021-2030%20f%C3%B6r%20Liding%C3%B6%20stads%20verksamheter%20med%20underskrift%2020-12-11.pdf</t>
+  </si>
+  <si>
+    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab5d7343c933175d7561/1670425438238/Viable-Cities-Klimatkontrakt-Nacka-FINAL.pdf</t>
+  </si>
+  <si>
+    <t>https://www.norrtalje.se/globalassets/bo--miljo/miljo--och-klimatstrategi---tillganglighetsanpassad.pdf</t>
+  </si>
+  <si>
+    <t>https://nynashamn.se/download/18.af2d0f618019134f8d4e5d6/1650369638283/Nyn%C3%A4shamns%20kommuns%20h%C3%A5llbarhetsprogram%202023-2030.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sigtuna.se/download/18.24e83a616b997088b4b830f/1566301462415/Plan%20f%C3%B6r%20Klimatsmart.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sollentuna.se/globalassets/kommun-och-politik/politik-och-demokrati/miljo-och-klimat/plan-for-miljo--och-klimatarbetet-i-sollentuna-kommun-2021-2030.pdf</t>
+  </si>
+  <si>
+    <t>https://www.solna.se/download/18.5002ae1016ed574744199bd/1596180205909/Klimatstrategi_2019.pdf</t>
+  </si>
+  <si>
+    <t>https://start.stockholm/globalassets/start/om-stockholms-stad/politik-och-demokrati/styrdokument/klimathandlingsplan-2020-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sodertalje.se/globalassets/styrande-dokument/miljo--och-klimatstrategi-2022-2030_antagen-av-kf.pdf</t>
+  </si>
+  <si>
+    <t>https://app.climateview.global/public/board/db392fc1-257a-4768-a9db-215a92c6ac59</t>
+  </si>
+  <si>
     <t>https://upplandsvasby.se/download/18.46d5f63317fbd916d941070/1649663540253/Klimat-%20och%20energistrategi%20f%C3%B6r%20Upplands%20V%C3%A4sby%20kommun%202022-2025.pdf</t>
   </si>
   <si>
+    <t>https://www.upplands-bro.se/download/18.600d84bf187eae331ea77/1683275082167/Milj%C3%B6-%20och%20klimatstrategi%202023-2045</t>
+  </si>
+  <si>
     <t>https://dok.vallentuna.se/file/f%C3%B6rfattningssamling/2.%20bygga,%20bo%20och%20milj%C3%B6/2.5%20strategier/2.5.2%20Milj%C3%B6-%20och%20klimatstrategi.pdf</t>
   </si>
   <si>
+    <t>https://www.vaxholm.se/download/18.3d1f64e117fc1ceca46442bb/1648807192906/H%C3%A5llbarhetsstrategi%20f%C3%B6r%20Vaxholms%20stad%202021-2030,%20version%202.pdf</t>
+  </si>
+  <si>
+    <t>https://www.varmdo.se/download/18.2c63bbd2171ac475b0b666dd/1588078930801/Milj%C3%B6-%20och%20klimatplan%202020-2030,%20beslutad%20KF%201%20april%202020-RD.pdf</t>
+  </si>
+  <si>
     <t>https://www.osteraker.se/download/18.4d8ccb9818167a07633123/1655380479130/Milj%C3%B6-%20och%20klimatprogram%202030.pdf</t>
   </si>
   <si>
-    <t>https://www.varmdo.se/download/18.2c63bbd2171ac475b0b666dd/1588078930801/Milj%C3%B6-%20och%20klimatplan%202020-2030,%20beslutad%20KF%201%20april%202020-RD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.jarfalla.se/download/18.5e2d810118697502d1121381/1677764821650/Miljoplan-2023-2030-Jarfalla-kommun-med-bolag.pdf</t>
-  </si>
-  <si>
-    <t>https://medborgare.ekero.se/welcome-sv/namnder-styrelser/kommunfullmaktige/mote-2020-04-21/agenda/energistrategi-for-ekero-kommun-2020-03-23pdf?downloadMode=open</t>
-  </si>
-  <si>
-    <t>https://www.huddinge.se/organisation-och-styrning/sa-arbetar-vi-med/miljo-och-klimat/klimat-och-energi/</t>
-  </si>
-  <si>
-    <t>https://www.botkyrka.se/download/18.1fbbaae6170bff9469deb3b/1584093805113/Klimatstrategi%20f%C3%B6r%20Botkyrka.pdf</t>
-  </si>
-  <si>
-    <t>https://www.haninge.se/globalassets/globala-katalogen/styrdokument/regler-och-styrande-dokument/bygga-bo-och-miljo/klimat-miljopolitiskt-program/haninge-kommun-klimat-och-miljopolitiskt-program.pdf</t>
-  </si>
-  <si>
-    <t>https://app.climateview.global/public/board/db392fc1-257a-4768-a9db-215a92c6ac59</t>
-  </si>
-  <si>
-    <t>https://www.upplands-bro.se/download/18.600d84bf187eae331ea77/1683275082167/Milj%C3%B6-%20och%20klimatstrategi%202023-2045</t>
-  </si>
-  <si>
-    <t>https://www.danderyd.se/contentassets/ca8882c4a3184e3abe2d6c966f612bd4/201214_miljo-klimatprogram_final_web.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sollentuna.se/globalassets/kommun-och-politik/politik-och-demokrati/miljo-och-klimat/plan-for-miljo--och-klimatarbetet-i-sollentuna-kommun-2021-2030.pdf</t>
-  </si>
-  <si>
-    <t>https://start.stockholm/globalassets/start/om-stockholms-stad/politik-och-demokrati/styrdokument/klimathandlingsplan-2020-2023.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sodertalje.se/globalassets/styrande-dokument/miljo--och-klimatstrategi-2022-2030_antagen-av-kf.pdf</t>
-  </si>
-  <si>
-    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab5d7343c933175d7561/1670425438238/Viable-Cities-Klimatkontrakt-Nacka-FINAL.pdf</t>
-  </si>
-  <si>
-    <t>https://www.solna.se/download/18.5002ae1016ed574744199bd/1596180205909/Klimatstrategi_2019.pdf</t>
-  </si>
-  <si>
-    <t>https://lidingo.se/download/18.3e1246071764a836a72c45/1607961656265/Milj%C3%B6program%202021-2030%20f%C3%B6r%20Liding%C3%B6%20stads%20verksamheter%20med%20underskrift%2020-12-11.pdf</t>
-  </si>
-  <si>
-    <t>https://www.vaxholm.se/download/18.3d1f64e117fc1ceca46442bb/1648807192906/H%C3%A5llbarhetsstrategi%20f%C3%B6r%20Vaxholms%20stad%202021-2030,%20version%202.pdf</t>
-  </si>
-  <si>
-    <t>https://www.norrtalje.se/globalassets/bo--miljo/miljo--och-klimatstrategi---tillganglighetsanpassad.pdf</t>
-  </si>
-  <si>
-    <t>https://www.sigtuna.se/download/18.24e83a616b997088b4b830f/1566301462415/Plan%20f%C3%B6r%20Klimatsmart.pdf</t>
-  </si>
-  <si>
-    <t>https://nynashamn.se/download/18.af2d0f618019134f8d4e5d6/1650369638283/Nyn%C3%A4shamns%20kommuns%20h%C3%A5llbarhetsprogram%202023-2030.pdf</t>
+    <t>Eskilstuna</t>
+  </si>
+  <si>
+    <t>Flen</t>
+  </si>
+  <si>
+    <t>Gnesta</t>
+  </si>
+  <si>
+    <t>Katrineholm</t>
+  </si>
+  <si>
+    <t>Nyköping</t>
+  </si>
+  <si>
+    <t>Oxelösund</t>
+  </si>
+  <si>
+    <t>Strängnäs</t>
+  </si>
+  <si>
+    <t>Trosa</t>
   </si>
   <si>
     <t>Vingåker</t>
   </si>
   <si>
-    <t>Gnesta</t>
-  </si>
-  <si>
-    <t>Nyköping</t>
-  </si>
-  <si>
-    <t>Oxelösund</t>
-  </si>
-  <si>
-    <t>Flen</t>
-  </si>
-  <si>
-    <t>Katrineholm</t>
-  </si>
-  <si>
-    <t>Eskilstuna</t>
-  </si>
-  <si>
-    <t>Strängnäs</t>
-  </si>
-  <si>
-    <t>Trosa</t>
-  </si>
-  <si>
     <t>Södermanlands län</t>
   </si>
   <si>
+    <t>https://www.eskilstuna.se/download/18.4e2a3bf1184b408adc47d8/1669619809640/Klimatprogram%20f%C3%B6r%20Eskilstuna%20kommunkoncern.pdf</t>
+  </si>
+  <si>
+    <t>https://flen.se/nedladdning/forfattningssamling/planer_och_program/planer/Energi-och-klimatplan-for-Flens-kommun-2019-2023.pdf</t>
+  </si>
+  <si>
     <t>https://www.gnesta.se/kommunverksamhet/styrningochekonomi/styrdokument/plan.4.34b79a7b16653c9fa8492dbf.html</t>
   </si>
   <si>
     <t>https://nykoping.se/globalassets/nykoping.se/dokument/styrdokument/program-for-ekologisk-hallbarhet.pdf</t>
   </si>
   <si>
-    <t>https://flen.se/nedladdning/forfattningssamling/planer_och_program/planer/Energi-och-klimatplan-for-Flens-kommun-2019-2023.pdf</t>
-  </si>
-  <si>
-    <t>https://www.eskilstuna.se/download/18.4e2a3bf1184b408adc47d8/1669619809640/Klimatprogram%20f%C3%B6r%20Eskilstuna%20kommunkoncern.pdf</t>
-  </si>
-  <si>
     <t>https://www.strangnas.se/download/18.269b989517934ecd2754df9c/1620303852652/Klimat%20och%20energiplan%20f%C3%B6r%20Str%C3%A4ngn%C3%A4s%20kommun.pdf</t>
   </si>
   <si>
+    <t>Enköping</t>
+  </si>
+  <si>
+    <t>Heby</t>
+  </si>
+  <si>
     <t>Håbo</t>
   </si>
   <si>
+    <t>Knivsta</t>
+  </si>
+  <si>
+    <t>Tierp</t>
+  </si>
+  <si>
+    <t>Uppsala</t>
+  </si>
+  <si>
     <t>Älvkarleby</t>
   </si>
   <si>
-    <t>Knivsta</t>
-  </si>
-  <si>
-    <t>Heby</t>
-  </si>
-  <si>
-    <t>Tierp</t>
-  </si>
-  <si>
-    <t>Uppsala</t>
-  </si>
-  <si>
-    <t>Enköping</t>
-  </si>
-  <si>
     <t>Östhammar</t>
   </si>
   <si>
     <t>Uppsala län</t>
   </si>
   <si>
+    <t>https://enkoping.se/download/18.1f87c14f1764bd37b954dfb9/1670497202700/klimatkontrakt-2030.pdf</t>
+  </si>
+  <si>
     <t>https://www.habo.se/download/18.385a44c917cdfc2502fd07bb/1637050665118/H%C3%A5llbarhetsstrategi_AntagenKF20211108.pdf</t>
   </si>
   <si>
@@ -867,57 +870,54 @@
     <t>https://www.uppsala.se/contentassets/5d36faebce83404888c3a4677bad5584/miljo--och-klimatprogram.pdf</t>
   </si>
   <si>
-    <t>https://enkoping.se/download/18.1f87c14f1764bd37b954dfb9/1670497202700/klimatkontrakt-2030.pdf</t>
+    <t>Arvika</t>
+  </si>
+  <si>
+    <t>Eda</t>
+  </si>
+  <si>
+    <t>Filipstad</t>
+  </si>
+  <si>
+    <t>Forshaga</t>
+  </si>
+  <si>
+    <t>Grums</t>
+  </si>
+  <si>
+    <t>Hagfors</t>
+  </si>
+  <si>
+    <t>Hammarö</t>
+  </si>
+  <si>
+    <t>Karlstad</t>
   </si>
   <si>
     <t>Kil</t>
   </si>
   <si>
-    <t>Eda</t>
+    <t>Kristinehamn</t>
+  </si>
+  <si>
+    <t>Munkfors</t>
+  </si>
+  <si>
+    <t>Storfors</t>
+  </si>
+  <si>
+    <t>Sunne</t>
+  </si>
+  <si>
+    <t>Säffle</t>
   </si>
   <si>
     <t>Torsby</t>
   </si>
   <si>
-    <t>Storfors</t>
-  </si>
-  <si>
-    <t>Hammarö</t>
-  </si>
-  <si>
-    <t>Munkfors</t>
-  </si>
-  <si>
-    <t>Forshaga</t>
-  </si>
-  <si>
-    <t>Grums</t>
-  </si>
-  <si>
     <t>Årjäng</t>
   </si>
   <si>
-    <t>Sunne</t>
-  </si>
-  <si>
-    <t>Karlstad</t>
-  </si>
-  <si>
-    <t>Kristinehamn</t>
-  </si>
-  <si>
-    <t>Filipstad</t>
-  </si>
-  <si>
-    <t>Hagfors</t>
-  </si>
-  <si>
-    <t>Arvika</t>
-  </si>
-  <si>
-    <t>Säffle</t>
-  </si>
-  <si>
     <t>Värmlands län</t>
   </si>
   <si>
@@ -927,478 +927,478 @@
     <t>https://www.forshaga.se/download/18.658f116617a76142ce5bbc71/1626679776148/Milj%C3%B6-%20och%20klimatplan%20(2021-06-08).pdf</t>
   </si>
   <si>
+    <t>https://www.hagfors.se/undersidor/miljo-och-energi/miljomal-och-hallbarhetsarbete/miljoverenskommelsen-2022-2025.html</t>
+  </si>
+  <si>
+    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab2cd964d14c504ed938/1670425390573/Viable-Cities-Klimatkontrakt-Karlstad-FINAL.pdf</t>
+  </si>
+  <si>
     <t>https://sunne.se/globalassets/dokument/7.-kommun-och-politik/kommunfakta/forfattningssamling/bygga-bo-och-miljo/miljostrategi-2018-2030-kf-2018-05-07.pdf</t>
   </si>
   <si>
-    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab2cd964d14c504ed938/1670425390573/Viable-Cities-Klimatkontrakt-Karlstad-FINAL.pdf</t>
-  </si>
-  <si>
-    <t>https://www.hagfors.se/undersidor/miljo-och-energi/miljomal-och-hallbarhetsarbete/miljoverenskommelsen-2022-2025.html</t>
-  </si>
-  <si>
     <t>https://saffle.se/download/18.1112efe616fe8dd058623460/1580994326995/Huvuddokument.pdf</t>
   </si>
   <si>
+    <t>Bjurholm</t>
+  </si>
+  <si>
+    <t>Dorotea</t>
+  </si>
+  <si>
+    <t>Lycksele</t>
+  </si>
+  <si>
+    <t>Malå</t>
+  </si>
+  <si>
     <t>Nordmaling</t>
   </si>
   <si>
-    <t>Bjurholm</t>
+    <t>Norsjö</t>
+  </si>
+  <si>
+    <t>Robertsfors</t>
+  </si>
+  <si>
+    <t>Skellefteå</t>
+  </si>
+  <si>
+    <t>Sorsele</t>
+  </si>
+  <si>
+    <t>Storuman</t>
+  </si>
+  <si>
+    <t>Umeå</t>
+  </si>
+  <si>
+    <t>Vilhelmina</t>
   </si>
   <si>
     <t>Vindeln</t>
   </si>
   <si>
-    <t>Robertsfors</t>
-  </si>
-  <si>
-    <t>Norsjö</t>
-  </si>
-  <si>
-    <t>Malå</t>
-  </si>
-  <si>
-    <t>Storuman</t>
-  </si>
-  <si>
-    <t>Sorsele</t>
-  </si>
-  <si>
-    <t>Dorotea</t>
-  </si>
-  <si>
     <t>Vännäs</t>
   </si>
   <si>
-    <t>Vilhelmina</t>
-  </si>
-  <si>
     <t>Åsele</t>
   </si>
   <si>
-    <t>Umeå</t>
-  </si>
-  <si>
-    <t>Lycksele</t>
-  </si>
-  <si>
-    <t>Skellefteå</t>
-  </si>
-  <si>
     <t>Västerbottens län</t>
   </si>
   <si>
     <t>https://www.bjurholm.se/download/18.23d7fdaa17507a9912f33be/1614325453270/Fossilfria%20transporter%20Handlingsplan%20beslutad.pdf</t>
   </si>
   <si>
+    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab7bb0c4e669d7aee685/1670425468289/Viable-Cities-Klimatkontrakt-Skelleftea-FINAL.pdf</t>
+  </si>
+  <si>
     <t>https://www.storuman.se/kommun/Trafik--infrastruktur/strategi-for-co2-effektiva-resor-i-storumans-kommun/</t>
   </si>
   <si>
     <t>https://www.umea.se/byggaboochmiljo/samhallsutvecklingochhallbarhet/klimatmiljoochhallbarhet/strategisktmiljoarbete/miljomal/programochplanerformiljomalen.4.4c35eecf182e743a9224108.html</t>
   </si>
   <si>
-    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab7bb0c4e669d7aee685/1670425468289/Viable-Cities-Klimatkontrakt-Skelleftea-FINAL.pdf</t>
+    <t>Härnösand</t>
+  </si>
+  <si>
+    <t>Kramfors</t>
+  </si>
+  <si>
+    <t>Sollefteå</t>
+  </si>
+  <si>
+    <t>Sundsvall</t>
+  </si>
+  <si>
+    <t>Timrå</t>
   </si>
   <si>
     <t>Ånge</t>
   </si>
   <si>
-    <t>Timrå</t>
-  </si>
-  <si>
-    <t>Härnösand</t>
-  </si>
-  <si>
-    <t>Sundsvall</t>
-  </si>
-  <si>
-    <t>Kramfors</t>
-  </si>
-  <si>
-    <t>Sollefteå</t>
-  </si>
-  <si>
     <t>Örnsköldsvik</t>
   </si>
   <si>
     <t>Västernorrlands län</t>
   </si>
   <si>
+    <t>https://www.kramfors.se/download/18.22be0c416e405e2b6c7c6cb/1575389653000/Kramfors-kommun-Program-f%C3%B6r-ekologisk-h%C3%A5llbarhet-2020-2031.pdf</t>
+  </si>
+  <si>
     <t>https://sundsvall.se/download/18.75ef5e4f1817ff175a69ca1b/1659440126510/Klimatplan%202022-2024.pdf</t>
   </si>
   <si>
-    <t>https://www.kramfors.se/download/18.22be0c416e405e2b6c7c6cb/1575389653000/Kramfors-kommun-Program-f%C3%B6r-ekologisk-h%C3%A5llbarhet-2020-2031.pdf</t>
-  </si>
-  <si>
     <t>https://www.ornskoldsvik.se/download/18.54f6f67017d0e18071cc1e0b/1645188359669/Klimatstrategi%202021-2026.pdf</t>
   </si>
   <si>
+    <t>Arboga</t>
+  </si>
+  <si>
+    <t>Fagersta</t>
+  </si>
+  <si>
+    <t>Hallstahammar</t>
+  </si>
+  <si>
+    <t>Kungsör</t>
+  </si>
+  <si>
+    <t>Köping</t>
+  </si>
+  <si>
+    <t>Norberg</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
     <t>Skinnskatteberg</t>
   </si>
   <si>
     <t>Surahammar</t>
   </si>
   <si>
-    <t>Kungsör</t>
-  </si>
-  <si>
-    <t>Hallstahammar</t>
-  </si>
-  <si>
-    <t>Norberg</t>
-  </si>
-  <si>
     <t>Västerås</t>
   </si>
   <si>
-    <t>Sala</t>
-  </si>
-  <si>
-    <t>Fagersta</t>
-  </si>
-  <si>
-    <t>Köping</t>
-  </si>
-  <si>
-    <t>Arboga</t>
-  </si>
-  <si>
     <t>Västmanlands län</t>
   </si>
   <si>
+    <t>https://www.arboga.se/download/18.626a0440182c91de14a1a5/1661251036439/Energi-%20och%20klimatstrategi%202009%20kf.pdf</t>
+  </si>
+  <si>
     <t>https://opengov.360online.com/Meetings/NORBERG/File/Details/245611.PDF?fileName=Energi-%20och%20klimatstrategi%20f%C3%B6r%20Norbergs%20kommun%202020-2030&amp;fileSize=1674737</t>
   </si>
   <si>
+    <t>https://www.sala.se/resources/files/_Nystruktur/Styrdokument/06%20Planer/Energi-%20och%20klimatstrategi%20Sala%20kommun%202020-2030%20med%20utblick%20mot%202045.pdf</t>
+  </si>
+  <si>
     <t>https://www.vasteras.se/download/18.4651ec33169110b990c26ef/1554823302843/Klimatprogram%20med%20handlingsplan%202017-2020_190306.pdf</t>
   </si>
   <si>
-    <t>https://www.sala.se/resources/files/_Nystruktur/Styrdokument/06%20Planer/Energi-%20och%20klimatstrategi%20Sala%20kommun%202020-2030%20med%20utblick%20mot%202045.pdf</t>
-  </si>
-  <si>
-    <t>https://www.arboga.se/download/18.626a0440182c91de14a1a5/1661251036439/Energi-%20och%20klimatstrategi%202009%20kf.pdf</t>
+    <t>Ale</t>
+  </si>
+  <si>
+    <t>Alingsås</t>
+  </si>
+  <si>
+    <t>Bengtsfors</t>
+  </si>
+  <si>
+    <t>Bollebygd</t>
+  </si>
+  <si>
+    <t>Borås</t>
+  </si>
+  <si>
+    <t>Dals-Ed</t>
+  </si>
+  <si>
+    <t>Essunga</t>
+  </si>
+  <si>
+    <t>Falköping</t>
+  </si>
+  <si>
+    <t>Färgelanda</t>
+  </si>
+  <si>
+    <t>Grästorp</t>
+  </si>
+  <si>
+    <t>Gullspång</t>
+  </si>
+  <si>
+    <t>Göteborg</t>
+  </si>
+  <si>
+    <t>Götene</t>
+  </si>
+  <si>
+    <t>Herrljunga</t>
+  </si>
+  <si>
+    <t>Hjo</t>
   </si>
   <si>
     <t>Härryda</t>
   </si>
   <si>
+    <t>Karlsborg</t>
+  </si>
+  <si>
+    <t>Kungälv</t>
+  </si>
+  <si>
+    <t>Lerum</t>
+  </si>
+  <si>
+    <t>Lidköping</t>
+  </si>
+  <si>
+    <t>Lilla Edet</t>
+  </si>
+  <si>
+    <t>Lysekil</t>
+  </si>
+  <si>
+    <t>Mariestad</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Mellerud</t>
+  </si>
+  <si>
+    <t>Munkedal</t>
+  </si>
+  <si>
+    <t>Mölndal</t>
+  </si>
+  <si>
+    <t>Orust</t>
+  </si>
+  <si>
     <t>Partille</t>
   </si>
   <si>
+    <t>Skara</t>
+  </si>
+  <si>
+    <t>Skövde</t>
+  </si>
+  <si>
+    <t>Sotenäs</t>
+  </si>
+  <si>
+    <t>Stenungsund</t>
+  </si>
+  <si>
+    <t>Strömstad</t>
+  </si>
+  <si>
+    <t>Svenljunga</t>
+  </si>
+  <si>
+    <t>Tanum</t>
+  </si>
+  <si>
+    <t>Tibro</t>
+  </si>
+  <si>
+    <t>Tidaholm</t>
+  </si>
+  <si>
+    <t>Tjörn</t>
+  </si>
+  <si>
+    <t>Tranemo</t>
+  </si>
+  <si>
+    <t>Trollhättan</t>
+  </si>
+  <si>
+    <t>Töreboda</t>
+  </si>
+  <si>
+    <t>Uddevalla</t>
+  </si>
+  <si>
+    <t>Ulricehamn</t>
+  </si>
+  <si>
+    <t>Vara</t>
+  </si>
+  <si>
+    <t>Vänersborg</t>
+  </si>
+  <si>
+    <t>Vårgårda</t>
+  </si>
+  <si>
+    <t>Åmål</t>
+  </si>
+  <si>
     <t>Öckerö</t>
   </si>
   <si>
-    <t>Stenungsund</t>
-  </si>
-  <si>
-    <t>Tjörn</t>
-  </si>
-  <si>
-    <t>Orust</t>
-  </si>
-  <si>
-    <t>Sotenäs</t>
-  </si>
-  <si>
-    <t>Munkedal</t>
-  </si>
-  <si>
-    <t>Tanum</t>
-  </si>
-  <si>
-    <t>Dals-Ed</t>
-  </si>
-  <si>
-    <t>Färgelanda</t>
-  </si>
-  <si>
-    <t>Ale</t>
-  </si>
-  <si>
-    <t>Lerum</t>
-  </si>
-  <si>
-    <t>Vårgårda</t>
-  </si>
-  <si>
-    <t>Bollebygd</t>
-  </si>
-  <si>
-    <t>Grästorp</t>
-  </si>
-  <si>
-    <t>Essunga</t>
-  </si>
-  <si>
-    <t>Karlsborg</t>
-  </si>
-  <si>
-    <t>Gullspång</t>
-  </si>
-  <si>
-    <t>Tranemo</t>
-  </si>
-  <si>
-    <t>Bengtsfors</t>
-  </si>
-  <si>
-    <t>Mellerud</t>
-  </si>
-  <si>
-    <t>Lilla Edet</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Svenljunga</t>
-  </si>
-  <si>
-    <t>Herrljunga</t>
-  </si>
-  <si>
-    <t>Vara</t>
-  </si>
-  <si>
-    <t>Götene</t>
-  </si>
-  <si>
-    <t>Tibro</t>
-  </si>
-  <si>
-    <t>Töreboda</t>
-  </si>
-  <si>
-    <t>Göteborg</t>
-  </si>
-  <si>
-    <t>Mölndal</t>
-  </si>
-  <si>
-    <t>Kungälv</t>
-  </si>
-  <si>
-    <t>Lysekil</t>
-  </si>
-  <si>
-    <t>Uddevalla</t>
-  </si>
-  <si>
-    <t>Strömstad</t>
-  </si>
-  <si>
-    <t>Vänersborg</t>
-  </si>
-  <si>
-    <t>Trollhättan</t>
-  </si>
-  <si>
-    <t>Alingsås</t>
-  </si>
-  <si>
-    <t>Borås</t>
-  </si>
-  <si>
-    <t>Ulricehamn</t>
-  </si>
-  <si>
-    <t>Åmål</t>
-  </si>
-  <si>
-    <t>Mariestad</t>
-  </si>
-  <si>
-    <t>Lidköping</t>
-  </si>
-  <si>
-    <t>Skara</t>
-  </si>
-  <si>
-    <t>Skövde</t>
-  </si>
-  <si>
-    <t>Hjo</t>
-  </si>
-  <si>
-    <t>Tidaholm</t>
-  </si>
-  <si>
-    <t>Falköping</t>
-  </si>
-  <si>
     <t>Västra Götalands län</t>
   </si>
   <si>
+    <t>https://www.ale.se/download/18.2dcf200c178661e144145a5/1617883886384/Energi-%20och%20klimatstrategi%202030.pdf</t>
+  </si>
+  <si>
+    <t>https://www.alingsas.se/wp-content/uploads/2022/06/Klimatstrategi-for-Alingsas-kommun.pdf</t>
+  </si>
+  <si>
+    <t>https://www.boras.se/download/18.499cdee21538963cd3f57af7/1610014986050/Energi-%20och%20klimatstrategi%20-%20strategi.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dalsed.se/politik-demokrati/utvecklingsplan-2020-2023/miljo/</t>
+  </si>
+  <si>
+    <t>https://www.falkoping.se/download/18.1adde54a17861a73b1e11aae/1626330208751/Klimatstrategi%202021-2030.pdf</t>
+  </si>
+  <si>
+    <t>https://www4.goteborg.se/prod/Stadsledningskontoret/LIS/Verksamhetshandbok/Forfattn.nsf//6B3CA866EF066429C12586B200449D53/$File/C12574360024D6C7WEBVCP4393.pdf?OpenElement</t>
+  </si>
+  <si>
+    <t>https://www.gotene.se/download/18.6b0120a216ade1dd99f5d17a/1560261659657/Antaget%20klimat%20och%20milj%C3%B6politiskt%20program,%20KF%2029%20april%202019%20%C2%A7%2070.pdf</t>
+  </si>
+  <si>
+    <t>https://hjo.se/globalassets/dokument/styrdokument/ovrigt/hallbarhetsstrategi-for-hjo-kommun.pdf</t>
+  </si>
+  <si>
     <t>https://www.harryda.se/download/18.c0a4fce181800179101eedd/1660123092984/Energi-%20och%20klimatplan.pdf</t>
   </si>
   <si>
+    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab5329d52f430f6fe71a/1670425427707/Viable-Cities-Klimatkontrakt-Mariestad-FINAL.pdf</t>
+  </si>
+  <si>
+    <t>https://www.molndal.se/download/18.5bcdb531818002396aa89b1/1658749356043/M%C3%B6lndals%20stad%20Energiplan%20f%C3%B6r%20minimerad%20klimatp%C3%A5verkan.pdf</t>
+  </si>
+  <si>
     <t>https://www.orust.se/download/18.1c4985fe183bfdb97a25a9/1665396992481/Energi-%20och%20klimatstrategi%202017-2030%20Orust.pdf</t>
   </si>
   <si>
+    <t>https://skara.se/download/18.a9ae3d177427fab272ada/1611824198185/milj%C3%B6strategi%202017web.pdf</t>
+  </si>
+  <si>
+    <t>https://skovde.se/globalassets/energi--och-klimatplanen_webb.pdf</t>
+  </si>
+  <si>
     <t>https://www.sotenas.se/download/18.31f128a417e9f4ede9dc1776/1644237756609/H%C3%A5llbarhetsstrategi%202030%20antagen%20210218%20m%C3%A5l%202022.pdf</t>
   </si>
   <si>
+    <t>https://www.stromstad.se/download/18.52a121a217ce4d028c542f2/1636710420332/Strategi%20Agenda%202030%20antagen%20september%202021.pdf</t>
+  </si>
+  <si>
     <t>https://www.tanum.se/download/18.29bde0b1171537ea620dbcc5/1587128543377/Klimat-%20och%20milj%C3%B6strategi.pdf</t>
   </si>
   <si>
-    <t>https://www.dalsed.se/politik-demokrati/utvecklingsplan-2020-2023/miljo/</t>
-  </si>
-  <si>
-    <t>https://www.ale.se/download/18.2dcf200c178661e144145a5/1617883886384/Energi-%20och%20klimatstrategi%202030.pdf</t>
+    <t>https://toreboda.se/download/18.178b2aa0182e97835b4558f/1662987466375/Strategi%20fo%CC%88r%20Agenda%202030%20To%CC%88reboda%20kommun.pdf</t>
+  </si>
+  <si>
+    <t>https://www.uddevalla.se/download/18.579c6dca18049edc75d3329/1652779490750/Energi%20och%20klimatplan%20f%C3%B6r%20Uddevalla%20kommun%202022%20TA.pdf</t>
   </si>
   <si>
     <t>https://vara.se/innehall/2022/02/Milj%C3%B6strategi-2021-2030-antagen-av-KF-2021-10-04-%C2%A7-89.pdf</t>
   </si>
   <si>
-    <t>https://www.gotene.se/download/18.6b0120a216ade1dd99f5d17a/1560261659657/Antaget%20klimat%20och%20milj%C3%B6politiskt%20program,%20KF%2029%20april%202019%20%C2%A7%2070.pdf</t>
-  </si>
-  <si>
-    <t>https://toreboda.se/download/18.178b2aa0182e97835b4558f/1662987466375/Strategi%20fo%CC%88r%20Agenda%202030%20To%CC%88reboda%20kommun.pdf</t>
-  </si>
-  <si>
-    <t>https://www4.goteborg.se/prod/Stadsledningskontoret/LIS/Verksamhetshandbok/Forfattn.nsf//6B3CA866EF066429C12586B200449D53/$File/C12574360024D6C7WEBVCP4393.pdf?OpenElement</t>
-  </si>
-  <si>
-    <t>https://www.molndal.se/download/18.5bcdb531818002396aa89b1/1658749356043/M%C3%B6lndals%20stad%20Energiplan%20f%C3%B6r%20minimerad%20klimatp%C3%A5verkan.pdf</t>
-  </si>
-  <si>
-    <t>https://www.uddevalla.se/download/18.579c6dca18049edc75d3329/1652779490750/Energi%20och%20klimatplan%20f%C3%B6r%20Uddevalla%20kommun%202022%20TA.pdf</t>
-  </si>
-  <si>
-    <t>https://www.stromstad.se/download/18.52a121a217ce4d028c542f2/1636710420332/Strategi%20Agenda%202030%20antagen%20september%202021.pdf</t>
-  </si>
-  <si>
     <t>https://www.vanersborg.se/download/18.2875b421183ed3f970726814/1666862824047/Miljoaktivitetsplan%202022.pdf</t>
   </si>
   <si>
-    <t>https://www.alingsas.se/wp-content/uploads/2022/06/Klimatstrategi-for-Alingsas-kommun.pdf</t>
-  </si>
-  <si>
-    <t>https://www.boras.se/download/18.499cdee21538963cd3f57af7/1610014986050/Energi-%20och%20klimatstrategi%20-%20strategi.pdf</t>
-  </si>
-  <si>
     <t>https://www.amal.se/media/467592/antagen-energi-och-klimatstrategi-20171027.pdf</t>
   </si>
   <si>
-    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab5329d52f430f6fe71a/1670425427707/Viable-Cities-Klimatkontrakt-Mariestad-FINAL.pdf</t>
-  </si>
-  <si>
-    <t>https://skara.se/download/18.a9ae3d177427fab272ada/1611824198185/milj%C3%B6strategi%202017web.pdf</t>
-  </si>
-  <si>
-    <t>https://skovde.se/globalassets/energi--och-klimatplanen_webb.pdf</t>
-  </si>
-  <si>
-    <t>https://hjo.se/globalassets/dokument/styrdokument/ovrigt/hallbarhetsstrategi-for-hjo-kommun.pdf</t>
-  </si>
-  <si>
-    <t>https://www.falkoping.se/download/18.1adde54a17861a73b1e11aae/1626330208751/Klimatstrategi%202021-2030.pdf</t>
+    <t>Askersund</t>
+  </si>
+  <si>
+    <t>Degerfors</t>
+  </si>
+  <si>
+    <t>Hallsberg</t>
+  </si>
+  <si>
+    <t>Hällefors</t>
+  </si>
+  <si>
+    <t>Karlskoga</t>
+  </si>
+  <si>
+    <t>Kumla</t>
+  </si>
+  <si>
+    <t>Laxå</t>
   </si>
   <si>
     <t>Lekeberg</t>
   </si>
   <si>
-    <t>Laxå</t>
-  </si>
-  <si>
-    <t>Hallsberg</t>
-  </si>
-  <si>
-    <t>Degerfors</t>
-  </si>
-  <si>
-    <t>Hällefors</t>
+    <t>Lindesberg</t>
   </si>
   <si>
     <t>Ljusnarsberg</t>
   </si>
   <si>
+    <t>Nora</t>
+  </si>
+  <si>
     <t>Örebro</t>
   </si>
   <si>
-    <t>Kumla</t>
-  </si>
-  <si>
-    <t>Askersund</t>
-  </si>
-  <si>
-    <t>Karlskoga</t>
-  </si>
-  <si>
-    <t>Nora</t>
-  </si>
-  <si>
-    <t>Lindesberg</t>
-  </si>
-  <si>
     <t>Örebro län</t>
   </si>
   <si>
+    <t>https://www.askersund.se/download/18.c8a52c6182e9506a5cabfd/1661845370147/Ekologiskt%20h%C3%A5llbarhetsprogram%202022-2025</t>
+  </si>
+  <si>
+    <t>https://degerfors.se/download/18.53e66ade178ef85bf04d94/1624438767997/Energi-%20och%20klimatprogram%20-2021-06-04.pdf</t>
+  </si>
+  <si>
+    <t>https://karlskoga.se/download/18.52754ae1775ea851a920ca/1666080772061/miljoprogram-karlskoga-kommun.pdf</t>
+  </si>
+  <si>
     <t>https://lekeberg.se/download/18.4743cfc18120db3f63d6f13/1655444950983/H%C3%A5llbarhetsprogram%20f%C3%B6r%20Lekebergs%20kommun%202022-2030%20-%20%20antagen.pdf</t>
   </si>
   <si>
-    <t>https://degerfors.se/download/18.53e66ade178ef85bf04d94/1624438767997/Energi-%20och%20klimatprogram%20-2021-06-04.pdf</t>
-  </si>
-  <si>
     <t>https://www.orebro.se/download/18.1d8f9a39155628f73841694a/1485339455931/Klimatstrategi%20%C3%96rebro%20kommun.pdf</t>
   </si>
   <si>
-    <t>https://www.askersund.se/download/18.c8a52c6182e9506a5cabfd/1661845370147/Ekologiskt%20h%C3%A5llbarhetsprogram%202022-2025</t>
-  </si>
-  <si>
-    <t>https://karlskoga.se/download/18.52754ae1775ea851a920ca/1666080772061/miljoprogram-karlskoga-kommun.pdf</t>
+    <t>Boxholm</t>
+  </si>
+  <si>
+    <t>Finspång</t>
+  </si>
+  <si>
+    <t>Kinda</t>
+  </si>
+  <si>
+    <t>Linköping</t>
+  </si>
+  <si>
+    <t>Mjölby</t>
+  </si>
+  <si>
+    <t>Motala</t>
+  </si>
+  <si>
+    <t>Norrköping</t>
+  </si>
+  <si>
+    <t>Söderköping</t>
+  </si>
+  <si>
+    <t>Vadstena</t>
+  </si>
+  <si>
+    <t>Valdemarsvik</t>
+  </si>
+  <si>
+    <t>Ydre</t>
+  </si>
+  <si>
+    <t>Åtvidaberg</t>
   </si>
   <si>
     <t>Ödeshög</t>
   </si>
   <si>
-    <t>Ydre</t>
-  </si>
-  <si>
-    <t>Kinda</t>
-  </si>
-  <si>
-    <t>Boxholm</t>
-  </si>
-  <si>
-    <t>Åtvidaberg</t>
-  </si>
-  <si>
-    <t>Finspång</t>
-  </si>
-  <si>
-    <t>Valdemarsvik</t>
-  </si>
-  <si>
-    <t>Linköping</t>
-  </si>
-  <si>
-    <t>Norrköping</t>
-  </si>
-  <si>
-    <t>Söderköping</t>
-  </si>
-  <si>
-    <t>Motala</t>
-  </si>
-  <si>
-    <t>Vadstena</t>
-  </si>
-  <si>
-    <t>Mjölby</t>
-  </si>
-  <si>
     <t>Östergötlands län</t>
   </si>
   <si>
+    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab3afd7221628a913d67/1670425403524/Viable-Cities-Klimatkontrakt-Linkoping-FINAL.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mjolby.se/download/18.12cf806d18409781a5e22559/1667205317237/Energi-%20och%20klimatstrategi.pdf</t>
+  </si>
+  <si>
+    <t>/data/climatePlans/Söderköping Mål och strategier för Miljö och klimat.pdf</t>
+  </si>
+  <si>
     <t>https://www.atvidaberg.se/download/18.1dfa69ad1630328ad7c3895c/1656507587248/hallbarhetsprogram.pdf</t>
-  </si>
-  <si>
-    <t>https://static1.squarespace.com/static/5dd54ca29c9179411df12b85/t/6390ab3afd7221628a913d67/1670425403524/Viable-Cities-Klimatkontrakt-Linkoping-FINAL.pdf</t>
-  </si>
-  <si>
-    <t>/data/climatePlans/Söderköping Mål och strategier för Miljö och klimat.pdf</t>
-  </si>
-  <si>
-    <t>https://www.mjolby.se/download/18.12cf806d18409781a5e22559/1667205317237/Energi-%20och%20klimatstrategi.pdf</t>
   </si>
 </sst>
 </file>
@@ -1800,13 +1800,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>2023</v>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1834,13 +1834,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>6.1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>4.8</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1851,13 +1851,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.2</v>
-      </c>
-      <c r="D5" t="s">
+        <v>6.1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="E5">
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1871,16 +1871,16 @@
         <v>6.8</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1919,13 +1919,13 @@
         <v>142</v>
       </c>
       <c r="C2">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1936,13 +1936,13 @@
         <v>142</v>
       </c>
       <c r="C3">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1953,13 +1953,13 @@
         <v>142</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>6.1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4">
+        <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1970,13 +1970,13 @@
         <v>142</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1987,13 +1987,13 @@
         <v>142</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
+        <v>144</v>
+      </c>
+      <c r="E6">
+        <v>2012</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2004,13 +2004,13 @@
         <v>142</v>
       </c>
       <c r="C7">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2021,13 +2021,13 @@
         <v>142</v>
       </c>
       <c r="C8">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2038,13 +2038,13 @@
         <v>142</v>
       </c>
       <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
+        <v>3.9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9">
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2055,13 +2055,13 @@
         <v>142</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10">
-        <v>2021</v>
+        <v>7.6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2072,13 +2072,13 @@
         <v>142</v>
       </c>
       <c r="C11">
-        <v>7.6</v>
+        <v>4.7</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2092,7 +2092,7 @@
         <v>8.4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E12">
         <v>2019</v>
@@ -2106,13 +2106,13 @@
         <v>142</v>
       </c>
       <c r="C13">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E13">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2123,13 +2123,13 @@
         <v>142</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14">
-        <v>2012</v>
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2140,21 +2140,21 @@
         <v>142</v>
       </c>
       <c r="C15">
-        <v>3.9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15">
-        <v>2015</v>
+        <v>6.8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1"/>
-    <hyperlink ref="D12" r:id="rId2"/>
-    <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D15" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D12" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2193,13 +2193,13 @@
         <v>181</v>
       </c>
       <c r="C2">
-        <v>6.7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2">
-        <v>2022</v>
+        <v>4.6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2210,13 +2210,13 @@
         <v>181</v>
       </c>
       <c r="C3">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3">
-        <v>2022</v>
+        <v>7.1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2230,7 +2230,7 @@
         <v>4.8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E4">
         <v>2020</v>
@@ -2244,13 +2244,13 @@
         <v>181</v>
       </c>
       <c r="C5">
-        <v>8.4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5">
-        <v>2021</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2261,13 +2261,13 @@
         <v>181</v>
       </c>
       <c r="C6">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2278,13 +2278,13 @@
         <v>181</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+        <v>6.3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7">
+        <v>2018</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2295,13 +2295,13 @@
         <v>181</v>
       </c>
       <c r="C8">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2312,13 +2312,13 @@
         <v>181</v>
       </c>
       <c r="C9">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
+        <v>7.3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9">
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2329,13 +2329,13 @@
         <v>181</v>
       </c>
       <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10">
-        <v>2020</v>
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2346,13 +2346,13 @@
         <v>181</v>
       </c>
       <c r="C11">
-        <v>7.5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11">
-        <v>2021</v>
+        <v>6.3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2363,13 +2363,13 @@
         <v>181</v>
       </c>
       <c r="C12">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12">
-        <v>2017</v>
+        <v>185</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2380,13 +2380,13 @@
         <v>181</v>
       </c>
       <c r="C13">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2397,13 +2397,13 @@
         <v>181</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2414,13 +2414,13 @@
         <v>181</v>
       </c>
       <c r="C15">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2431,13 +2431,13 @@
         <v>181</v>
       </c>
       <c r="C16">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E16">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2448,13 +2448,13 @@
         <v>181</v>
       </c>
       <c r="C17">
-        <v>7.1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
+        <v>10.4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17">
+        <v>2021</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2465,13 +2465,13 @@
         <v>181</v>
       </c>
       <c r="C18">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2482,10 +2482,10 @@
         <v>181</v>
       </c>
       <c r="C19">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E19">
         <v>2021</v>
@@ -2502,10 +2502,10 @@
         <v>6.4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
+        <v>191</v>
+      </c>
+      <c r="E20">
+        <v>2021</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2516,13 +2516,13 @@
         <v>181</v>
       </c>
       <c r="C21">
-        <v>7.2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21">
-        <v>2022</v>
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2533,13 +2533,13 @@
         <v>181</v>
       </c>
       <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
+        <v>6.6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22">
+        <v>2022</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2550,13 +2550,13 @@
         <v>181</v>
       </c>
       <c r="C23">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E23">
-        <v>2022</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2567,13 +2567,13 @@
         <v>181</v>
       </c>
       <c r="C24">
-        <v>10.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E24">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2584,13 +2584,13 @@
         <v>181</v>
       </c>
       <c r="C25">
-        <v>7.4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
+        <v>6.7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25">
+        <v>2022</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2601,13 +2601,13 @@
         <v>181</v>
       </c>
       <c r="C26">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2618,13 +2618,13 @@
         <v>181</v>
       </c>
       <c r="C27">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2635,13 +2635,13 @@
         <v>181</v>
       </c>
       <c r="C28">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2652,13 +2652,13 @@
         <v>181</v>
       </c>
       <c r="C29">
-        <v>5.7</v>
+        <v>8.4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E29">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2669,13 +2669,13 @@
         <v>181</v>
       </c>
       <c r="C30">
-        <v>7.3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
+        <v>5.7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30">
+        <v>2020</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2686,13 +2686,13 @@
         <v>181</v>
       </c>
       <c r="C31">
-        <v>7.5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E31">
-        <v>2023</v>
+        <v>6.3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2703,13 +2703,13 @@
         <v>181</v>
       </c>
       <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
+        <v>7.2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32">
+        <v>2022</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2720,13 +2720,13 @@
         <v>181</v>
       </c>
       <c r="C33">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2737,36 +2737,36 @@
         <v>181</v>
       </c>
       <c r="C34">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D11" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7"/>
-    <hyperlink ref="D13" r:id="rId8"/>
-    <hyperlink ref="D16" r:id="rId9"/>
-    <hyperlink ref="D18" r:id="rId10"/>
-    <hyperlink ref="D19" r:id="rId11"/>
-    <hyperlink ref="D20" r:id="rId12"/>
-    <hyperlink ref="D21" r:id="rId13"/>
-    <hyperlink ref="D23" r:id="rId14"/>
-    <hyperlink ref="D24" r:id="rId15"/>
-    <hyperlink ref="D26" r:id="rId16"/>
-    <hyperlink ref="D27" r:id="rId17"/>
-    <hyperlink ref="D29" r:id="rId18"/>
-    <hyperlink ref="D31" r:id="rId19"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId3"/>
+    <hyperlink ref="D12" r:id="rId4"/>
+    <hyperlink ref="D13" r:id="rId5"/>
+    <hyperlink ref="D16" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="D18" r:id="rId8"/>
+    <hyperlink ref="D19" r:id="rId9"/>
+    <hyperlink ref="D20" r:id="rId10"/>
+    <hyperlink ref="D22" r:id="rId11"/>
+    <hyperlink ref="D23" r:id="rId12"/>
+    <hyperlink ref="D24" r:id="rId13"/>
+    <hyperlink ref="D25" r:id="rId14"/>
+    <hyperlink ref="D26" r:id="rId15"/>
+    <hyperlink ref="D27" r:id="rId16"/>
+    <hyperlink ref="D29" r:id="rId17"/>
+    <hyperlink ref="D30" r:id="rId18"/>
+    <hyperlink ref="D32" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2805,13 +2805,13 @@
         <v>227</v>
       </c>
       <c r="C2">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>228</v>
       </c>
       <c r="E2">
-        <v>2022</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2822,13 +2822,13 @@
         <v>227</v>
       </c>
       <c r="C3">
-        <v>8.9</v>
+        <v>10.5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2839,13 +2839,13 @@
         <v>227</v>
       </c>
       <c r="C4">
-        <v>7.9</v>
+        <v>9.1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>230</v>
       </c>
       <c r="E4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2856,13 +2856,13 @@
         <v>227</v>
       </c>
       <c r="C5">
-        <v>9.699999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E5">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2873,13 +2873,13 @@
         <v>227</v>
       </c>
       <c r="C6">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2890,13 +2890,13 @@
         <v>227</v>
       </c>
       <c r="C7">
-        <v>9.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E7">
-        <v>2020</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>227</v>
       </c>
       <c r="C8">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>234</v>
       </c>
       <c r="E8">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2924,13 +2924,13 @@
         <v>227</v>
       </c>
       <c r="C9">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>235</v>
       </c>
       <c r="E9">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2941,13 +2941,13 @@
         <v>227</v>
       </c>
       <c r="C10">
-        <v>7.1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
+        <v>6.3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10">
+        <v>2020</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2958,13 +2958,13 @@
         <v>227</v>
       </c>
       <c r="C11">
-        <v>6.7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11">
-        <v>2017</v>
+        <v>6.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2975,13 +2975,13 @@
         <v>227</v>
       </c>
       <c r="C12">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E12">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2992,13 +2992,13 @@
         <v>227</v>
       </c>
       <c r="C13">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13">
-        <v>2023</v>
+        <v>7.1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3009,13 +3009,13 @@
         <v>227</v>
       </c>
       <c r="C14">
-        <v>6.5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3026,13 +3026,13 @@
         <v>227</v>
       </c>
       <c r="C15">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
+        <v>9.4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15">
+        <v>2021</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3043,13 +3043,13 @@
         <v>227</v>
       </c>
       <c r="C16">
-        <v>10.5</v>
+        <v>9.1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E16">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3060,13 +3060,13 @@
         <v>227</v>
       </c>
       <c r="C17">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E17">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3077,13 +3077,13 @@
         <v>227</v>
       </c>
       <c r="C18">
-        <v>9.1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E18">
-        <v>2020</v>
+        <v>11.3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3111,13 +3111,13 @@
         <v>227</v>
       </c>
       <c r="C20">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E20">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3128,13 +3128,13 @@
         <v>227</v>
       </c>
       <c r="C21">
-        <v>11.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3145,13 +3145,13 @@
         <v>227</v>
       </c>
       <c r="C22">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>244</v>
       </c>
       <c r="E22">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3162,13 +3162,13 @@
         <v>227</v>
       </c>
       <c r="C23">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E23">
-        <v>2021</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3179,13 +3179,13 @@
         <v>227</v>
       </c>
       <c r="C24">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E24">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3196,13 +3196,13 @@
         <v>227</v>
       </c>
       <c r="C25">
-        <v>6.3</v>
+        <v>8.5</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E25">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3213,13 +3213,13 @@
         <v>227</v>
       </c>
       <c r="C26">
-        <v>8.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>248</v>
       </c>
       <c r="E26">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3230,7 +3230,7 @@
         <v>227</v>
       </c>
       <c r="C27">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>249</v>
@@ -3249,12 +3249,12 @@
     <hyperlink ref="D7" r:id="rId6"/>
     <hyperlink ref="D8" r:id="rId7"/>
     <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D12" r:id="rId10"/>
-    <hyperlink ref="D13" r:id="rId11"/>
-    <hyperlink ref="D16" r:id="rId12"/>
-    <hyperlink ref="D17" r:id="rId13"/>
-    <hyperlink ref="D18" r:id="rId14"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D17" r:id="rId14"/>
     <hyperlink ref="D19" r:id="rId15"/>
     <hyperlink ref="D20" r:id="rId16"/>
     <hyperlink ref="D22" r:id="rId17"/>
@@ -3301,13 +3301,13 @@
         <v>259</v>
       </c>
       <c r="C2">
-        <v>6.4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>7.4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3318,13 +3318,13 @@
         <v>259</v>
       </c>
       <c r="C3">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E3">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3335,13 +3335,13 @@
         <v>259</v>
       </c>
       <c r="C4">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E4">
-        <v>2022</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3352,13 +3352,13 @@
         <v>259</v>
       </c>
       <c r="C5">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3369,13 +3369,13 @@
         <v>259</v>
       </c>
       <c r="C6">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E6">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3386,13 +3386,13 @@
         <v>259</v>
       </c>
       <c r="C7">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3403,13 +3403,13 @@
         <v>259</v>
       </c>
       <c r="C8">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3420,13 +3420,13 @@
         <v>259</v>
       </c>
       <c r="C9">
-        <v>6.1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9">
-        <v>2021</v>
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3437,22 +3437,22 @@
         <v>259</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3491,13 +3491,13 @@
         <v>273</v>
       </c>
       <c r="C2">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>274</v>
       </c>
       <c r="E2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3508,13 +3508,13 @@
         <v>273</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3525,13 +3525,13 @@
         <v>273</v>
       </c>
       <c r="C4">
-        <v>9.6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>6.3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4">
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3542,13 +3542,13 @@
         <v>273</v>
       </c>
       <c r="C5">
-        <v>7.3</v>
+        <v>9.6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3562,7 +3562,7 @@
         <v>8.1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E6">
         <v>2020</v>
@@ -3579,7 +3579,7 @@
         <v>7.6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -3593,13 +3593,13 @@
         <v>273</v>
       </c>
       <c r="C8">
-        <v>7.3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8">
-        <v>2022</v>
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3613,18 +3613,18 @@
         <v>5.8</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3663,13 +3663,13 @@
         <v>294</v>
       </c>
       <c r="C2">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3697,13 +3697,13 @@
         <v>294</v>
       </c>
       <c r="C4">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3714,13 +3714,13 @@
         <v>294</v>
       </c>
       <c r="C5">
-        <v>6.2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+        <v>7.1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5">
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3731,13 +3731,13 @@
         <v>294</v>
       </c>
       <c r="C6">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3748,13 +3748,13 @@
         <v>294</v>
       </c>
       <c r="C7">
-        <v>5.8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+        <v>2.4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3767,11 +3767,11 @@
       <c r="C8">
         <v>7.1</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E8">
-        <v>2021</v>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3782,13 +3782,13 @@
         <v>294</v>
       </c>
       <c r="C9">
-        <v>7.6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3799,13 +3799,13 @@
         <v>294</v>
       </c>
       <c r="C10">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3816,13 +3816,13 @@
         <v>294</v>
       </c>
       <c r="C11">
-        <v>5.3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11">
-        <v>2018</v>
+        <v>5.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3833,13 +3833,13 @@
         <v>294</v>
       </c>
       <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12">
-        <v>2022</v>
+        <v>5.8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3850,13 +3850,13 @@
         <v>294</v>
       </c>
       <c r="C13">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3867,13 +3867,13 @@
         <v>294</v>
       </c>
       <c r="C14">
-        <v>4.8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
+        <v>5.3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3884,13 +3884,13 @@
         <v>294</v>
       </c>
       <c r="C15">
-        <v>2.4</v>
+        <v>6.7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E15">
-        <v>2022</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3901,13 +3901,13 @@
         <v>294</v>
       </c>
       <c r="C16">
-        <v>6.3</v>
+        <v>4.9</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3918,23 +3918,23 @@
         <v>294</v>
       </c>
       <c r="C17">
-        <v>6.7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17">
-        <v>2018</v>
+        <v>4.7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D11" r:id="rId3"/>
-    <hyperlink ref="D12" r:id="rId4"/>
-    <hyperlink ref="D15" r:id="rId5"/>
-    <hyperlink ref="D17" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId5"/>
+    <hyperlink ref="D15" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3973,13 +3973,13 @@
         <v>316</v>
       </c>
       <c r="C2">
-        <v>8.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>6.2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3990,13 +3990,13 @@
         <v>316</v>
       </c>
       <c r="C3">
-        <v>6.2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E3">
-        <v>2021</v>
+        <v>3.7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4007,13 +4007,13 @@
         <v>316</v>
       </c>
       <c r="C4">
-        <v>8.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4024,13 +4024,13 @@
         <v>316</v>
       </c>
       <c r="C5">
-        <v>10.1</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4041,13 +4041,13 @@
         <v>316</v>
       </c>
       <c r="C6">
-        <v>10.2</v>
+        <v>8.5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4058,13 +4058,13 @@
         <v>316</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>10.2</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4075,13 +4075,13 @@
         <v>316</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E8">
-        <v>2020</v>
+        <v>10.1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4092,13 +4092,13 @@
         <v>316</v>
       </c>
       <c r="C9">
-        <v>1.8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4109,13 +4109,13 @@
         <v>316</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4126,13 +4126,13 @@
         <v>316</v>
       </c>
       <c r="C11">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
+        <v>5.9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11">
+        <v>2020</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4143,13 +4143,13 @@
         <v>316</v>
       </c>
       <c r="C12">
-        <v>5.7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+        <v>7.3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4160,13 +4160,13 @@
         <v>316</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4177,13 +4177,13 @@
         <v>316</v>
       </c>
       <c r="C14">
-        <v>7.3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14">
-        <v>2022</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4194,13 +4194,13 @@
         <v>316</v>
       </c>
       <c r="C15">
-        <v>6.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4211,21 +4211,21 @@
         <v>316</v>
       </c>
       <c r="C16">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E16">
-        <v>2022</v>
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D14" r:id="rId3"/>
-    <hyperlink ref="D16" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4264,13 +4264,13 @@
         <v>328</v>
       </c>
       <c r="C2">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4281,13 +4281,13 @@
         <v>328</v>
       </c>
       <c r="C3">
-        <v>7.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+        <v>8.1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3">
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4298,13 +4298,13 @@
         <v>328</v>
       </c>
       <c r="C4">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4318,7 +4318,7 @@
         <v>6.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E5">
         <v>2022</v>
@@ -4332,13 +4332,13 @@
         <v>328</v>
       </c>
       <c r="C6">
-        <v>8.1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E6">
-        <v>2019</v>
+        <v>7.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4349,13 +4349,13 @@
         <v>328</v>
       </c>
       <c r="C7">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4377,8 +4377,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="D8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4418,13 +4418,13 @@
         <v>342</v>
       </c>
       <c r="C2">
-        <v>8.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>7.7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2">
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4435,13 +4435,13 @@
         <v>342</v>
       </c>
       <c r="C3">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4452,13 +4452,13 @@
         <v>342</v>
       </c>
       <c r="C4">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4469,13 +4469,13 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4486,13 +4486,13 @@
         <v>342</v>
       </c>
       <c r="C6">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E6">
-        <v>2021</v>
+        <v>6.7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4503,13 +4503,13 @@
         <v>342</v>
       </c>
       <c r="C7">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>344</v>
       </c>
       <c r="E7">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4537,13 +4537,13 @@
         <v>342</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4554,13 +4554,13 @@
         <v>342</v>
       </c>
       <c r="C10">
-        <v>6.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4571,18 +4571,18 @@
         <v>342</v>
       </c>
       <c r="C11">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>346</v>
       </c>
       <c r="E11">
-        <v>2009</v>
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D7" r:id="rId2"/>
     <hyperlink ref="D8" r:id="rId3"/>
     <hyperlink ref="D11" r:id="rId4"/>
@@ -4624,7 +4624,7 @@
         <v>396</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>397</v>
@@ -4641,13 +4641,13 @@
         <v>396</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+        <v>5.7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4658,13 +4658,13 @@
         <v>396</v>
       </c>
       <c r="C4">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4675,13 +4675,13 @@
         <v>396</v>
       </c>
       <c r="C5">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4692,13 +4692,13 @@
         <v>396</v>
       </c>
       <c r="C6">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
+        <v>6.9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6">
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4709,13 +4709,13 @@
         <v>396</v>
       </c>
       <c r="C7">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E7">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4726,13 +4726,13 @@
         <v>396</v>
       </c>
       <c r="C8">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E8">
-        <v>2018</v>
+        <v>5.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4743,13 +4743,13 @@
         <v>396</v>
       </c>
       <c r="C9">
-        <v>7.6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9">
+        <v>2021</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4760,13 +4760,13 @@
         <v>396</v>
       </c>
       <c r="C10">
-        <v>7.7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E10">
-        <v>2020</v>
+        <v>5.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4777,13 +4777,13 @@
         <v>396</v>
       </c>
       <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E11">
-        <v>2020</v>
+        <v>6.3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4794,13 +4794,13 @@
         <v>396</v>
       </c>
       <c r="C12">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4811,7 +4811,7 @@
         <v>396</v>
       </c>
       <c r="C13">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>402</v>
@@ -4828,13 +4828,13 @@
         <v>396</v>
       </c>
       <c r="C14">
-        <v>8.9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
+        <v>5.8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E14">
+        <v>2019</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4848,10 +4848,10 @@
         <v>7.4</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4862,13 +4862,13 @@
         <v>396</v>
       </c>
       <c r="C16">
-        <v>7.5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
+        <v>7.4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16">
+        <v>2018</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4879,13 +4879,13 @@
         <v>396</v>
       </c>
       <c r="C17">
-        <v>6.3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E17">
+        <v>2021</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4896,13 +4896,13 @@
         <v>396</v>
       </c>
       <c r="C18">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4913,13 +4913,13 @@
         <v>396</v>
       </c>
       <c r="C19">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4930,13 +4930,13 @@
         <v>396</v>
       </c>
       <c r="C20">
-        <v>4.7</v>
+        <v>8.9</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4947,13 +4947,13 @@
         <v>396</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4964,13 +4964,13 @@
         <v>396</v>
       </c>
       <c r="C22">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4981,13 +4981,13 @@
         <v>396</v>
       </c>
       <c r="C23">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4998,13 +4998,13 @@
         <v>396</v>
       </c>
       <c r="C24">
-        <v>7.1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
+        <v>5.8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E24">
+        <v>2022</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5018,10 +5018,10 @@
         <v>5.9</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5032,13 +5032,13 @@
         <v>396</v>
       </c>
       <c r="C26">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5049,13 +5049,13 @@
         <v>396</v>
       </c>
       <c r="C27">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5066,13 +5066,13 @@
         <v>396</v>
       </c>
       <c r="C28">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E28">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5083,13 +5083,13 @@
         <v>396</v>
       </c>
       <c r="C29">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E29">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5100,13 +5100,13 @@
         <v>396</v>
       </c>
       <c r="C30">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5117,13 +5117,13 @@
         <v>396</v>
       </c>
       <c r="C31">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E31">
-        <v>2022</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5134,10 +5134,10 @@
         <v>396</v>
       </c>
       <c r="C32">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E32">
         <v>2021</v>
@@ -5154,10 +5154,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E33">
-        <v>2022</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5168,13 +5168,13 @@
         <v>396</v>
       </c>
       <c r="C34">
-        <v>6.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5185,13 +5185,13 @@
         <v>396</v>
       </c>
       <c r="C35">
-        <v>6.8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E35">
+        <v>2021</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5202,13 +5202,13 @@
         <v>396</v>
       </c>
       <c r="C36">
-        <v>8.4</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E36">
-        <v>2022</v>
+        <v>7.1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5219,13 +5219,13 @@
         <v>396</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E37">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -5236,13 +5236,13 @@
         <v>396</v>
       </c>
       <c r="C38">
-        <v>6.9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E38">
-        <v>2022</v>
+        <v>7.9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5253,13 +5253,13 @@
         <v>396</v>
       </c>
       <c r="C39">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -5270,13 +5270,13 @@
         <v>396</v>
       </c>
       <c r="C40">
-        <v>5.7</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E40">
-        <v>2022</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -5287,13 +5287,13 @@
         <v>396</v>
       </c>
       <c r="C41">
-        <v>6.9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E41">
-        <v>2020</v>
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -5304,13 +5304,13 @@
         <v>396</v>
       </c>
       <c r="C42">
-        <v>5.4</v>
+        <v>7.7</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -5321,13 +5321,13 @@
         <v>396</v>
       </c>
       <c r="C43">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E43">
-        <v>2017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -5338,10 +5338,10 @@
         <v>396</v>
       </c>
       <c r="C44">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E44">
         <v>2022</v>
@@ -5355,13 +5355,13 @@
         <v>396</v>
       </c>
       <c r="C45">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5372,13 +5372,13 @@
         <v>396</v>
       </c>
       <c r="C46">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E46">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -5389,13 +5389,13 @@
         <v>396</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E47">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5408,11 +5408,11 @@
       <c r="C48">
         <v>7.4</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E48">
-        <v>2018</v>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -5423,13 +5423,13 @@
         <v>396</v>
       </c>
       <c r="C49">
-        <v>6.3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
+        <v>4.7</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E49">
+        <v>2017</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -5440,39 +5440,39 @@
         <v>396</v>
       </c>
       <c r="C50">
-        <v>6</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E50">
-        <v>2021</v>
+        <v>7.7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D9" r:id="rId5"/>
     <hyperlink ref="D13" r:id="rId6"/>
-    <hyperlink ref="D28" r:id="rId7"/>
-    <hyperlink ref="D29" r:id="rId8"/>
-    <hyperlink ref="D31" r:id="rId9"/>
-    <hyperlink ref="D32" r:id="rId10"/>
-    <hyperlink ref="D33" r:id="rId11"/>
-    <hyperlink ref="D36" r:id="rId12"/>
-    <hyperlink ref="D37" r:id="rId13"/>
-    <hyperlink ref="D38" r:id="rId14"/>
-    <hyperlink ref="D40" r:id="rId15"/>
-    <hyperlink ref="D41" r:id="rId16"/>
-    <hyperlink ref="D43" r:id="rId17"/>
-    <hyperlink ref="D44" r:id="rId18"/>
-    <hyperlink ref="D46" r:id="rId19"/>
-    <hyperlink ref="D47" r:id="rId20"/>
-    <hyperlink ref="D48" r:id="rId21"/>
-    <hyperlink ref="D50" r:id="rId22"/>
+    <hyperlink ref="D14" r:id="rId7"/>
+    <hyperlink ref="D16" r:id="rId8"/>
+    <hyperlink ref="D17" r:id="rId9"/>
+    <hyperlink ref="D24" r:id="rId10"/>
+    <hyperlink ref="D28" r:id="rId11"/>
+    <hyperlink ref="D29" r:id="rId12"/>
+    <hyperlink ref="D31" r:id="rId13"/>
+    <hyperlink ref="D32" r:id="rId14"/>
+    <hyperlink ref="D33" r:id="rId15"/>
+    <hyperlink ref="D35" r:id="rId16"/>
+    <hyperlink ref="D37" r:id="rId17"/>
+    <hyperlink ref="D43" r:id="rId18"/>
+    <hyperlink ref="D44" r:id="rId19"/>
+    <hyperlink ref="D46" r:id="rId20"/>
+    <hyperlink ref="D47" r:id="rId21"/>
+    <hyperlink ref="D49" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5511,13 +5511,13 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>6.9</v>
-      </c>
-      <c r="D2" t="s">
+        <v>6.4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5528,13 +5528,13 @@
         <v>30</v>
       </c>
       <c r="C3">
-        <v>6.8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+        <v>6.9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5545,13 +5545,13 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>7.9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>7.3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>2012</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5562,13 +5562,13 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5579,13 +5579,13 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>6.7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
+        <v>7.3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5596,13 +5596,13 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5613,13 +5613,13 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5630,13 +5630,13 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5650,10 +5650,10 @@
         <v>7.6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5664,13 +5664,13 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>7.3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>2012</v>
+        <v>6.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5681,13 +5681,13 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>6.9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12">
-        <v>2021</v>
+        <v>6.7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5698,13 +5698,13 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5715,13 +5715,13 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>7.3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14">
-        <v>2020</v>
+        <v>8.6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5732,13 +5732,13 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>6.4</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>6.9</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
       </c>
       <c r="E15">
-        <v>2020</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5749,21 +5749,21 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1"/>
-    <hyperlink ref="D12" r:id="rId2"/>
-    <hyperlink ref="D14" r:id="rId3"/>
-    <hyperlink ref="D15" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5802,7 +5802,7 @@
         <v>431</v>
       </c>
       <c r="C2">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>432</v>
@@ -5819,13 +5819,13 @@
         <v>431</v>
       </c>
       <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5839,10 +5839,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5853,13 +5853,13 @@
         <v>431</v>
       </c>
       <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E5">
-        <v>2021</v>
+        <v>2.3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5870,13 +5870,13 @@
         <v>431</v>
       </c>
       <c r="C6">
-        <v>2.3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
+        <v>6.7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6">
+        <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5887,13 +5887,13 @@
         <v>431</v>
       </c>
       <c r="C7">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5904,13 +5904,13 @@
         <v>431</v>
       </c>
       <c r="C8">
-        <v>6.8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E8">
-        <v>2016</v>
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5921,13 +5921,13 @@
         <v>431</v>
       </c>
       <c r="C9">
-        <v>7.4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5938,13 +5938,13 @@
         <v>431</v>
       </c>
       <c r="C10">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E10">
-        <v>2022</v>
+        <v>6.3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5955,13 +5955,13 @@
         <v>431</v>
       </c>
       <c r="C11">
-        <v>6.7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E11">
-        <v>2021</v>
+        <v>6.2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5975,10 +5975,10 @@
         <v>7.8</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5989,22 +5989,22 @@
         <v>431</v>
       </c>
       <c r="C13">
-        <v>6.3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
+        <v>6.8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="D13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6043,13 +6043,13 @@
         <v>450</v>
       </c>
       <c r="C2">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6060,13 +6060,13 @@
         <v>450</v>
       </c>
       <c r="C3">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6080,10 +6080,10 @@
         <v>7.7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6094,13 +6094,13 @@
         <v>450</v>
       </c>
       <c r="C5">
-        <v>6.8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+        <v>7.8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6111,13 +6111,13 @@
         <v>450</v>
       </c>
       <c r="C6">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E6">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6128,13 +6128,13 @@
         <v>450</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6145,13 +6145,13 @@
         <v>450</v>
       </c>
       <c r="C8">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6162,10 +6162,10 @@
         <v>450</v>
       </c>
       <c r="C9">
-        <v>7.8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>452</v>
+        <v>7.9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>453</v>
       </c>
       <c r="E9">
         <v>2022</v>
@@ -6179,13 +6179,13 @@
         <v>450</v>
       </c>
       <c r="C10">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6196,13 +6196,13 @@
         <v>450</v>
       </c>
       <c r="C11">
-        <v>7.9</v>
+        <v>6.3</v>
       </c>
       <c r="D11" t="s">
-        <v>453</v>
-      </c>
-      <c r="E11">
-        <v>2022</v>
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6216,10 +6216,10 @@
         <v>6.1</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6230,13 +6230,13 @@
         <v>450</v>
       </c>
       <c r="C13">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
+        <v>7.8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6247,20 +6247,20 @@
         <v>450</v>
       </c>
       <c r="C14">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E14">
-        <v>2020</v>
+        <v>7.1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="D14" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6349,7 +6349,7 @@
         <v>49</v>
       </c>
       <c r="C2">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>50</v>
@@ -6366,13 +6366,13 @@
         <v>49</v>
       </c>
       <c r="C3">
-        <v>5.6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+        <v>6.1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6383,13 +6383,13 @@
         <v>49</v>
       </c>
       <c r="C4">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6400,13 +6400,13 @@
         <v>49</v>
       </c>
       <c r="C5">
-        <v>7.4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+        <v>6.8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6420,10 +6420,10 @@
         <v>3.8</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6434,13 +6434,13 @@
         <v>49</v>
       </c>
       <c r="C7">
-        <v>6.1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7">
-        <v>2021</v>
+        <v>7.4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6451,13 +6451,13 @@
         <v>49</v>
       </c>
       <c r="C8">
-        <v>4.7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
+        <v>6.5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6468,13 +6468,13 @@
         <v>49</v>
       </c>
       <c r="C9">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6485,13 +6485,13 @@
         <v>49</v>
       </c>
       <c r="C10">
-        <v>4.6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10">
-        <v>2022</v>
+        <v>4.7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6502,21 +6502,21 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>6.8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11">
-        <v>2017</v>
+        <v>6.1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D10" r:id="rId3"/>
-    <hyperlink ref="D11" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6555,13 +6555,13 @@
         <v>60</v>
       </c>
       <c r="C2">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6589,13 +6589,13 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6606,13 +6606,13 @@
         <v>60</v>
       </c>
       <c r="C5">
-        <v>6.6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+        <v>8.1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6623,13 +6623,13 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6640,19 +6640,19 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>8.1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7">
-        <v>2022</v>
+        <v>7.1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6691,13 +6691,13 @@
         <v>71</v>
       </c>
       <c r="C2">
-        <v>5.1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>8.1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6711,10 +6711,10 @@
         <v>7.1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6725,13 +6725,13 @@
         <v>71</v>
       </c>
       <c r="C4">
-        <v>9.300000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6742,13 +6742,13 @@
         <v>71</v>
       </c>
       <c r="C5">
-        <v>2.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6759,13 +6759,13 @@
         <v>71</v>
       </c>
       <c r="C6">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6776,13 +6776,13 @@
         <v>71</v>
       </c>
       <c r="C7">
-        <v>8.1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7">
-        <v>2022</v>
+        <v>2.4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6793,13 +6793,13 @@
         <v>71</v>
       </c>
       <c r="C8">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6821,7 +6821,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6878,13 +6878,13 @@
         <v>87</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6895,7 +6895,7 @@
         <v>87</v>
       </c>
       <c r="C4">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>89</v>
@@ -6912,13 +6912,13 @@
         <v>87</v>
       </c>
       <c r="C5">
-        <v>7.8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5">
-        <v>2021</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6929,10 +6929,10 @@
         <v>87</v>
       </c>
       <c r="C6">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>2021</v>
@@ -6946,10 +6946,10 @@
         <v>87</v>
       </c>
       <c r="C7">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -6963,13 +6963,13 @@
         <v>87</v>
       </c>
       <c r="C8">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6983,7 +6983,7 @@
         <v>6.3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>2016</v>
@@ -6997,13 +6997,13 @@
         <v>87</v>
       </c>
       <c r="C10">
-        <v>5.9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10">
-        <v>2023</v>
+        <v>6.4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7014,13 +7014,13 @@
         <v>87</v>
       </c>
       <c r="C11">
-        <v>6.4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
+        <v>7.1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7031,13 +7031,13 @@
         <v>87</v>
       </c>
       <c r="C12">
-        <v>6.4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+        <v>7.4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7048,13 +7048,13 @@
         <v>87</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7065,25 +7065,25 @@
         <v>87</v>
       </c>
       <c r="C14">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
+    <hyperlink ref="D12" r:id="rId8"/>
     <hyperlink ref="D14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7123,13 +7123,13 @@
         <v>109</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>7.5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <v>2019</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7140,13 +7140,13 @@
         <v>109</v>
       </c>
       <c r="C3">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7157,13 +7157,13 @@
         <v>109</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7177,10 +7177,10 @@
         <v>4.8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7191,13 +7191,13 @@
         <v>109</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
+        <v>5.7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6">
+        <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7208,13 +7208,13 @@
         <v>109</v>
       </c>
       <c r="C7">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7225,13 +7225,13 @@
         <v>109</v>
       </c>
       <c r="C8">
-        <v>5.7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8">
-        <v>2019</v>
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7245,10 +7245,10 @@
         <v>6.3</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7262,10 +7262,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7276,13 +7276,13 @@
         <v>109</v>
       </c>
       <c r="C11">
-        <v>5.8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11">
-        <v>2021</v>
+        <v>6.2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7296,10 +7296,10 @@
         <v>5.5</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7310,19 +7310,19 @@
         <v>109</v>
       </c>
       <c r="C13">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E13">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D11" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
     <hyperlink ref="D13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7362,13 +7362,13 @@
         <v>121</v>
       </c>
       <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2">
-        <v>2022</v>
+        <v>8.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7382,7 +7382,7 @@
         <v>7.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>2019</v>
@@ -7396,13 +7396,13 @@
         <v>121</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7413,13 +7413,13 @@
         <v>121</v>
       </c>
       <c r="C5">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7430,13 +7430,13 @@
         <v>121</v>
       </c>
       <c r="C6">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7447,13 +7447,13 @@
         <v>121</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7481,7 +7481,7 @@
         <v>121</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>127</v>
@@ -7492,10 +7492,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
     <hyperlink ref="D8" r:id="rId5"/>
     <hyperlink ref="D9" r:id="rId6"/>
   </hyperlinks>

--- a/data/climate-data.xlsx
+++ b/data/climate-data.xlsx
@@ -42,7 +42,7 @@
     <t>Län</t>
   </si>
   <si>
-    <t>Utsläppsförändring 2019-2020 (%)</t>
+    <t>Utsläppsförändring 2020-2021 (%)</t>
   </si>
   <si>
     <t>KPI1: Förändringstakt andel laddbara bilar (%)</t>
@@ -1806,7 +1806,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="D2">
         <v>5.2</v>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>-7.9</v>
+        <v>-1.4</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -1846,7 +1846,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>-14</v>
+        <v>4.8</v>
       </c>
       <c r="D4">
         <v>4.8</v>
@@ -1866,7 +1866,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>-9.6</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>6.1</v>
@@ -1886,7 +1886,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-19.6</v>
+        <v>5.4</v>
       </c>
       <c r="D6">
         <v>6.8</v>
@@ -1943,7 +1943,7 @@
         <v>143</v>
       </c>
       <c r="C2">
-        <v>-6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D2">
         <v>6.4</v>
@@ -1963,7 +1963,7 @@
         <v>143</v>
       </c>
       <c r="C3">
-        <v>-10.7</v>
+        <v>2.2</v>
       </c>
       <c r="D3">
         <v>3.1</v>
@@ -1983,7 +1983,7 @@
         <v>143</v>
       </c>
       <c r="C4">
-        <v>-5.8</v>
+        <v>5.3</v>
       </c>
       <c r="D4">
         <v>6.1</v>
@@ -2003,7 +2003,7 @@
         <v>143</v>
       </c>
       <c r="C5">
-        <v>-11.1</v>
+        <v>-4.5</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2023,7 +2023,7 @@
         <v>143</v>
       </c>
       <c r="C6">
-        <v>-4.6</v>
+        <v>-6.2</v>
       </c>
       <c r="D6">
         <v>3.9</v>
@@ -2043,7 +2043,7 @@
         <v>143</v>
       </c>
       <c r="C7">
-        <v>-6.8</v>
+        <v>5.6</v>
       </c>
       <c r="D7">
         <v>5.5</v>
@@ -2063,7 +2063,7 @@
         <v>143</v>
       </c>
       <c r="C8">
-        <v>-11.2</v>
+        <v>10.3</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2083,7 +2083,7 @@
         <v>143</v>
       </c>
       <c r="C9">
-        <v>-1.4</v>
+        <v>-2.4</v>
       </c>
       <c r="D9">
         <v>3.9</v>
@@ -2103,7 +2103,7 @@
         <v>143</v>
       </c>
       <c r="C10">
-        <v>-3.1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>7.6</v>
@@ -2123,7 +2123,7 @@
         <v>143</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>-1.3</v>
       </c>
       <c r="D11">
         <v>4.7</v>
@@ -2143,7 +2143,7 @@
         <v>143</v>
       </c>
       <c r="C12">
-        <v>-13.6</v>
+        <v>4.6</v>
       </c>
       <c r="D12">
         <v>8.4</v>
@@ -2163,7 +2163,7 @@
         <v>143</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>-8.1</v>
       </c>
       <c r="D13">
         <v>5.5</v>
@@ -2183,7 +2183,7 @@
         <v>143</v>
       </c>
       <c r="C14">
-        <v>-7.2</v>
+        <v>-0.7</v>
       </c>
       <c r="D14">
         <v>3.8</v>
@@ -2203,7 +2203,7 @@
         <v>143</v>
       </c>
       <c r="C15">
-        <v>-7.8</v>
+        <v>-3.2</v>
       </c>
       <c r="D15">
         <v>6.8</v>
@@ -2262,7 +2262,7 @@
         <v>182</v>
       </c>
       <c r="C2">
-        <v>-5.5</v>
+        <v>1.3</v>
       </c>
       <c r="D2">
         <v>4.6</v>
@@ -2282,7 +2282,7 @@
         <v>182</v>
       </c>
       <c r="C3">
-        <v>-23.8</v>
+        <v>6.7</v>
       </c>
       <c r="D3">
         <v>7.1</v>
@@ -2302,7 +2302,7 @@
         <v>182</v>
       </c>
       <c r="C4">
-        <v>-16.1</v>
+        <v>-11.6</v>
       </c>
       <c r="D4">
         <v>4.8</v>
@@ -2322,7 +2322,7 @@
         <v>182</v>
       </c>
       <c r="C5">
-        <v>-8.9</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -2342,7 +2342,7 @@
         <v>182</v>
       </c>
       <c r="C6">
-        <v>31.3</v>
+        <v>-2.4</v>
       </c>
       <c r="D6">
         <v>5.9</v>
@@ -2362,7 +2362,7 @@
         <v>182</v>
       </c>
       <c r="C7">
-        <v>-6.2</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
         <v>6.3</v>
@@ -2382,7 +2382,7 @@
         <v>182</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>-11.6</v>
       </c>
       <c r="D8">
         <v>5.6</v>
@@ -2402,7 +2402,7 @@
         <v>182</v>
       </c>
       <c r="C9">
-        <v>-5.4</v>
+        <v>19.2</v>
       </c>
       <c r="D9">
         <v>7.3</v>
@@ -2422,7 +2422,7 @@
         <v>182</v>
       </c>
       <c r="C10">
-        <v>-8.800000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         <v>182</v>
       </c>
       <c r="C11">
-        <v>-8.800000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <v>6.3</v>
@@ -2462,7 +2462,7 @@
         <v>182</v>
       </c>
       <c r="C12">
-        <v>-2.9</v>
+        <v>1.1</v>
       </c>
       <c r="D12">
         <v>6.4</v>
@@ -2482,7 +2482,7 @@
         <v>182</v>
       </c>
       <c r="C13">
-        <v>-8.800000000000001</v>
+        <v>-1.7</v>
       </c>
       <c r="D13">
         <v>7.5</v>
@@ -2502,7 +2502,7 @@
         <v>182</v>
       </c>
       <c r="C14">
-        <v>-7.9</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
         <v>9.300000000000001</v>
@@ -2522,7 +2522,7 @@
         <v>182</v>
       </c>
       <c r="C15">
-        <v>-7.5</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>7.4</v>
@@ -2542,7 +2542,7 @@
         <v>182</v>
       </c>
       <c r="C16">
-        <v>-7.5</v>
+        <v>0.3</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -2562,7 +2562,7 @@
         <v>182</v>
       </c>
       <c r="C17">
-        <v>-9.300000000000001</v>
+        <v>-3.3</v>
       </c>
       <c r="D17">
         <v>10.4</v>
@@ -2582,7 +2582,7 @@
         <v>182</v>
       </c>
       <c r="C18">
-        <v>-16.6</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>6.4</v>
@@ -2602,7 +2602,7 @@
         <v>182</v>
       </c>
       <c r="C19">
-        <v>-11.5</v>
+        <v>-0.9</v>
       </c>
       <c r="D19">
         <v>5.4</v>
@@ -2622,7 +2622,7 @@
         <v>182</v>
       </c>
       <c r="C20">
-        <v>-0.8</v>
+        <v>1.1</v>
       </c>
       <c r="D20">
         <v>6.4</v>
@@ -2642,7 +2642,7 @@
         <v>182</v>
       </c>
       <c r="C21">
-        <v>-10.5</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -2662,7 +2662,7 @@
         <v>182</v>
       </c>
       <c r="C22">
-        <v>-7.8</v>
+        <v>0.4</v>
       </c>
       <c r="D22">
         <v>6.6</v>
@@ -2682,7 +2682,7 @@
         <v>182</v>
       </c>
       <c r="C23">
-        <v>-7.1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>6.6</v>
@@ -2702,7 +2702,7 @@
         <v>182</v>
       </c>
       <c r="C24">
-        <v>-7.6</v>
+        <v>0.1</v>
       </c>
       <c r="D24">
         <v>8.199999999999999</v>
@@ -2722,7 +2722,7 @@
         <v>182</v>
       </c>
       <c r="C25">
-        <v>-10</v>
+        <v>2.6</v>
       </c>
       <c r="D25">
         <v>6.7</v>
@@ -2742,7 +2742,7 @@
         <v>182</v>
       </c>
       <c r="C26">
-        <v>-9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="D26">
         <v>7.5</v>
@@ -2762,7 +2762,7 @@
         <v>182</v>
       </c>
       <c r="C27">
-        <v>-7.2</v>
+        <v>-5.7</v>
       </c>
       <c r="D27">
         <v>2.9</v>
@@ -2782,7 +2782,7 @@
         <v>182</v>
       </c>
       <c r="C28">
-        <v>-9.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="D28">
         <v>7.3</v>
@@ -2802,7 +2802,7 @@
         <v>182</v>
       </c>
       <c r="C29">
-        <v>-6.5</v>
+        <v>-0.5</v>
       </c>
       <c r="D29">
         <v>8.4</v>
@@ -2822,7 +2822,7 @@
         <v>182</v>
       </c>
       <c r="C30">
-        <v>-7.3</v>
+        <v>0.3</v>
       </c>
       <c r="D30">
         <v>5.7</v>
@@ -2842,7 +2842,7 @@
         <v>182</v>
       </c>
       <c r="C31">
-        <v>-7.7</v>
+        <v>-2.3</v>
       </c>
       <c r="D31">
         <v>6.3</v>
@@ -2862,7 +2862,7 @@
         <v>182</v>
       </c>
       <c r="C32">
-        <v>-11</v>
+        <v>1.9</v>
       </c>
       <c r="D32">
         <v>7.2</v>
@@ -2882,7 +2882,7 @@
         <v>182</v>
       </c>
       <c r="C33">
-        <v>-7.8</v>
+        <v>1.1</v>
       </c>
       <c r="D33">
         <v>3.3</v>
@@ -2902,7 +2902,7 @@
         <v>182</v>
       </c>
       <c r="C34">
-        <v>-10</v>
+        <v>-0.8</v>
       </c>
       <c r="D34">
         <v>7.5</v>
@@ -2976,7 +2976,7 @@
         <v>228</v>
       </c>
       <c r="C2">
-        <v>-9.1</v>
+        <v>-0.3</v>
       </c>
       <c r="D2">
         <v>6.4</v>
@@ -2996,7 +2996,7 @@
         <v>228</v>
       </c>
       <c r="C3">
-        <v>-8.5</v>
+        <v>1.3</v>
       </c>
       <c r="D3">
         <v>10.5</v>
@@ -3016,7 +3016,7 @@
         <v>228</v>
       </c>
       <c r="C4">
-        <v>-11.1</v>
+        <v>7.4</v>
       </c>
       <c r="D4">
         <v>9.1</v>
@@ -3036,7 +3036,7 @@
         <v>228</v>
       </c>
       <c r="C5">
-        <v>-7</v>
+        <v>-3.1</v>
       </c>
       <c r="D5">
         <v>6.7</v>
@@ -3056,7 +3056,7 @@
         <v>228</v>
       </c>
       <c r="C6">
-        <v>-8.9</v>
+        <v>0.3</v>
       </c>
       <c r="D6">
         <v>6.9</v>
@@ -3076,7 +3076,7 @@
         <v>228</v>
       </c>
       <c r="C7">
-        <v>-9.4</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
         <v>8.199999999999999</v>
@@ -3096,7 +3096,7 @@
         <v>228</v>
       </c>
       <c r="C8">
-        <v>7.3</v>
+        <v>9.6</v>
       </c>
       <c r="D8">
         <v>8.6</v>
@@ -3116,7 +3116,7 @@
         <v>228</v>
       </c>
       <c r="C9">
-        <v>-8.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="D9">
         <v>9.4</v>
@@ -3136,7 +3136,7 @@
         <v>228</v>
       </c>
       <c r="C10">
-        <v>-8.9</v>
+        <v>2.7</v>
       </c>
       <c r="D10">
         <v>6.3</v>
@@ -3156,7 +3156,7 @@
         <v>228</v>
       </c>
       <c r="C11">
-        <v>-9.5</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <v>6.5</v>
@@ -3176,7 +3176,7 @@
         <v>228</v>
       </c>
       <c r="C12">
-        <v>-8.4</v>
+        <v>-1.6</v>
       </c>
       <c r="D12">
         <v>7.3</v>
@@ -3196,7 +3196,7 @@
         <v>228</v>
       </c>
       <c r="C13">
-        <v>-8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D13">
         <v>7.1</v>
@@ -3216,7 +3216,7 @@
         <v>228</v>
       </c>
       <c r="C14">
-        <v>-8.800000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="D14">
         <v>8.199999999999999</v>
@@ -3236,7 +3236,7 @@
         <v>228</v>
       </c>
       <c r="C15">
-        <v>-8.6</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
         <v>9.4</v>
@@ -3256,7 +3256,7 @@
         <v>228</v>
       </c>
       <c r="C16">
-        <v>-8.5</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>9.1</v>
@@ -3276,7 +3276,7 @@
         <v>228</v>
       </c>
       <c r="C17">
-        <v>-27.4</v>
+        <v>5.6</v>
       </c>
       <c r="D17">
         <v>9.1</v>
@@ -3296,7 +3296,7 @@
         <v>228</v>
       </c>
       <c r="C18">
-        <v>-8.9</v>
+        <v>-0</v>
       </c>
       <c r="D18">
         <v>11.3</v>
@@ -3316,7 +3316,7 @@
         <v>228</v>
       </c>
       <c r="C19">
-        <v>-41.6</v>
+        <v>-1.7</v>
       </c>
       <c r="D19">
         <v>7.7</v>
@@ -3336,7 +3336,7 @@
         <v>228</v>
       </c>
       <c r="C20">
-        <v>-8.6</v>
+        <v>0.7</v>
       </c>
       <c r="D20">
         <v>8.300000000000001</v>
@@ -3356,7 +3356,7 @@
         <v>228</v>
       </c>
       <c r="C21">
-        <v>-9.199999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D21">
         <v>8.699999999999999</v>
@@ -3376,7 +3376,7 @@
         <v>228</v>
       </c>
       <c r="C22">
-        <v>-13.4</v>
+        <v>0.6</v>
       </c>
       <c r="D22">
         <v>7.7</v>
@@ -3396,7 +3396,7 @@
         <v>228</v>
       </c>
       <c r="C23">
-        <v>109</v>
+        <v>2.6</v>
       </c>
       <c r="D23">
         <v>8.199999999999999</v>
@@ -3416,7 +3416,7 @@
         <v>228</v>
       </c>
       <c r="C24">
-        <v>-10</v>
+        <v>0.7</v>
       </c>
       <c r="D24">
         <v>8.9</v>
@@ -3436,7 +3436,7 @@
         <v>228</v>
       </c>
       <c r="C25">
-        <v>-4.9</v>
+        <v>12.3</v>
       </c>
       <c r="D25">
         <v>8.5</v>
@@ -3456,7 +3456,7 @@
         <v>228</v>
       </c>
       <c r="C26">
-        <v>-7.8</v>
+        <v>6.8</v>
       </c>
       <c r="D26">
         <v>9.699999999999999</v>
@@ -3476,7 +3476,7 @@
         <v>228</v>
       </c>
       <c r="C27">
-        <v>-9.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="D27">
         <v>7.9</v>
@@ -3553,7 +3553,7 @@
         <v>260</v>
       </c>
       <c r="C2">
-        <v>-9.300000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="D2">
         <v>7.4</v>
@@ -3573,7 +3573,7 @@
         <v>260</v>
       </c>
       <c r="C3">
-        <v>-9.300000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D3">
         <v>6.6</v>
@@ -3593,7 +3593,7 @@
         <v>260</v>
       </c>
       <c r="C4">
-        <v>-12.6</v>
+        <v>3.3</v>
       </c>
       <c r="D4">
         <v>7.9</v>
@@ -3613,7 +3613,7 @@
         <v>260</v>
       </c>
       <c r="C5">
-        <v>-8.1</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
         <v>6.8</v>
@@ -3633,7 +3633,7 @@
         <v>260</v>
       </c>
       <c r="C6">
-        <v>-7.9</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>6.7</v>
@@ -3653,7 +3653,7 @@
         <v>260</v>
       </c>
       <c r="C7">
-        <v>-27.4</v>
+        <v>8.9</v>
       </c>
       <c r="D7">
         <v>6.9</v>
@@ -3673,7 +3673,7 @@
         <v>260</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>2.4</v>
       </c>
       <c r="D8">
         <v>6.1</v>
@@ -3693,7 +3693,7 @@
         <v>260</v>
       </c>
       <c r="C9">
-        <v>-10.3</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -3713,7 +3713,7 @@
         <v>260</v>
       </c>
       <c r="C10">
-        <v>-12.7</v>
+        <v>1.4</v>
       </c>
       <c r="D10">
         <v>6.4</v>
@@ -3773,7 +3773,7 @@
         <v>274</v>
       </c>
       <c r="C2">
-        <v>-9.1</v>
+        <v>-2.1</v>
       </c>
       <c r="D2">
         <v>7.3</v>
@@ -3793,7 +3793,7 @@
         <v>274</v>
       </c>
       <c r="C3">
-        <v>-6.9</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>7.3</v>
@@ -3813,7 +3813,7 @@
         <v>274</v>
       </c>
       <c r="C4">
-        <v>-8.5</v>
+        <v>5.6</v>
       </c>
       <c r="D4">
         <v>6.3</v>
@@ -3833,7 +3833,7 @@
         <v>274</v>
       </c>
       <c r="C5">
-        <v>-12.5</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>9.6</v>
@@ -3853,7 +3853,7 @@
         <v>274</v>
       </c>
       <c r="C6">
-        <v>-10.9</v>
+        <v>-1.3</v>
       </c>
       <c r="D6">
         <v>8.1</v>
@@ -3873,7 +3873,7 @@
         <v>274</v>
       </c>
       <c r="C7">
-        <v>-24.2</v>
+        <v>2.9</v>
       </c>
       <c r="D7">
         <v>7.6</v>
@@ -3893,7 +3893,7 @@
         <v>274</v>
       </c>
       <c r="C8">
-        <v>-8.6</v>
+        <v>1.8</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -3913,7 +3913,7 @@
         <v>274</v>
       </c>
       <c r="C9">
-        <v>-17.8</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>5.8</v>
@@ -3972,7 +3972,7 @@
         <v>295</v>
       </c>
       <c r="C2">
-        <v>-10.2</v>
+        <v>4.6</v>
       </c>
       <c r="D2">
         <v>6.3</v>
@@ -3992,7 +3992,7 @@
         <v>295</v>
       </c>
       <c r="C3">
-        <v>-5</v>
+        <v>7.9</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -4012,7 +4012,7 @@
         <v>295</v>
       </c>
       <c r="C4">
-        <v>-8.6</v>
+        <v>-1.3</v>
       </c>
       <c r="D4">
         <v>4.8</v>
@@ -4032,7 +4032,7 @@
         <v>295</v>
       </c>
       <c r="C5">
-        <v>-7.6</v>
+        <v>4.2</v>
       </c>
       <c r="D5">
         <v>7.1</v>
@@ -4052,7 +4052,7 @@
         <v>295</v>
       </c>
       <c r="C6">
-        <v>-13.7</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D6">
         <v>7.6</v>
@@ -4072,7 +4072,7 @@
         <v>295</v>
       </c>
       <c r="C7">
-        <v>-7.7</v>
+        <v>16.7</v>
       </c>
       <c r="D7">
         <v>2.4</v>
@@ -4092,7 +4092,7 @@
         <v>295</v>
       </c>
       <c r="C8">
-        <v>-17.1</v>
+        <v>3.8</v>
       </c>
       <c r="D8">
         <v>7.1</v>
@@ -4112,7 +4112,7 @@
         <v>295</v>
       </c>
       <c r="C9">
-        <v>-6.6</v>
+        <v>1.5</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -4132,7 +4132,7 @@
         <v>295</v>
       </c>
       <c r="C10">
-        <v>-6.7</v>
+        <v>5.8</v>
       </c>
       <c r="D10">
         <v>6.4</v>
@@ -4152,7 +4152,7 @@
         <v>295</v>
       </c>
       <c r="C11">
-        <v>-4.1</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
         <v>5.6</v>
@@ -4172,7 +4172,7 @@
         <v>295</v>
       </c>
       <c r="C12">
-        <v>-6.8</v>
+        <v>-2.6</v>
       </c>
       <c r="D12">
         <v>5.8</v>
@@ -4192,7 +4192,7 @@
         <v>295</v>
       </c>
       <c r="C13">
-        <v>-7.4</v>
+        <v>3.6</v>
       </c>
       <c r="D13">
         <v>6.2</v>
@@ -4212,7 +4212,7 @@
         <v>295</v>
       </c>
       <c r="C14">
-        <v>-11.2</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>5.3</v>
@@ -4232,7 +4232,7 @@
         <v>295</v>
       </c>
       <c r="C15">
-        <v>-6.5</v>
+        <v>10.7</v>
       </c>
       <c r="D15">
         <v>6.7</v>
@@ -4252,7 +4252,7 @@
         <v>295</v>
       </c>
       <c r="C16">
-        <v>-7.6</v>
+        <v>3.6</v>
       </c>
       <c r="D16">
         <v>4.9</v>
@@ -4272,7 +4272,7 @@
         <v>295</v>
       </c>
       <c r="C17">
-        <v>-8</v>
+        <v>1.8</v>
       </c>
       <c r="D17">
         <v>4.7</v>
@@ -4333,7 +4333,7 @@
         <v>317</v>
       </c>
       <c r="C2">
-        <v>-12.4</v>
+        <v>-5.4</v>
       </c>
       <c r="D2">
         <v>6.2</v>
@@ -4353,7 +4353,7 @@
         <v>317</v>
       </c>
       <c r="C3">
-        <v>-6.5</v>
+        <v>-4.8</v>
       </c>
       <c r="D3">
         <v>3.7</v>
@@ -4373,7 +4373,7 @@
         <v>317</v>
       </c>
       <c r="C4">
-        <v>-25</v>
+        <v>7.4</v>
       </c>
       <c r="D4">
         <v>6.3</v>
@@ -4393,7 +4393,7 @@
         <v>317</v>
       </c>
       <c r="C5">
-        <v>-8.800000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D5">
         <v>3.9</v>
@@ -4413,7 +4413,7 @@
         <v>317</v>
       </c>
       <c r="C6">
-        <v>-11.6</v>
+        <v>1.1</v>
       </c>
       <c r="D6">
         <v>8.5</v>
@@ -4433,7 +4433,7 @@
         <v>317</v>
       </c>
       <c r="C7">
-        <v>-11.4</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
         <v>10.2</v>
@@ -4453,7 +4453,7 @@
         <v>317</v>
       </c>
       <c r="C8">
-        <v>-14.3</v>
+        <v>-0.6</v>
       </c>
       <c r="D8">
         <v>10.1</v>
@@ -4473,7 +4473,7 @@
         <v>317</v>
       </c>
       <c r="C9">
-        <v>-4.7</v>
+        <v>3.3</v>
       </c>
       <c r="D9">
         <v>8.199999999999999</v>
@@ -4493,7 +4493,7 @@
         <v>317</v>
       </c>
       <c r="C10">
-        <v>-6.7</v>
+        <v>3.4</v>
       </c>
       <c r="D10">
         <v>1.8</v>
@@ -4513,7 +4513,7 @@
         <v>317</v>
       </c>
       <c r="C11">
-        <v>-8.1</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
         <v>5.9</v>
@@ -4533,7 +4533,7 @@
         <v>317</v>
       </c>
       <c r="C12">
-        <v>-7.4</v>
+        <v>3.9</v>
       </c>
       <c r="D12">
         <v>7.3</v>
@@ -4553,7 +4553,7 @@
         <v>317</v>
       </c>
       <c r="C13">
-        <v>-7</v>
+        <v>-1.5</v>
       </c>
       <c r="D13">
         <v>5.7</v>
@@ -4573,7 +4573,7 @@
         <v>317</v>
       </c>
       <c r="C14">
-        <v>-9.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D14">
         <v>8.199999999999999</v>
@@ -4593,7 +4593,7 @@
         <v>317</v>
       </c>
       <c r="C15">
-        <v>-11.2</v>
+        <v>2.1</v>
       </c>
       <c r="D15">
         <v>8.300000000000001</v>
@@ -4613,7 +4613,7 @@
         <v>317</v>
       </c>
       <c r="C16">
-        <v>-6.7</v>
+        <v>4.2</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -4672,7 +4672,7 @@
         <v>329</v>
       </c>
       <c r="C2">
-        <v>-11.9</v>
+        <v>0.9</v>
       </c>
       <c r="D2">
         <v>7.2</v>
@@ -4692,7 +4692,7 @@
         <v>329</v>
       </c>
       <c r="C3">
-        <v>-5.3</v>
+        <v>2.2</v>
       </c>
       <c r="D3">
         <v>8.1</v>
@@ -4712,7 +4712,7 @@
         <v>329</v>
       </c>
       <c r="C4">
-        <v>-6.7</v>
+        <v>-3.8</v>
       </c>
       <c r="D4">
         <v>6.2</v>
@@ -4732,7 +4732,7 @@
         <v>329</v>
       </c>
       <c r="C5">
-        <v>-7</v>
+        <v>-1.4</v>
       </c>
       <c r="D5">
         <v>6.6</v>
@@ -4752,7 +4752,7 @@
         <v>329</v>
       </c>
       <c r="C6">
-        <v>-9.699999999999999</v>
+        <v>-16.8</v>
       </c>
       <c r="D6">
         <v>7.5</v>
@@ -4772,7 +4772,7 @@
         <v>329</v>
       </c>
       <c r="C7">
-        <v>-9</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
         <v>5.9</v>
@@ -4792,7 +4792,7 @@
         <v>329</v>
       </c>
       <c r="C8">
-        <v>-12.1</v>
+        <v>29.1</v>
       </c>
       <c r="D8">
         <v>6.1</v>
@@ -4850,7 +4850,7 @@
         <v>343</v>
       </c>
       <c r="C2">
-        <v>-8.6</v>
+        <v>-0.9</v>
       </c>
       <c r="D2">
         <v>7.7</v>
@@ -4870,7 +4870,7 @@
         <v>343</v>
       </c>
       <c r="C3">
-        <v>-10</v>
+        <v>2.6</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -4890,7 +4890,7 @@
         <v>343</v>
       </c>
       <c r="C4">
-        <v>-7.9</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
         <v>8.1</v>
@@ -4910,7 +4910,7 @@
         <v>343</v>
       </c>
       <c r="C5">
-        <v>-9.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="D5">
         <v>7.7</v>
@@ -4930,7 +4930,7 @@
         <v>343</v>
       </c>
       <c r="C6">
-        <v>-4.5</v>
+        <v>5.7</v>
       </c>
       <c r="D6">
         <v>6.7</v>
@@ -4950,7 +4950,7 @@
         <v>343</v>
       </c>
       <c r="C7">
-        <v>-8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D7">
         <v>8.199999999999999</v>
@@ -4970,7 +4970,7 @@
         <v>343</v>
       </c>
       <c r="C8">
-        <v>-9.300000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="D8">
         <v>6.9</v>
@@ -4990,7 +4990,7 @@
         <v>343</v>
       </c>
       <c r="C9">
-        <v>-7.3</v>
+        <v>-2.1</v>
       </c>
       <c r="D9">
         <v>8.5</v>
@@ -5010,7 +5010,7 @@
         <v>343</v>
       </c>
       <c r="C10">
-        <v>-10.2</v>
+        <v>2.1</v>
       </c>
       <c r="D10">
         <v>8.300000000000001</v>
@@ -5030,7 +5030,7 @@
         <v>343</v>
       </c>
       <c r="C11">
-        <v>-19.6</v>
+        <v>14.6</v>
       </c>
       <c r="D11">
         <v>7.6</v>
@@ -5089,7 +5089,7 @@
         <v>397</v>
       </c>
       <c r="C2">
-        <v>-16.8</v>
+        <v>5.5</v>
       </c>
       <c r="D2">
         <v>7.8</v>
@@ -5109,7 +5109,7 @@
         <v>397</v>
       </c>
       <c r="C3">
-        <v>-11.6</v>
+        <v>-4.9</v>
       </c>
       <c r="D3">
         <v>5.7</v>
@@ -5129,7 +5129,7 @@
         <v>397</v>
       </c>
       <c r="C4">
-        <v>-14</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
         <v>5.5</v>
@@ -5149,7 +5149,7 @@
         <v>397</v>
       </c>
       <c r="C5">
-        <v>-9.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
         <v>7.5</v>
@@ -5169,7 +5169,7 @@
         <v>397</v>
       </c>
       <c r="C6">
-        <v>-7.6</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
         <v>6.9</v>
@@ -5189,7 +5189,7 @@
         <v>397</v>
       </c>
       <c r="C7">
-        <v>-8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -5209,7 +5209,7 @@
         <v>397</v>
       </c>
       <c r="C8">
-        <v>-11.8</v>
+        <v>-2.7</v>
       </c>
       <c r="D8">
         <v>5.5</v>
@@ -5229,7 +5229,7 @@
         <v>397</v>
       </c>
       <c r="C9">
-        <v>-11.6</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -5249,7 +5249,7 @@
         <v>397</v>
       </c>
       <c r="C10">
-        <v>-7.5</v>
+        <v>-2</v>
       </c>
       <c r="D10">
         <v>5.5</v>
@@ -5269,7 +5269,7 @@
         <v>397</v>
       </c>
       <c r="C11">
-        <v>-7.4</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
         <v>6.3</v>
@@ -5289,7 +5289,7 @@
         <v>397</v>
       </c>
       <c r="C12">
-        <v>-8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D12">
         <v>4.7</v>
@@ -5309,7 +5309,7 @@
         <v>397</v>
       </c>
       <c r="C13">
-        <v>-10.6</v>
+        <v>1.7</v>
       </c>
       <c r="D13">
         <v>8.1</v>
@@ -5329,7 +5329,7 @@
         <v>397</v>
       </c>
       <c r="C14">
-        <v>-5.1</v>
+        <v>-1.3</v>
       </c>
       <c r="D14">
         <v>5.8</v>
@@ -5349,7 +5349,7 @@
         <v>397</v>
       </c>
       <c r="C15">
-        <v>-11.7</v>
+        <v>1.7</v>
       </c>
       <c r="D15">
         <v>7.4</v>
@@ -5369,7 +5369,7 @@
         <v>397</v>
       </c>
       <c r="C16">
-        <v>-9.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>7.4</v>
@@ -5389,7 +5389,7 @@
         <v>397</v>
       </c>
       <c r="C17">
-        <v>-8.5</v>
+        <v>0.6</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -5409,7 +5409,7 @@
         <v>397</v>
       </c>
       <c r="C18">
-        <v>-13.3</v>
+        <v>0.9</v>
       </c>
       <c r="D18">
         <v>6.6</v>
@@ -5429,7 +5429,7 @@
         <v>397</v>
       </c>
       <c r="C19">
-        <v>-7.5</v>
+        <v>-0.1</v>
       </c>
       <c r="D19">
         <v>6.5</v>
@@ -5449,7 +5449,7 @@
         <v>397</v>
       </c>
       <c r="C20">
-        <v>-10.1</v>
+        <v>3.1</v>
       </c>
       <c r="D20">
         <v>8.9</v>
@@ -5469,7 +5469,7 @@
         <v>397</v>
       </c>
       <c r="C21">
-        <v>-4.1</v>
+        <v>-5.9</v>
       </c>
       <c r="D21">
         <v>6.3</v>
@@ -5489,7 +5489,7 @@
         <v>397</v>
       </c>
       <c r="C22">
-        <v>-6.5</v>
+        <v>-0.7</v>
       </c>
       <c r="D22">
         <v>7.1</v>
@@ -5509,7 +5509,7 @@
         <v>397</v>
       </c>
       <c r="C23">
-        <v>-7.8</v>
+        <v>41.6</v>
       </c>
       <c r="D23">
         <v>6.8</v>
@@ -5529,7 +5529,7 @@
         <v>397</v>
       </c>
       <c r="C24">
-        <v>2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="D24">
         <v>5.8</v>
@@ -5549,7 +5549,7 @@
         <v>397</v>
       </c>
       <c r="C25">
-        <v>-9.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="D25">
         <v>5.9</v>
@@ -5569,7 +5569,7 @@
         <v>397</v>
       </c>
       <c r="C26">
-        <v>-7</v>
+        <v>0.6</v>
       </c>
       <c r="D26">
         <v>5.5</v>
@@ -5589,7 +5589,7 @@
         <v>397</v>
       </c>
       <c r="C27">
-        <v>-26.8</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>7.6</v>
@@ -5609,7 +5609,7 @@
         <v>397</v>
       </c>
       <c r="C28">
-        <v>-9.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="D28">
         <v>8.300000000000001</v>
@@ -5629,7 +5629,7 @@
         <v>397</v>
       </c>
       <c r="C29">
-        <v>-7.6</v>
+        <v>5.1</v>
       </c>
       <c r="D29">
         <v>7.6</v>
@@ -5649,7 +5649,7 @@
         <v>397</v>
       </c>
       <c r="C30">
-        <v>-9.1</v>
+        <v>-0.2</v>
       </c>
       <c r="D30">
         <v>7.8</v>
@@ -5669,7 +5669,7 @@
         <v>397</v>
       </c>
       <c r="C31">
-        <v>-8.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D31">
         <v>6.3</v>
@@ -5689,7 +5689,7 @@
         <v>397</v>
       </c>
       <c r="C32">
-        <v>-20</v>
+        <v>427.3</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -5709,7 +5709,7 @@
         <v>397</v>
       </c>
       <c r="C33">
-        <v>-11.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D33">
         <v>8.300000000000001</v>
@@ -5729,7 +5729,7 @@
         <v>397</v>
       </c>
       <c r="C34">
-        <v>-32.1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D34">
         <v>8.199999999999999</v>
@@ -5749,7 +5749,7 @@
         <v>397</v>
       </c>
       <c r="C35">
-        <v>-11.8</v>
+        <v>7.4</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -5769,7 +5769,7 @@
         <v>397</v>
       </c>
       <c r="C36">
-        <v>-8.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="D36">
         <v>7.1</v>
@@ -5789,7 +5789,7 @@
         <v>397</v>
       </c>
       <c r="C37">
-        <v>-7.9</v>
+        <v>3.3</v>
       </c>
       <c r="D37">
         <v>7.7</v>
@@ -5809,7 +5809,7 @@
         <v>397</v>
       </c>
       <c r="C38">
-        <v>-11.2</v>
+        <v>-0.9</v>
       </c>
       <c r="D38">
         <v>7.9</v>
@@ -5829,7 +5829,7 @@
         <v>397</v>
       </c>
       <c r="C39">
-        <v>10.5</v>
+        <v>13.2</v>
       </c>
       <c r="D39">
         <v>6.3</v>
@@ -5849,7 +5849,7 @@
         <v>397</v>
       </c>
       <c r="C40">
-        <v>-11.6</v>
+        <v>2.1</v>
       </c>
       <c r="D40">
         <v>8.199999999999999</v>
@@ -5869,7 +5869,7 @@
         <v>397</v>
       </c>
       <c r="C41">
-        <v>-4</v>
+        <v>0.7</v>
       </c>
       <c r="D41">
         <v>7</v>
@@ -5889,7 +5889,7 @@
         <v>397</v>
       </c>
       <c r="C42">
-        <v>-8.5</v>
+        <v>0.1</v>
       </c>
       <c r="D42">
         <v>7.7</v>
@@ -5909,7 +5909,7 @@
         <v>397</v>
       </c>
       <c r="C43">
-        <v>-11</v>
+        <v>1.4</v>
       </c>
       <c r="D43">
         <v>5.8</v>
@@ -5929,7 +5929,7 @@
         <v>397</v>
       </c>
       <c r="C44">
-        <v>-9.4</v>
+        <v>11.9</v>
       </c>
       <c r="D44">
         <v>8.4</v>
@@ -5949,7 +5949,7 @@
         <v>397</v>
       </c>
       <c r="C45">
-        <v>-8.5</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>5.4</v>
@@ -5969,7 +5969,7 @@
         <v>397</v>
       </c>
       <c r="C46">
-        <v>-10.1</v>
+        <v>0.2</v>
       </c>
       <c r="D46">
         <v>8.1</v>
@@ -5989,7 +5989,7 @@
         <v>397</v>
       </c>
       <c r="C47">
-        <v>-12.6</v>
+        <v>3.8</v>
       </c>
       <c r="D47">
         <v>6.9</v>
@@ -6009,7 +6009,7 @@
         <v>397</v>
       </c>
       <c r="C48">
-        <v>-7.5</v>
+        <v>1.3</v>
       </c>
       <c r="D48">
         <v>7.4</v>
@@ -6029,7 +6029,7 @@
         <v>397</v>
       </c>
       <c r="C49">
-        <v>-8.300000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="D49">
         <v>4.7</v>
@@ -6049,7 +6049,7 @@
         <v>397</v>
       </c>
       <c r="C50">
-        <v>-5.6</v>
+        <v>-8.1</v>
       </c>
       <c r="D50">
         <v>7.7</v>
@@ -6126,7 +6126,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>-9.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="D2">
         <v>6.4</v>
@@ -6146,7 +6146,7 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>-7.6</v>
+        <v>6.1</v>
       </c>
       <c r="D3">
         <v>6.9</v>
@@ -6166,7 +6166,7 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>-8.5</v>
+        <v>1.4</v>
       </c>
       <c r="D4">
         <v>7.3</v>
@@ -6186,7 +6186,7 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>-9.699999999999999</v>
+        <v>-2.3</v>
       </c>
       <c r="D5">
         <v>7.9</v>
@@ -6206,7 +6206,7 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>-2.6</v>
       </c>
       <c r="D6">
         <v>7.3</v>
@@ -6226,7 +6226,7 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>-8</v>
+        <v>4.8</v>
       </c>
       <c r="D7">
         <v>7.4</v>
@@ -6246,7 +6246,7 @@
         <v>31</v>
       </c>
       <c r="C8">
-        <v>-23.3</v>
+        <v>-0.3</v>
       </c>
       <c r="D8">
         <v>6.3</v>
@@ -6266,7 +6266,7 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>-6.4</v>
+        <v>1.8</v>
       </c>
       <c r="D9">
         <v>6.8</v>
@@ -6286,7 +6286,7 @@
         <v>31</v>
       </c>
       <c r="C10">
-        <v>-6.7</v>
+        <v>-2.1</v>
       </c>
       <c r="D10">
         <v>7.6</v>
@@ -6306,7 +6306,7 @@
         <v>31</v>
       </c>
       <c r="C11">
-        <v>-6.5</v>
+        <v>-0</v>
       </c>
       <c r="D11">
         <v>6.6</v>
@@ -6326,7 +6326,7 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>3.3</v>
+        <v>-0.4</v>
       </c>
       <c r="D12">
         <v>6.7</v>
@@ -6346,7 +6346,7 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>-15</v>
+        <v>23.5</v>
       </c>
       <c r="D13">
         <v>7.1</v>
@@ -6366,7 +6366,7 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>-8.4</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
         <v>8.6</v>
@@ -6386,7 +6386,7 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>-7.8</v>
+        <v>0.3</v>
       </c>
       <c r="D15">
         <v>6.9</v>
@@ -6406,7 +6406,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>-6.2</v>
+        <v>-1</v>
       </c>
       <c r="D16">
         <v>5.1</v>
@@ -6465,7 +6465,7 @@
         <v>432</v>
       </c>
       <c r="C2">
-        <v>-7</v>
+        <v>13.1</v>
       </c>
       <c r="D2">
         <v>8.199999999999999</v>
@@ -6485,7 +6485,7 @@
         <v>432</v>
       </c>
       <c r="C3">
-        <v>-13.1</v>
+        <v>2.9</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -6505,7 +6505,7 @@
         <v>432</v>
       </c>
       <c r="C4">
-        <v>-9.300000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -6525,7 +6525,7 @@
         <v>432</v>
       </c>
       <c r="C5">
-        <v>-12.4</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2.3</v>
@@ -6545,7 +6545,7 @@
         <v>432</v>
       </c>
       <c r="C6">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <v>6.7</v>
@@ -6565,7 +6565,7 @@
         <v>432</v>
       </c>
       <c r="C7">
-        <v>-5.5</v>
+        <v>8.4</v>
       </c>
       <c r="D7">
         <v>7.4</v>
@@ -6585,7 +6585,7 @@
         <v>432</v>
       </c>
       <c r="C8">
-        <v>-5.7</v>
+        <v>-3.1</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -6605,7 +6605,7 @@
         <v>432</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
         <v>8.800000000000001</v>
@@ -6625,7 +6625,7 @@
         <v>432</v>
       </c>
       <c r="C10">
-        <v>-12.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D10">
         <v>6.3</v>
@@ -6645,7 +6645,7 @@
         <v>432</v>
       </c>
       <c r="C11">
-        <v>-0.3</v>
+        <v>-1.4</v>
       </c>
       <c r="D11">
         <v>6.2</v>
@@ -6665,7 +6665,7 @@
         <v>432</v>
       </c>
       <c r="C12">
-        <v>-8.6</v>
+        <v>1.1</v>
       </c>
       <c r="D12">
         <v>7.8</v>
@@ -6685,7 +6685,7 @@
         <v>432</v>
       </c>
       <c r="C13">
-        <v>-18.1</v>
+        <v>19.1</v>
       </c>
       <c r="D13">
         <v>6.8</v>
@@ -6745,7 +6745,7 @@
         <v>451</v>
       </c>
       <c r="C2">
-        <v>-12.2</v>
+        <v>16.2</v>
       </c>
       <c r="D2">
         <v>6.8</v>
@@ -6765,7 +6765,7 @@
         <v>451</v>
       </c>
       <c r="C3">
-        <v>-8.300000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="D3">
         <v>6.6</v>
@@ -6785,7 +6785,7 @@
         <v>451</v>
       </c>
       <c r="C4">
-        <v>-9.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="D4">
         <v>7.7</v>
@@ -6805,7 +6805,7 @@
         <v>451</v>
       </c>
       <c r="C5">
-        <v>-5</v>
+        <v>4.5</v>
       </c>
       <c r="D5">
         <v>7.8</v>
@@ -6825,7 +6825,7 @@
         <v>451</v>
       </c>
       <c r="C6">
-        <v>-9.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>8.300000000000001</v>
@@ -6845,7 +6845,7 @@
         <v>451</v>
       </c>
       <c r="C7">
-        <v>-9.4</v>
+        <v>3.3</v>
       </c>
       <c r="D7">
         <v>6.1</v>
@@ -6865,7 +6865,7 @@
         <v>451</v>
       </c>
       <c r="C8">
-        <v>-8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="D8">
         <v>6.9</v>
@@ -6885,7 +6885,7 @@
         <v>451</v>
       </c>
       <c r="C9">
-        <v>-12.4</v>
+        <v>1.2</v>
       </c>
       <c r="D9">
         <v>7.9</v>
@@ -6905,7 +6905,7 @@
         <v>451</v>
       </c>
       <c r="C10">
-        <v>-8.4</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
         <v>8.300000000000001</v>
@@ -6925,7 +6925,7 @@
         <v>451</v>
       </c>
       <c r="C11">
-        <v>-12.3</v>
+        <v>4.5</v>
       </c>
       <c r="D11">
         <v>6.3</v>
@@ -6945,7 +6945,7 @@
         <v>451</v>
       </c>
       <c r="C12">
-        <v>-12.1</v>
+        <v>-1.1</v>
       </c>
       <c r="D12">
         <v>6.1</v>
@@ -6965,7 +6965,7 @@
         <v>451</v>
       </c>
       <c r="C13">
-        <v>-12.2</v>
+        <v>1.5</v>
       </c>
       <c r="D13">
         <v>7.8</v>
@@ -6985,7 +6985,7 @@
         <v>451</v>
       </c>
       <c r="C14">
-        <v>-10.9</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
         <v>7.1</v>
@@ -7043,7 +7043,7 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>-62.2</v>
+        <v>790.1</v>
       </c>
       <c r="D2">
         <v>6.6</v>
@@ -7099,7 +7099,7 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>-3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D2">
         <v>4.6</v>
@@ -7119,7 +7119,7 @@
         <v>50</v>
       </c>
       <c r="C3">
-        <v>-8.800000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="D3">
         <v>6.1</v>
@@ -7139,7 +7139,7 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>-19.8</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>5.6</v>
@@ -7159,7 +7159,7 @@
         <v>50</v>
       </c>
       <c r="C5">
-        <v>-7.3</v>
+        <v>1.3</v>
       </c>
       <c r="D5">
         <v>6.8</v>
@@ -7179,7 +7179,7 @@
         <v>50</v>
       </c>
       <c r="C6">
-        <v>-8.800000000000001</v>
+        <v>-4.7</v>
       </c>
       <c r="D6">
         <v>3.8</v>
@@ -7199,7 +7199,7 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>-9.1</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
         <v>7.4</v>
@@ -7219,7 +7219,7 @@
         <v>50</v>
       </c>
       <c r="C8">
-        <v>-9.9</v>
+        <v>-3</v>
       </c>
       <c r="D8">
         <v>6.5</v>
@@ -7239,7 +7239,7 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <v>-9.5</v>
+        <v>-4.6</v>
       </c>
       <c r="D9">
         <v>6.4</v>
@@ -7259,7 +7259,7 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>-11.2</v>
+        <v>-10.1</v>
       </c>
       <c r="D10">
         <v>4.7</v>
@@ -7279,7 +7279,7 @@
         <v>50</v>
       </c>
       <c r="C11">
-        <v>-11.5</v>
+        <v>-3.3</v>
       </c>
       <c r="D11">
         <v>6.1</v>
@@ -7338,7 +7338,7 @@
         <v>61</v>
       </c>
       <c r="C2">
-        <v>-12.2</v>
+        <v>4.3</v>
       </c>
       <c r="D2">
         <v>6.6</v>
@@ -7358,7 +7358,7 @@
         <v>61</v>
       </c>
       <c r="C3">
-        <v>-7.8</v>
+        <v>5.5</v>
       </c>
       <c r="D3">
         <v>6.7</v>
@@ -7378,7 +7378,7 @@
         <v>61</v>
       </c>
       <c r="C4">
-        <v>-4.5</v>
+        <v>12.1</v>
       </c>
       <c r="D4">
         <v>7.4</v>
@@ -7398,7 +7398,7 @@
         <v>61</v>
       </c>
       <c r="C5">
-        <v>-8.5</v>
+        <v>0.2</v>
       </c>
       <c r="D5">
         <v>8.1</v>
@@ -7418,7 +7418,7 @@
         <v>61</v>
       </c>
       <c r="C6">
-        <v>-10.9</v>
+        <v>-1.9</v>
       </c>
       <c r="D6">
         <v>6.1</v>
@@ -7438,7 +7438,7 @@
         <v>61</v>
       </c>
       <c r="C7">
-        <v>-9.6</v>
+        <v>-0.8</v>
       </c>
       <c r="D7">
         <v>7.1</v>
@@ -7495,7 +7495,7 @@
         <v>72</v>
       </c>
       <c r="C2">
-        <v>-8.300000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="D2">
         <v>8.1</v>
@@ -7515,7 +7515,7 @@
         <v>72</v>
       </c>
       <c r="C3">
-        <v>-7.4</v>
+        <v>-5.4</v>
       </c>
       <c r="D3">
         <v>7.1</v>
@@ -7535,7 +7535,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="D4">
         <v>4.7</v>
@@ -7555,7 +7555,7 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>-6.5</v>
+        <v>-0.6</v>
       </c>
       <c r="D5">
         <v>9.300000000000001</v>
@@ -7575,7 +7575,7 @@
         <v>72</v>
       </c>
       <c r="C6">
-        <v>-10.3</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <v>5.1</v>
@@ -7595,7 +7595,7 @@
         <v>72</v>
       </c>
       <c r="C7">
-        <v>-5.7</v>
+        <v>5.1</v>
       </c>
       <c r="D7">
         <v>2.4</v>
@@ -7615,7 +7615,7 @@
         <v>72</v>
       </c>
       <c r="C8">
-        <v>-7.6</v>
+        <v>-1.6</v>
       </c>
       <c r="D8">
         <v>7.5</v>
@@ -7635,7 +7635,7 @@
         <v>72</v>
       </c>
       <c r="C9">
-        <v>-15.3</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -7692,7 +7692,7 @@
         <v>88</v>
       </c>
       <c r="C2">
-        <v>-8.300000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
         <v>8.199999999999999</v>
@@ -7712,7 +7712,7 @@
         <v>88</v>
       </c>
       <c r="C3">
-        <v>-5.8</v>
+        <v>2.4</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -7732,7 +7732,7 @@
         <v>88</v>
       </c>
       <c r="C4">
-        <v>-11.7</v>
+        <v>1.4</v>
       </c>
       <c r="D4">
         <v>7.4</v>
@@ -7752,7 +7752,7 @@
         <v>88</v>
       </c>
       <c r="C5">
-        <v>-25.1</v>
+        <v>-5.9</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         <v>88</v>
       </c>
       <c r="C6">
-        <v>-13.9</v>
+        <v>3.6</v>
       </c>
       <c r="D6">
         <v>7.8</v>
@@ -7792,7 +7792,7 @@
         <v>88</v>
       </c>
       <c r="C7">
-        <v>-5</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
         <v>6.1</v>
@@ -7812,7 +7812,7 @@
         <v>88</v>
       </c>
       <c r="C8">
-        <v>-6.6</v>
+        <v>1.1</v>
       </c>
       <c r="D8">
         <v>7.8</v>
@@ -7832,7 +7832,7 @@
         <v>88</v>
       </c>
       <c r="C9">
-        <v>-8.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="D9">
         <v>6.3</v>
@@ -7852,7 +7852,7 @@
         <v>88</v>
       </c>
       <c r="C10">
-        <v>-10.3</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
         <v>6.4</v>
@@ -7872,7 +7872,7 @@
         <v>88</v>
       </c>
       <c r="C11">
-        <v>-6.7</v>
+        <v>-0.4</v>
       </c>
       <c r="D11">
         <v>7.1</v>
@@ -7892,7 +7892,7 @@
         <v>88</v>
       </c>
       <c r="C12">
-        <v>-7.9</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
         <v>7.4</v>
@@ -7912,7 +7912,7 @@
         <v>88</v>
       </c>
       <c r="C13">
-        <v>-8.9</v>
+        <v>4.3</v>
       </c>
       <c r="D13">
         <v>6.4</v>
@@ -7932,7 +7932,7 @@
         <v>88</v>
       </c>
       <c r="C14">
-        <v>-8.5</v>
+        <v>0.7</v>
       </c>
       <c r="D14">
         <v>5.9</v>
@@ -7996,7 +7996,7 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>-9.6</v>
+        <v>-3.7</v>
       </c>
       <c r="D2">
         <v>7.5</v>
@@ -8016,7 +8016,7 @@
         <v>110</v>
       </c>
       <c r="C3">
-        <v>-10.2</v>
+        <v>1.1</v>
       </c>
       <c r="D3">
         <v>5.3</v>
@@ -8036,7 +8036,7 @@
         <v>110</v>
       </c>
       <c r="C4">
-        <v>-9.9</v>
+        <v>4.1</v>
       </c>
       <c r="D4">
         <v>4.8</v>
@@ -8056,7 +8056,7 @@
         <v>110</v>
       </c>
       <c r="C5">
-        <v>-9.6</v>
+        <v>6.5</v>
       </c>
       <c r="D5">
         <v>4.8</v>
@@ -8076,7 +8076,7 @@
         <v>110</v>
       </c>
       <c r="C6">
-        <v>-9.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="D6">
         <v>5.7</v>
@@ -8096,7 +8096,7 @@
         <v>110</v>
       </c>
       <c r="C7">
-        <v>-12.9</v>
+        <v>2.6</v>
       </c>
       <c r="D7">
         <v>6.5</v>
@@ -8116,7 +8116,7 @@
         <v>110</v>
       </c>
       <c r="C8">
-        <v>-6.9</v>
+        <v>1.5</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -8136,7 +8136,7 @@
         <v>110</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>7.7</v>
       </c>
       <c r="D9">
         <v>6.3</v>
@@ -8156,7 +8156,7 @@
         <v>110</v>
       </c>
       <c r="C10">
-        <v>-8.199999999999999</v>
+        <v>-4.4</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -8176,7 +8176,7 @@
         <v>110</v>
       </c>
       <c r="C11">
-        <v>-7.9</v>
+        <v>5.5</v>
       </c>
       <c r="D11">
         <v>6.2</v>
@@ -8196,7 +8196,7 @@
         <v>110</v>
       </c>
       <c r="C12">
-        <v>-13.4</v>
+        <v>2.8</v>
       </c>
       <c r="D12">
         <v>5.5</v>
@@ -8216,7 +8216,7 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>-11.8</v>
+        <v>7.1</v>
       </c>
       <c r="D13">
         <v>5.8</v>
@@ -8274,7 +8274,7 @@
         <v>122</v>
       </c>
       <c r="C2">
-        <v>-10</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
         <v>8.5</v>
@@ -8294,7 +8294,7 @@
         <v>122</v>
       </c>
       <c r="C3">
-        <v>-8.1</v>
+        <v>5.9</v>
       </c>
       <c r="D3">
         <v>7.9</v>
@@ -8314,7 +8314,7 @@
         <v>122</v>
       </c>
       <c r="C4">
-        <v>-6.4</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
         <v>5.9</v>
@@ -8334,7 +8334,7 @@
         <v>122</v>
       </c>
       <c r="C5">
-        <v>-7.3</v>
+        <v>-0.5</v>
       </c>
       <c r="D5">
         <v>6.6</v>
@@ -8354,7 +8354,7 @@
         <v>122</v>
       </c>
       <c r="C6">
-        <v>-8.6</v>
+        <v>1.4</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -8374,7 +8374,7 @@
         <v>122</v>
       </c>
       <c r="C7">
-        <v>-10.4</v>
+        <v>2.1</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -8394,7 +8394,7 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>-19.8</v>
+        <v>-0.6</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -8414,7 +8414,7 @@
         <v>122</v>
       </c>
       <c r="C9">
-        <v>-9.800000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="D9">
         <v>7.1</v>

--- a/data/climate-data.xlsx
+++ b/data/climate-data.xlsx
@@ -5689,7 +5689,7 @@
         <v>397</v>
       </c>
       <c r="C32">
-        <v>427.3</v>
+        <v>21.8</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -7043,7 +7043,7 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>790.1</v>
+        <v>-38.7</v>
       </c>
       <c r="D2">
         <v>6.6</v>

--- a/data/climate-data.xlsx
+++ b/data/climate-data.xlsx
@@ -42,7 +42,7 @@
     <t>Län</t>
   </si>
   <si>
-    <t>Utsläppsförändring 2019-2020 (%)</t>
+    <t>Utsläppsförändring 2020-2021 (%)</t>
   </si>
   <si>
     <t>KPI1: Förändringstakt andel laddbara bilar (%)</t>
@@ -1806,7 +1806,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="D2">
         <v>5.2</v>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>-7.9</v>
+        <v>-1.4</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -1846,7 +1846,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>-14</v>
+        <v>4.8</v>
       </c>
       <c r="D4">
         <v>4.8</v>
@@ -1866,7 +1866,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>-9.6</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>6.1</v>
@@ -1886,7 +1886,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-19.6</v>
+        <v>5.4</v>
       </c>
       <c r="D6">
         <v>6.8</v>
@@ -1943,7 +1943,7 @@
         <v>143</v>
       </c>
       <c r="C2">
-        <v>-6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D2">
         <v>6.4</v>
@@ -1963,7 +1963,7 @@
         <v>143</v>
       </c>
       <c r="C3">
-        <v>-10.7</v>
+        <v>2.2</v>
       </c>
       <c r="D3">
         <v>3.1</v>
@@ -1983,7 +1983,7 @@
         <v>143</v>
       </c>
       <c r="C4">
-        <v>-5.8</v>
+        <v>5.3</v>
       </c>
       <c r="D4">
         <v>6.1</v>
@@ -2003,7 +2003,7 @@
         <v>143</v>
       </c>
       <c r="C5">
-        <v>-11.1</v>
+        <v>-4.5</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2023,7 +2023,7 @@
         <v>143</v>
       </c>
       <c r="C6">
-        <v>-4.6</v>
+        <v>-6.2</v>
       </c>
       <c r="D6">
         <v>3.9</v>
@@ -2043,7 +2043,7 @@
         <v>143</v>
       </c>
       <c r="C7">
-        <v>-6.8</v>
+        <v>5.6</v>
       </c>
       <c r="D7">
         <v>5.5</v>
@@ -2063,7 +2063,7 @@
         <v>143</v>
       </c>
       <c r="C8">
-        <v>-11.2</v>
+        <v>10.3</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2083,7 +2083,7 @@
         <v>143</v>
       </c>
       <c r="C9">
-        <v>-1.4</v>
+        <v>-2.4</v>
       </c>
       <c r="D9">
         <v>3.9</v>
@@ -2103,7 +2103,7 @@
         <v>143</v>
       </c>
       <c r="C10">
-        <v>-3.1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>7.6</v>
@@ -2123,7 +2123,7 @@
         <v>143</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>-1.3</v>
       </c>
       <c r="D11">
         <v>4.7</v>
@@ -2143,7 +2143,7 @@
         <v>143</v>
       </c>
       <c r="C12">
-        <v>-13.6</v>
+        <v>4.6</v>
       </c>
       <c r="D12">
         <v>8.4</v>
@@ -2163,7 +2163,7 @@
         <v>143</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>-8.1</v>
       </c>
       <c r="D13">
         <v>5.5</v>
@@ -2183,7 +2183,7 @@
         <v>143</v>
       </c>
       <c r="C14">
-        <v>-7.2</v>
+        <v>-0.7</v>
       </c>
       <c r="D14">
         <v>3.8</v>
@@ -2203,7 +2203,7 @@
         <v>143</v>
       </c>
       <c r="C15">
-        <v>-7.8</v>
+        <v>-3.2</v>
       </c>
       <c r="D15">
         <v>6.8</v>
@@ -2262,7 +2262,7 @@
         <v>182</v>
       </c>
       <c r="C2">
-        <v>-5.5</v>
+        <v>1.3</v>
       </c>
       <c r="D2">
         <v>4.6</v>
@@ -2282,7 +2282,7 @@
         <v>182</v>
       </c>
       <c r="C3">
-        <v>-23.8</v>
+        <v>6.7</v>
       </c>
       <c r="D3">
         <v>7.1</v>
@@ -2302,7 +2302,7 @@
         <v>182</v>
       </c>
       <c r="C4">
-        <v>-16.1</v>
+        <v>-11.6</v>
       </c>
       <c r="D4">
         <v>4.8</v>
@@ -2322,7 +2322,7 @@
         <v>182</v>
       </c>
       <c r="C5">
-        <v>-8.9</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -2342,7 +2342,7 @@
         <v>182</v>
       </c>
       <c r="C6">
-        <v>31.3</v>
+        <v>-2.4</v>
       </c>
       <c r="D6">
         <v>5.9</v>
@@ -2362,7 +2362,7 @@
         <v>182</v>
       </c>
       <c r="C7">
-        <v>-6.2</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
         <v>6.3</v>
@@ -2382,7 +2382,7 @@
         <v>182</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>-11.6</v>
       </c>
       <c r="D8">
         <v>5.6</v>
@@ -2402,7 +2402,7 @@
         <v>182</v>
       </c>
       <c r="C9">
-        <v>-5.4</v>
+        <v>19.2</v>
       </c>
       <c r="D9">
         <v>7.3</v>
@@ -2422,7 +2422,7 @@
         <v>182</v>
       </c>
       <c r="C10">
-        <v>-8.800000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         <v>182</v>
       </c>
       <c r="C11">
-        <v>-8.800000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <v>6.3</v>
@@ -2462,7 +2462,7 @@
         <v>182</v>
       </c>
       <c r="C12">
-        <v>-2.9</v>
+        <v>1.1</v>
       </c>
       <c r="D12">
         <v>6.4</v>
@@ -2482,7 +2482,7 @@
         <v>182</v>
       </c>
       <c r="C13">
-        <v>-8.800000000000001</v>
+        <v>-1.7</v>
       </c>
       <c r="D13">
         <v>7.5</v>
@@ -2502,7 +2502,7 @@
         <v>182</v>
       </c>
       <c r="C14">
-        <v>-7.9</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
         <v>9.300000000000001</v>
@@ -2522,7 +2522,7 @@
         <v>182</v>
       </c>
       <c r="C15">
-        <v>-7.5</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>7.4</v>
@@ -2542,7 +2542,7 @@
         <v>182</v>
       </c>
       <c r="C16">
-        <v>-7.5</v>
+        <v>0.3</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -2562,7 +2562,7 @@
         <v>182</v>
       </c>
       <c r="C17">
-        <v>-9.300000000000001</v>
+        <v>-3.3</v>
       </c>
       <c r="D17">
         <v>10.4</v>
@@ -2582,7 +2582,7 @@
         <v>182</v>
       </c>
       <c r="C18">
-        <v>-16.6</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>6.4</v>
@@ -2602,7 +2602,7 @@
         <v>182</v>
       </c>
       <c r="C19">
-        <v>-11.5</v>
+        <v>-0.9</v>
       </c>
       <c r="D19">
         <v>5.4</v>
@@ -2622,7 +2622,7 @@
         <v>182</v>
       </c>
       <c r="C20">
-        <v>-0.8</v>
+        <v>1.1</v>
       </c>
       <c r="D20">
         <v>6.4</v>
@@ -2642,7 +2642,7 @@
         <v>182</v>
       </c>
       <c r="C21">
-        <v>-10.5</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -2662,7 +2662,7 @@
         <v>182</v>
       </c>
       <c r="C22">
-        <v>-7.8</v>
+        <v>0.4</v>
       </c>
       <c r="D22">
         <v>6.6</v>
@@ -2682,7 +2682,7 @@
         <v>182</v>
       </c>
       <c r="C23">
-        <v>-7.1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>6.6</v>
@@ -2702,7 +2702,7 @@
         <v>182</v>
       </c>
       <c r="C24">
-        <v>-7.6</v>
+        <v>0.1</v>
       </c>
       <c r="D24">
         <v>8.199999999999999</v>
@@ -2722,7 +2722,7 @@
         <v>182</v>
       </c>
       <c r="C25">
-        <v>-10</v>
+        <v>2.6</v>
       </c>
       <c r="D25">
         <v>6.7</v>
@@ -2742,7 +2742,7 @@
         <v>182</v>
       </c>
       <c r="C26">
-        <v>-9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="D26">
         <v>7.5</v>
@@ -2762,7 +2762,7 @@
         <v>182</v>
       </c>
       <c r="C27">
-        <v>-7.2</v>
+        <v>-5.7</v>
       </c>
       <c r="D27">
         <v>2.9</v>
@@ -2782,7 +2782,7 @@
         <v>182</v>
       </c>
       <c r="C28">
-        <v>-9.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="D28">
         <v>7.3</v>
@@ -2802,7 +2802,7 @@
         <v>182</v>
       </c>
       <c r="C29">
-        <v>-6.5</v>
+        <v>-0.5</v>
       </c>
       <c r="D29">
         <v>8.4</v>
@@ -2822,7 +2822,7 @@
         <v>182</v>
       </c>
       <c r="C30">
-        <v>-7.3</v>
+        <v>0.3</v>
       </c>
       <c r="D30">
         <v>5.7</v>
@@ -2842,7 +2842,7 @@
         <v>182</v>
       </c>
       <c r="C31">
-        <v>-7.7</v>
+        <v>-2.3</v>
       </c>
       <c r="D31">
         <v>6.3</v>
@@ -2862,7 +2862,7 @@
         <v>182</v>
       </c>
       <c r="C32">
-        <v>-11</v>
+        <v>1.9</v>
       </c>
       <c r="D32">
         <v>7.2</v>
@@ -2882,7 +2882,7 @@
         <v>182</v>
       </c>
       <c r="C33">
-        <v>-7.8</v>
+        <v>1.1</v>
       </c>
       <c r="D33">
         <v>3.3</v>
@@ -2902,7 +2902,7 @@
         <v>182</v>
       </c>
       <c r="C34">
-        <v>-10</v>
+        <v>-0.8</v>
       </c>
       <c r="D34">
         <v>7.5</v>
@@ -2976,7 +2976,7 @@
         <v>228</v>
       </c>
       <c r="C2">
-        <v>-9.1</v>
+        <v>-0.3</v>
       </c>
       <c r="D2">
         <v>6.4</v>
@@ -2996,7 +2996,7 @@
         <v>228</v>
       </c>
       <c r="C3">
-        <v>-8.5</v>
+        <v>1.3</v>
       </c>
       <c r="D3">
         <v>10.5</v>
@@ -3016,7 +3016,7 @@
         <v>228</v>
       </c>
       <c r="C4">
-        <v>-11.1</v>
+        <v>7.4</v>
       </c>
       <c r="D4">
         <v>9.1</v>
@@ -3036,7 +3036,7 @@
         <v>228</v>
       </c>
       <c r="C5">
-        <v>-7</v>
+        <v>-3.1</v>
       </c>
       <c r="D5">
         <v>6.7</v>
@@ -3056,7 +3056,7 @@
         <v>228</v>
       </c>
       <c r="C6">
-        <v>-8.9</v>
+        <v>0.3</v>
       </c>
       <c r="D6">
         <v>6.9</v>
@@ -3076,7 +3076,7 @@
         <v>228</v>
       </c>
       <c r="C7">
-        <v>-9.4</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
         <v>8.199999999999999</v>
@@ -3096,7 +3096,7 @@
         <v>228</v>
       </c>
       <c r="C8">
-        <v>7.3</v>
+        <v>9.6</v>
       </c>
       <c r="D8">
         <v>8.6</v>
@@ -3116,7 +3116,7 @@
         <v>228</v>
       </c>
       <c r="C9">
-        <v>-8.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="D9">
         <v>9.4</v>
@@ -3136,7 +3136,7 @@
         <v>228</v>
       </c>
       <c r="C10">
-        <v>-8.9</v>
+        <v>2.7</v>
       </c>
       <c r="D10">
         <v>6.3</v>
@@ -3156,7 +3156,7 @@
         <v>228</v>
       </c>
       <c r="C11">
-        <v>-9.5</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
         <v>6.5</v>
@@ -3176,7 +3176,7 @@
         <v>228</v>
       </c>
       <c r="C12">
-        <v>-8.4</v>
+        <v>-1.6</v>
       </c>
       <c r="D12">
         <v>7.3</v>
@@ -3196,7 +3196,7 @@
         <v>228</v>
       </c>
       <c r="C13">
-        <v>-8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D13">
         <v>7.1</v>
@@ -3216,7 +3216,7 @@
         <v>228</v>
       </c>
       <c r="C14">
-        <v>-8.800000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="D14">
         <v>8.199999999999999</v>
@@ -3236,7 +3236,7 @@
         <v>228</v>
       </c>
       <c r="C15">
-        <v>-8.6</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
         <v>9.4</v>
@@ -3256,7 +3256,7 @@
         <v>228</v>
       </c>
       <c r="C16">
-        <v>-8.5</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>9.1</v>
@@ -3276,7 +3276,7 @@
         <v>228</v>
       </c>
       <c r="C17">
-        <v>-27.4</v>
+        <v>5.6</v>
       </c>
       <c r="D17">
         <v>9.1</v>
@@ -3296,7 +3296,7 @@
         <v>228</v>
       </c>
       <c r="C18">
-        <v>-8.9</v>
+        <v>-0</v>
       </c>
       <c r="D18">
         <v>11.3</v>
@@ -3316,7 +3316,7 @@
         <v>228</v>
       </c>
       <c r="C19">
-        <v>-41.6</v>
+        <v>-1.7</v>
       </c>
       <c r="D19">
         <v>7.7</v>
@@ -3336,7 +3336,7 @@
         <v>228</v>
       </c>
       <c r="C20">
-        <v>-8.6</v>
+        <v>0.7</v>
       </c>
       <c r="D20">
         <v>8.300000000000001</v>
@@ -3356,7 +3356,7 @@
         <v>228</v>
       </c>
       <c r="C21">
-        <v>-9.199999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D21">
         <v>8.699999999999999</v>
@@ -3376,7 +3376,7 @@
         <v>228</v>
       </c>
       <c r="C22">
-        <v>-13.4</v>
+        <v>0.6</v>
       </c>
       <c r="D22">
         <v>7.7</v>
@@ -3396,7 +3396,7 @@
         <v>228</v>
       </c>
       <c r="C23">
-        <v>109</v>
+        <v>2.6</v>
       </c>
       <c r="D23">
         <v>8.199999999999999</v>
@@ -3416,7 +3416,7 @@
         <v>228</v>
       </c>
       <c r="C24">
-        <v>-10</v>
+        <v>0.7</v>
       </c>
       <c r="D24">
         <v>8.9</v>
@@ -3436,7 +3436,7 @@
         <v>228</v>
       </c>
       <c r="C25">
-        <v>-4.9</v>
+        <v>12.3</v>
       </c>
       <c r="D25">
         <v>8.5</v>
@@ -3456,7 +3456,7 @@
         <v>228</v>
       </c>
       <c r="C26">
-        <v>-7.8</v>
+        <v>6.8</v>
       </c>
       <c r="D26">
         <v>9.699999999999999</v>
@@ -3476,7 +3476,7 @@
         <v>228</v>
       </c>
       <c r="C27">
-        <v>-9.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="D27">
         <v>7.9</v>
@@ -3553,7 +3553,7 @@
         <v>260</v>
       </c>
       <c r="C2">
-        <v>-9.300000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="D2">
         <v>7.4</v>
@@ -3573,7 +3573,7 @@
         <v>260</v>
       </c>
       <c r="C3">
-        <v>-9.300000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D3">
         <v>6.6</v>
@@ -3593,7 +3593,7 @@
         <v>260</v>
       </c>
       <c r="C4">
-        <v>-12.6</v>
+        <v>3.3</v>
       </c>
       <c r="D4">
         <v>7.9</v>
@@ -3613,7 +3613,7 @@
         <v>260</v>
       </c>
       <c r="C5">
-        <v>-8.1</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
         <v>6.8</v>
@@ -3633,7 +3633,7 @@
         <v>260</v>
       </c>
       <c r="C6">
-        <v>-7.9</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>6.7</v>
@@ -3653,7 +3653,7 @@
         <v>260</v>
       </c>
       <c r="C7">
-        <v>-27.4</v>
+        <v>8.9</v>
       </c>
       <c r="D7">
         <v>6.9</v>
@@ -3673,7 +3673,7 @@
         <v>260</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>2.4</v>
       </c>
       <c r="D8">
         <v>6.1</v>
@@ -3693,7 +3693,7 @@
         <v>260</v>
       </c>
       <c r="C9">
-        <v>-10.3</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -3713,7 +3713,7 @@
         <v>260</v>
       </c>
       <c r="C10">
-        <v>-12.7</v>
+        <v>1.4</v>
       </c>
       <c r="D10">
         <v>6.4</v>
@@ -3773,7 +3773,7 @@
         <v>274</v>
       </c>
       <c r="C2">
-        <v>-9.1</v>
+        <v>-2.1</v>
       </c>
       <c r="D2">
         <v>7.3</v>
@@ -3793,7 +3793,7 @@
         <v>274</v>
       </c>
       <c r="C3">
-        <v>-6.9</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>7.3</v>
@@ -3813,7 +3813,7 @@
         <v>274</v>
       </c>
       <c r="C4">
-        <v>-8.5</v>
+        <v>5.6</v>
       </c>
       <c r="D4">
         <v>6.3</v>
@@ -3833,7 +3833,7 @@
         <v>274</v>
       </c>
       <c r="C5">
-        <v>-12.5</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>9.6</v>
@@ -3853,7 +3853,7 @@
         <v>274</v>
       </c>
       <c r="C6">
-        <v>-10.9</v>
+        <v>-1.3</v>
       </c>
       <c r="D6">
         <v>8.1</v>
@@ -3873,7 +3873,7 @@
         <v>274</v>
       </c>
       <c r="C7">
-        <v>-24.2</v>
+        <v>2.9</v>
       </c>
       <c r="D7">
         <v>7.6</v>
@@ -3893,7 +3893,7 @@
         <v>274</v>
       </c>
       <c r="C8">
-        <v>-8.6</v>
+        <v>1.8</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -3913,7 +3913,7 @@
         <v>274</v>
       </c>
       <c r="C9">
-        <v>-17.8</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>5.8</v>
@@ -3972,7 +3972,7 @@
         <v>295</v>
       </c>
       <c r="C2">
-        <v>-10.2</v>
+        <v>4.6</v>
       </c>
       <c r="D2">
         <v>6.3</v>
@@ -3992,7 +3992,7 @@
         <v>295</v>
       </c>
       <c r="C3">
-        <v>-5</v>
+        <v>7.9</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -4012,7 +4012,7 @@
         <v>295</v>
       </c>
       <c r="C4">
-        <v>-8.6</v>
+        <v>-1.3</v>
       </c>
       <c r="D4">
         <v>4.8</v>
@@ -4032,7 +4032,7 @@
         <v>295</v>
       </c>
       <c r="C5">
-        <v>-7.6</v>
+        <v>4.2</v>
       </c>
       <c r="D5">
         <v>7.1</v>
@@ -4052,7 +4052,7 @@
         <v>295</v>
       </c>
       <c r="C6">
-        <v>-13.7</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D6">
         <v>7.6</v>
@@ -4072,7 +4072,7 @@
         <v>295</v>
       </c>
       <c r="C7">
-        <v>-7.7</v>
+        <v>16.7</v>
       </c>
       <c r="D7">
         <v>2.4</v>
@@ -4092,7 +4092,7 @@
         <v>295</v>
       </c>
       <c r="C8">
-        <v>-17.1</v>
+        <v>3.8</v>
       </c>
       <c r="D8">
         <v>7.1</v>
@@ -4112,7 +4112,7 @@
         <v>295</v>
       </c>
       <c r="C9">
-        <v>-6.6</v>
+        <v>1.5</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -4132,7 +4132,7 @@
         <v>295</v>
       </c>
       <c r="C10">
-        <v>-6.7</v>
+        <v>5.8</v>
       </c>
       <c r="D10">
         <v>6.4</v>
@@ -4152,7 +4152,7 @@
         <v>295</v>
       </c>
       <c r="C11">
-        <v>-4.1</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
         <v>5.6</v>
@@ -4172,7 +4172,7 @@
         <v>295</v>
       </c>
       <c r="C12">
-        <v>-6.8</v>
+        <v>-2.6</v>
       </c>
       <c r="D12">
         <v>5.8</v>
@@ -4192,7 +4192,7 @@
         <v>295</v>
       </c>
       <c r="C13">
-        <v>-7.4</v>
+        <v>3.6</v>
       </c>
       <c r="D13">
         <v>6.2</v>
@@ -4212,7 +4212,7 @@
         <v>295</v>
       </c>
       <c r="C14">
-        <v>-11.2</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>5.3</v>
@@ -4232,7 +4232,7 @@
         <v>295</v>
       </c>
       <c r="C15">
-        <v>-6.5</v>
+        <v>10.7</v>
       </c>
       <c r="D15">
         <v>6.7</v>
@@ -4252,7 +4252,7 @@
         <v>295</v>
       </c>
       <c r="C16">
-        <v>-7.6</v>
+        <v>3.6</v>
       </c>
       <c r="D16">
         <v>4.9</v>
@@ -4272,7 +4272,7 @@
         <v>295</v>
       </c>
       <c r="C17">
-        <v>-8</v>
+        <v>1.8</v>
       </c>
       <c r="D17">
         <v>4.7</v>
@@ -4333,7 +4333,7 @@
         <v>317</v>
       </c>
       <c r="C2">
-        <v>-12.4</v>
+        <v>-5.4</v>
       </c>
       <c r="D2">
         <v>6.2</v>
@@ -4353,7 +4353,7 @@
         <v>317</v>
       </c>
       <c r="C3">
-        <v>-6.5</v>
+        <v>-4.8</v>
       </c>
       <c r="D3">
         <v>3.7</v>
@@ -4373,7 +4373,7 @@
         <v>317</v>
       </c>
       <c r="C4">
-        <v>-25</v>
+        <v>7.4</v>
       </c>
       <c r="D4">
         <v>6.3</v>
@@ -4393,7 +4393,7 @@
         <v>317</v>
       </c>
       <c r="C5">
-        <v>-8.800000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D5">
         <v>3.9</v>
@@ -4413,7 +4413,7 @@
         <v>317</v>
       </c>
       <c r="C6">
-        <v>-11.6</v>
+        <v>1.1</v>
       </c>
       <c r="D6">
         <v>8.5</v>
@@ -4433,7 +4433,7 @@
         <v>317</v>
       </c>
       <c r="C7">
-        <v>-11.4</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
         <v>10.2</v>
@@ -4453,7 +4453,7 @@
         <v>317</v>
       </c>
       <c r="C8">
-        <v>-14.3</v>
+        <v>-0.6</v>
       </c>
       <c r="D8">
         <v>10.1</v>
@@ -4473,7 +4473,7 @@
         <v>317</v>
       </c>
       <c r="C9">
-        <v>-4.7</v>
+        <v>3.3</v>
       </c>
       <c r="D9">
         <v>8.199999999999999</v>
@@ -4493,7 +4493,7 @@
         <v>317</v>
       </c>
       <c r="C10">
-        <v>-6.7</v>
+        <v>3.4</v>
       </c>
       <c r="D10">
         <v>1.8</v>
@@ -4513,7 +4513,7 @@
         <v>317</v>
       </c>
       <c r="C11">
-        <v>-8.1</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
         <v>5.9</v>
@@ -4533,7 +4533,7 @@
         <v>317</v>
       </c>
       <c r="C12">
-        <v>-7.4</v>
+        <v>3.9</v>
       </c>
       <c r="D12">
         <v>7.3</v>
@@ -4553,7 +4553,7 @@
         <v>317</v>
       </c>
       <c r="C13">
-        <v>-7</v>
+        <v>-1.5</v>
       </c>
       <c r="D13">
         <v>5.7</v>
@@ -4573,7 +4573,7 @@
         <v>317</v>
       </c>
       <c r="C14">
-        <v>-9.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D14">
         <v>8.199999999999999</v>
@@ -4593,7 +4593,7 @@
         <v>317</v>
       </c>
       <c r="C15">
-        <v>-11.2</v>
+        <v>2.1</v>
       </c>
       <c r="D15">
         <v>8.300000000000001</v>
@@ -4613,7 +4613,7 @@
         <v>317</v>
       </c>
       <c r="C16">
-        <v>-6.7</v>
+        <v>4.2</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -4672,7 +4672,7 @@
         <v>329</v>
       </c>
       <c r="C2">
-        <v>-11.9</v>
+        <v>0.9</v>
       </c>
       <c r="D2">
         <v>7.2</v>
@@ -4692,7 +4692,7 @@
         <v>329</v>
       </c>
       <c r="C3">
-        <v>-5.3</v>
+        <v>2.2</v>
       </c>
       <c r="D3">
         <v>8.1</v>
@@ -4712,7 +4712,7 @@
         <v>329</v>
       </c>
       <c r="C4">
-        <v>-6.7</v>
+        <v>-3.8</v>
       </c>
       <c r="D4">
         <v>6.2</v>
@@ -4732,7 +4732,7 @@
         <v>329</v>
       </c>
       <c r="C5">
-        <v>-7</v>
+        <v>-1.4</v>
       </c>
       <c r="D5">
         <v>6.6</v>
@@ -4752,7 +4752,7 @@
         <v>329</v>
       </c>
       <c r="C6">
-        <v>-9.699999999999999</v>
+        <v>-16.8</v>
       </c>
       <c r="D6">
         <v>7.5</v>
@@ -4772,7 +4772,7 @@
         <v>329</v>
       </c>
       <c r="C7">
-        <v>-9</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
         <v>5.9</v>
@@ -4792,7 +4792,7 @@
         <v>329</v>
       </c>
       <c r="C8">
-        <v>-12.1</v>
+        <v>29.1</v>
       </c>
       <c r="D8">
         <v>6.1</v>
@@ -4850,7 +4850,7 @@
         <v>343</v>
       </c>
       <c r="C2">
-        <v>-8.6</v>
+        <v>-0.9</v>
       </c>
       <c r="D2">
         <v>7.7</v>
@@ -4870,7 +4870,7 @@
         <v>343</v>
       </c>
       <c r="C3">
-        <v>-10</v>
+        <v>2.6</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -4890,7 +4890,7 @@
         <v>343</v>
       </c>
       <c r="C4">
-        <v>-7.9</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
         <v>8.1</v>
@@ -4910,7 +4910,7 @@
         <v>343</v>
       </c>
       <c r="C5">
-        <v>-9.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="D5">
         <v>7.7</v>
@@ -4930,7 +4930,7 @@
         <v>343</v>
       </c>
       <c r="C6">
-        <v>-4.5</v>
+        <v>5.7</v>
       </c>
       <c r="D6">
         <v>6.7</v>
@@ -4950,7 +4950,7 @@
         <v>343</v>
       </c>
       <c r="C7">
-        <v>-8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D7">
         <v>8.199999999999999</v>
@@ -4970,7 +4970,7 @@
         <v>343</v>
       </c>
       <c r="C8">
-        <v>-9.300000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="D8">
         <v>6.9</v>
@@ -4990,7 +4990,7 @@
         <v>343</v>
       </c>
       <c r="C9">
-        <v>-7.3</v>
+        <v>-2.1</v>
       </c>
       <c r="D9">
         <v>8.5</v>
@@ -5010,7 +5010,7 @@
         <v>343</v>
       </c>
       <c r="C10">
-        <v>-10.2</v>
+        <v>2.1</v>
       </c>
       <c r="D10">
         <v>8.300000000000001</v>
@@ -5030,7 +5030,7 @@
         <v>343</v>
       </c>
       <c r="C11">
-        <v>-19.6</v>
+        <v>14.6</v>
       </c>
       <c r="D11">
         <v>7.6</v>
@@ -5089,7 +5089,7 @@
         <v>397</v>
       </c>
       <c r="C2">
-        <v>-16.8</v>
+        <v>5.5</v>
       </c>
       <c r="D2">
         <v>7.8</v>
@@ -5109,7 +5109,7 @@
         <v>397</v>
       </c>
       <c r="C3">
-        <v>-11.6</v>
+        <v>-4.9</v>
       </c>
       <c r="D3">
         <v>5.7</v>
@@ -5129,7 +5129,7 @@
         <v>397</v>
       </c>
       <c r="C4">
-        <v>-14</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
         <v>5.5</v>
@@ -5149,7 +5149,7 @@
         <v>397</v>
       </c>
       <c r="C5">
-        <v>-9.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
         <v>7.5</v>
@@ -5169,7 +5169,7 @@
         <v>397</v>
       </c>
       <c r="C6">
-        <v>-7.6</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
         <v>6.9</v>
@@ -5189,7 +5189,7 @@
         <v>397</v>
       </c>
       <c r="C7">
-        <v>-8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -5209,7 +5209,7 @@
         <v>397</v>
       </c>
       <c r="C8">
-        <v>-11.8</v>
+        <v>-2.7</v>
       </c>
       <c r="D8">
         <v>5.5</v>
@@ -5229,7 +5229,7 @@
         <v>397</v>
       </c>
       <c r="C9">
-        <v>-11.6</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -5249,7 +5249,7 @@
         <v>397</v>
       </c>
       <c r="C10">
-        <v>-7.5</v>
+        <v>-2</v>
       </c>
       <c r="D10">
         <v>5.5</v>
@@ -5269,7 +5269,7 @@
         <v>397</v>
       </c>
       <c r="C11">
-        <v>-7.4</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
         <v>6.3</v>
@@ -5289,7 +5289,7 @@
         <v>397</v>
       </c>
       <c r="C12">
-        <v>-8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D12">
         <v>4.7</v>
@@ -5309,7 +5309,7 @@
         <v>397</v>
       </c>
       <c r="C13">
-        <v>-10.6</v>
+        <v>1.7</v>
       </c>
       <c r="D13">
         <v>8.1</v>
@@ -5329,7 +5329,7 @@
         <v>397</v>
       </c>
       <c r="C14">
-        <v>-5.1</v>
+        <v>-1.3</v>
       </c>
       <c r="D14">
         <v>5.8</v>
@@ -5349,7 +5349,7 @@
         <v>397</v>
       </c>
       <c r="C15">
-        <v>-11.7</v>
+        <v>1.7</v>
       </c>
       <c r="D15">
         <v>7.4</v>
@@ -5369,7 +5369,7 @@
         <v>397</v>
       </c>
       <c r="C16">
-        <v>-9.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>7.4</v>
@@ -5389,7 +5389,7 @@
         <v>397</v>
       </c>
       <c r="C17">
-        <v>-8.5</v>
+        <v>0.6</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -5409,7 +5409,7 @@
         <v>397</v>
       </c>
       <c r="C18">
-        <v>-13.3</v>
+        <v>0.9</v>
       </c>
       <c r="D18">
         <v>6.6</v>
@@ -5429,7 +5429,7 @@
         <v>397</v>
       </c>
       <c r="C19">
-        <v>-7.5</v>
+        <v>-0.1</v>
       </c>
       <c r="D19">
         <v>6.5</v>
@@ -5449,7 +5449,7 @@
         <v>397</v>
       </c>
       <c r="C20">
-        <v>-10.1</v>
+        <v>3.1</v>
       </c>
       <c r="D20">
         <v>8.9</v>
@@ -5469,7 +5469,7 @@
         <v>397</v>
       </c>
       <c r="C21">
-        <v>-4.1</v>
+        <v>-5.9</v>
       </c>
       <c r="D21">
         <v>6.3</v>
@@ -5489,7 +5489,7 @@
         <v>397</v>
       </c>
       <c r="C22">
-        <v>-6.5</v>
+        <v>-0.7</v>
       </c>
       <c r="D22">
         <v>7.1</v>
@@ -5509,7 +5509,7 @@
         <v>397</v>
       </c>
       <c r="C23">
-        <v>-7.8</v>
+        <v>41.6</v>
       </c>
       <c r="D23">
         <v>6.8</v>
@@ -5529,7 +5529,7 @@
         <v>397</v>
       </c>
       <c r="C24">
-        <v>2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="D24">
         <v>5.8</v>
@@ -5549,7 +5549,7 @@
         <v>397</v>
       </c>
       <c r="C25">
-        <v>-9.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="D25">
         <v>5.9</v>
@@ -5569,7 +5569,7 @@
         <v>397</v>
       </c>
       <c r="C26">
-        <v>-7</v>
+        <v>0.6</v>
       </c>
       <c r="D26">
         <v>5.5</v>
@@ -5589,7 +5589,7 @@
         <v>397</v>
       </c>
       <c r="C27">
-        <v>-26.8</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>7.6</v>
@@ -5609,7 +5609,7 @@
         <v>397</v>
       </c>
       <c r="C28">
-        <v>-9.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="D28">
         <v>8.300000000000001</v>
@@ -5629,7 +5629,7 @@
         <v>397</v>
       </c>
       <c r="C29">
-        <v>-7.6</v>
+        <v>5.1</v>
       </c>
       <c r="D29">
         <v>7.6</v>
@@ -5649,7 +5649,7 @@
         <v>397</v>
       </c>
       <c r="C30">
-        <v>-9.1</v>
+        <v>-0.2</v>
       </c>
       <c r="D30">
         <v>7.8</v>
@@ -5669,7 +5669,7 @@
         <v>397</v>
       </c>
       <c r="C31">
-        <v>-8.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D31">
         <v>6.3</v>
@@ -5689,7 +5689,7 @@
         <v>397</v>
       </c>
       <c r="C32">
-        <v>-20</v>
+        <v>21.8</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -5709,7 +5709,7 @@
         <v>397</v>
       </c>
       <c r="C33">
-        <v>-11.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D33">
         <v>8.300000000000001</v>
@@ -5729,7 +5729,7 @@
         <v>397</v>
       </c>
       <c r="C34">
-        <v>-32.1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D34">
         <v>8.199999999999999</v>
@@ -5749,7 +5749,7 @@
         <v>397</v>
       </c>
       <c r="C35">
-        <v>-11.8</v>
+        <v>7.4</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -5769,7 +5769,7 @@
         <v>397</v>
       </c>
       <c r="C36">
-        <v>-8.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="D36">
         <v>7.1</v>
@@ -5789,7 +5789,7 @@
         <v>397</v>
       </c>
       <c r="C37">
-        <v>-7.9</v>
+        <v>3.3</v>
       </c>
       <c r="D37">
         <v>7.7</v>
@@ -5809,7 +5809,7 @@
         <v>397</v>
       </c>
       <c r="C38">
-        <v>-11.2</v>
+        <v>-0.9</v>
       </c>
       <c r="D38">
         <v>7.9</v>
@@ -5829,7 +5829,7 @@
         <v>397</v>
       </c>
       <c r="C39">
-        <v>10.5</v>
+        <v>13.2</v>
       </c>
       <c r="D39">
         <v>6.3</v>
@@ -5849,7 +5849,7 @@
         <v>397</v>
       </c>
       <c r="C40">
-        <v>-11.6</v>
+        <v>2.1</v>
       </c>
       <c r="D40">
         <v>8.199999999999999</v>
@@ -5869,7 +5869,7 @@
         <v>397</v>
       </c>
       <c r="C41">
-        <v>-4</v>
+        <v>0.7</v>
       </c>
       <c r="D41">
         <v>7</v>
@@ -5889,7 +5889,7 @@
         <v>397</v>
       </c>
       <c r="C42">
-        <v>-8.5</v>
+        <v>0.1</v>
       </c>
       <c r="D42">
         <v>7.7</v>
@@ -5909,7 +5909,7 @@
         <v>397</v>
       </c>
       <c r="C43">
-        <v>-11</v>
+        <v>1.4</v>
       </c>
       <c r="D43">
         <v>5.8</v>
@@ -5929,7 +5929,7 @@
         <v>397</v>
       </c>
       <c r="C44">
-        <v>-9.4</v>
+        <v>11.9</v>
       </c>
       <c r="D44">
         <v>8.4</v>
@@ -5949,7 +5949,7 @@
         <v>397</v>
       </c>
       <c r="C45">
-        <v>-8.5</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>5.4</v>
@@ -5969,7 +5969,7 @@
         <v>397</v>
       </c>
       <c r="C46">
-        <v>-10.1</v>
+        <v>0.2</v>
       </c>
       <c r="D46">
         <v>8.1</v>
@@ -5989,7 +5989,7 @@
         <v>397</v>
       </c>
       <c r="C47">
-        <v>-12.6</v>
+        <v>3.8</v>
       </c>
       <c r="D47">
         <v>6.9</v>
@@ -6009,7 +6009,7 @@
         <v>397</v>
       </c>
       <c r="C48">
-        <v>-7.5</v>
+        <v>1.3</v>
       </c>
       <c r="D48">
         <v>7.4</v>
@@ -6029,7 +6029,7 @@
         <v>397</v>
       </c>
       <c r="C49">
-        <v>-8.300000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="D49">
         <v>4.7</v>
@@ -6049,7 +6049,7 @@
         <v>397</v>
       </c>
       <c r="C50">
-        <v>-5.6</v>
+        <v>-8.1</v>
       </c>
       <c r="D50">
         <v>7.7</v>
@@ -6126,7 +6126,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>-9.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="D2">
         <v>6.4</v>
@@ -6146,7 +6146,7 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>-7.6</v>
+        <v>6.1</v>
       </c>
       <c r="D3">
         <v>6.9</v>
@@ -6166,7 +6166,7 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>-8.5</v>
+        <v>1.4</v>
       </c>
       <c r="D4">
         <v>7.3</v>
@@ -6186,7 +6186,7 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>-9.699999999999999</v>
+        <v>-2.3</v>
       </c>
       <c r="D5">
         <v>7.9</v>
@@ -6206,7 +6206,7 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>-2.6</v>
       </c>
       <c r="D6">
         <v>7.3</v>
@@ -6226,7 +6226,7 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>-8</v>
+        <v>4.8</v>
       </c>
       <c r="D7">
         <v>7.4</v>
@@ -6246,7 +6246,7 @@
         <v>31</v>
       </c>
       <c r="C8">
-        <v>-23.3</v>
+        <v>-0.3</v>
       </c>
       <c r="D8">
         <v>6.3</v>
@@ -6266,7 +6266,7 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>-6.4</v>
+        <v>1.8</v>
       </c>
       <c r="D9">
         <v>6.8</v>
@@ -6286,7 +6286,7 @@
         <v>31</v>
       </c>
       <c r="C10">
-        <v>-6.7</v>
+        <v>-2.1</v>
       </c>
       <c r="D10">
         <v>7.6</v>
@@ -6306,7 +6306,7 @@
         <v>31</v>
       </c>
       <c r="C11">
-        <v>-6.5</v>
+        <v>-0</v>
       </c>
       <c r="D11">
         <v>6.6</v>
@@ -6326,7 +6326,7 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>3.3</v>
+        <v>-0.4</v>
       </c>
       <c r="D12">
         <v>6.7</v>
@@ -6346,7 +6346,7 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>-15</v>
+        <v>23.5</v>
       </c>
       <c r="D13">
         <v>7.1</v>
@@ -6366,7 +6366,7 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>-8.4</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
         <v>8.6</v>
@@ -6386,7 +6386,7 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>-7.8</v>
+        <v>0.3</v>
       </c>
       <c r="D15">
         <v>6.9</v>
@@ -6406,7 +6406,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>-6.2</v>
+        <v>-1</v>
       </c>
       <c r="D16">
         <v>5.1</v>
@@ -6465,7 +6465,7 @@
         <v>432</v>
       </c>
       <c r="C2">
-        <v>-7</v>
+        <v>13.1</v>
       </c>
       <c r="D2">
         <v>8.199999999999999</v>
@@ -6485,7 +6485,7 @@
         <v>432</v>
       </c>
       <c r="C3">
-        <v>-13.1</v>
+        <v>2.9</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -6505,7 +6505,7 @@
         <v>432</v>
       </c>
       <c r="C4">
-        <v>-9.300000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -6525,7 +6525,7 @@
         <v>432</v>
       </c>
       <c r="C5">
-        <v>-12.4</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2.3</v>
@@ -6545,7 +6545,7 @@
         <v>432</v>
       </c>
       <c r="C6">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <v>6.7</v>
@@ -6565,7 +6565,7 @@
         <v>432</v>
       </c>
       <c r="C7">
-        <v>-5.5</v>
+        <v>8.4</v>
       </c>
       <c r="D7">
         <v>7.4</v>
@@ -6585,7 +6585,7 @@
         <v>432</v>
       </c>
       <c r="C8">
-        <v>-5.7</v>
+        <v>-3.1</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -6605,7 +6605,7 @@
         <v>432</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
         <v>8.800000000000001</v>
@@ -6625,7 +6625,7 @@
         <v>432</v>
       </c>
       <c r="C10">
-        <v>-12.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D10">
         <v>6.3</v>
@@ -6645,7 +6645,7 @@
         <v>432</v>
       </c>
       <c r="C11">
-        <v>-0.3</v>
+        <v>-1.4</v>
       </c>
       <c r="D11">
         <v>6.2</v>
@@ -6665,7 +6665,7 @@
         <v>432</v>
       </c>
       <c r="C12">
-        <v>-8.6</v>
+        <v>1.1</v>
       </c>
       <c r="D12">
         <v>7.8</v>
@@ -6685,7 +6685,7 @@
         <v>432</v>
       </c>
       <c r="C13">
-        <v>-18.1</v>
+        <v>19.1</v>
       </c>
       <c r="D13">
         <v>6.8</v>
@@ -6745,7 +6745,7 @@
         <v>451</v>
       </c>
       <c r="C2">
-        <v>-12.2</v>
+        <v>16.2</v>
       </c>
       <c r="D2">
         <v>6.8</v>
@@ -6765,7 +6765,7 @@
         <v>451</v>
       </c>
       <c r="C3">
-        <v>-8.300000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="D3">
         <v>6.6</v>
@@ -6785,7 +6785,7 @@
         <v>451</v>
       </c>
       <c r="C4">
-        <v>-9.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="D4">
         <v>7.7</v>
@@ -6805,7 +6805,7 @@
         <v>451</v>
       </c>
       <c r="C5">
-        <v>-5</v>
+        <v>4.5</v>
       </c>
       <c r="D5">
         <v>7.8</v>
@@ -6825,7 +6825,7 @@
         <v>451</v>
       </c>
       <c r="C6">
-        <v>-9.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>8.300000000000001</v>
@@ -6845,7 +6845,7 @@
         <v>451</v>
       </c>
       <c r="C7">
-        <v>-9.4</v>
+        <v>3.3</v>
       </c>
       <c r="D7">
         <v>6.1</v>
@@ -6865,7 +6865,7 @@
         <v>451</v>
       </c>
       <c r="C8">
-        <v>-8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="D8">
         <v>6.9</v>
@@ -6885,7 +6885,7 @@
         <v>451</v>
       </c>
       <c r="C9">
-        <v>-12.4</v>
+        <v>1.2</v>
       </c>
       <c r="D9">
         <v>7.9</v>
@@ -6905,7 +6905,7 @@
         <v>451</v>
       </c>
       <c r="C10">
-        <v>-8.4</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
         <v>8.300000000000001</v>
@@ -6925,7 +6925,7 @@
         <v>451</v>
       </c>
       <c r="C11">
-        <v>-12.3</v>
+        <v>4.5</v>
       </c>
       <c r="D11">
         <v>6.3</v>
@@ -6945,7 +6945,7 @@
         <v>451</v>
       </c>
       <c r="C12">
-        <v>-12.1</v>
+        <v>-1.1</v>
       </c>
       <c r="D12">
         <v>6.1</v>
@@ -6965,7 +6965,7 @@
         <v>451</v>
       </c>
       <c r="C13">
-        <v>-12.2</v>
+        <v>1.5</v>
       </c>
       <c r="D13">
         <v>7.8</v>
@@ -6985,7 +6985,7 @@
         <v>451</v>
       </c>
       <c r="C14">
-        <v>-10.9</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
         <v>7.1</v>
@@ -7043,7 +7043,7 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>-62.2</v>
+        <v>-38.7</v>
       </c>
       <c r="D2">
         <v>6.6</v>
@@ -7099,7 +7099,7 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>-3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D2">
         <v>4.6</v>
@@ -7119,7 +7119,7 @@
         <v>50</v>
       </c>
       <c r="C3">
-        <v>-8.800000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="D3">
         <v>6.1</v>
@@ -7139,7 +7139,7 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>-19.8</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>5.6</v>
@@ -7159,7 +7159,7 @@
         <v>50</v>
       </c>
       <c r="C5">
-        <v>-7.3</v>
+        <v>1.3</v>
       </c>
       <c r="D5">
         <v>6.8</v>
@@ -7179,7 +7179,7 @@
         <v>50</v>
       </c>
       <c r="C6">
-        <v>-8.800000000000001</v>
+        <v>-4.7</v>
       </c>
       <c r="D6">
         <v>3.8</v>
@@ -7199,7 +7199,7 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>-9.1</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
         <v>7.4</v>
@@ -7219,7 +7219,7 @@
         <v>50</v>
       </c>
       <c r="C8">
-        <v>-9.9</v>
+        <v>-3</v>
       </c>
       <c r="D8">
         <v>6.5</v>
@@ -7239,7 +7239,7 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <v>-9.5</v>
+        <v>-4.6</v>
       </c>
       <c r="D9">
         <v>6.4</v>
@@ -7259,7 +7259,7 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>-11.2</v>
+        <v>-10.1</v>
       </c>
       <c r="D10">
         <v>4.7</v>
@@ -7279,7 +7279,7 @@
         <v>50</v>
       </c>
       <c r="C11">
-        <v>-11.5</v>
+        <v>-3.3</v>
       </c>
       <c r="D11">
         <v>6.1</v>
@@ -7338,7 +7338,7 @@
         <v>61</v>
       </c>
       <c r="C2">
-        <v>-12.2</v>
+        <v>4.3</v>
       </c>
       <c r="D2">
         <v>6.6</v>
@@ -7358,7 +7358,7 @@
         <v>61</v>
       </c>
       <c r="C3">
-        <v>-7.8</v>
+        <v>5.5</v>
       </c>
       <c r="D3">
         <v>6.7</v>
@@ -7378,7 +7378,7 @@
         <v>61</v>
       </c>
       <c r="C4">
-        <v>-4.5</v>
+        <v>12.1</v>
       </c>
       <c r="D4">
         <v>7.4</v>
@@ -7398,7 +7398,7 @@
         <v>61</v>
       </c>
       <c r="C5">
-        <v>-8.5</v>
+        <v>0.2</v>
       </c>
       <c r="D5">
         <v>8.1</v>
@@ -7418,7 +7418,7 @@
         <v>61</v>
       </c>
       <c r="C6">
-        <v>-10.9</v>
+        <v>-1.9</v>
       </c>
       <c r="D6">
         <v>6.1</v>
@@ -7438,7 +7438,7 @@
         <v>61</v>
       </c>
       <c r="C7">
-        <v>-9.6</v>
+        <v>-0.8</v>
       </c>
       <c r="D7">
         <v>7.1</v>
@@ -7495,7 +7495,7 @@
         <v>72</v>
       </c>
       <c r="C2">
-        <v>-8.300000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="D2">
         <v>8.1</v>
@@ -7515,7 +7515,7 @@
         <v>72</v>
       </c>
       <c r="C3">
-        <v>-7.4</v>
+        <v>-5.4</v>
       </c>
       <c r="D3">
         <v>7.1</v>
@@ -7535,7 +7535,7 @@
         <v>72</v>
       </c>
       <c r="C4">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="D4">
         <v>4.7</v>
@@ -7555,7 +7555,7 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>-6.5</v>
+        <v>-0.6</v>
       </c>
       <c r="D5">
         <v>9.300000000000001</v>
@@ -7575,7 +7575,7 @@
         <v>72</v>
       </c>
       <c r="C6">
-        <v>-10.3</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <v>5.1</v>
@@ -7595,7 +7595,7 @@
         <v>72</v>
       </c>
       <c r="C7">
-        <v>-5.7</v>
+        <v>5.1</v>
       </c>
       <c r="D7">
         <v>2.4</v>
@@ -7615,7 +7615,7 @@
         <v>72</v>
       </c>
       <c r="C8">
-        <v>-7.6</v>
+        <v>-1.6</v>
       </c>
       <c r="D8">
         <v>7.5</v>
@@ -7635,7 +7635,7 @@
         <v>72</v>
       </c>
       <c r="C9">
-        <v>-15.3</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -7692,7 +7692,7 @@
         <v>88</v>
       </c>
       <c r="C2">
-        <v>-8.300000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
         <v>8.199999999999999</v>
@@ -7712,7 +7712,7 @@
         <v>88</v>
       </c>
       <c r="C3">
-        <v>-5.8</v>
+        <v>2.4</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -7732,7 +7732,7 @@
         <v>88</v>
       </c>
       <c r="C4">
-        <v>-11.7</v>
+        <v>1.4</v>
       </c>
       <c r="D4">
         <v>7.4</v>
@@ -7752,7 +7752,7 @@
         <v>88</v>
       </c>
       <c r="C5">
-        <v>-25.1</v>
+        <v>-5.9</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         <v>88</v>
       </c>
       <c r="C6">
-        <v>-13.9</v>
+        <v>3.6</v>
       </c>
       <c r="D6">
         <v>7.8</v>
@@ -7792,7 +7792,7 @@
         <v>88</v>
       </c>
       <c r="C7">
-        <v>-5</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
         <v>6.1</v>
@@ -7812,7 +7812,7 @@
         <v>88</v>
       </c>
       <c r="C8">
-        <v>-6.6</v>
+        <v>1.1</v>
       </c>
       <c r="D8">
         <v>7.8</v>
@@ -7832,7 +7832,7 @@
         <v>88</v>
       </c>
       <c r="C9">
-        <v>-8.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="D9">
         <v>6.3</v>
@@ -7852,7 +7852,7 @@
         <v>88</v>
       </c>
       <c r="C10">
-        <v>-10.3</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
         <v>6.4</v>
@@ -7872,7 +7872,7 @@
         <v>88</v>
       </c>
       <c r="C11">
-        <v>-6.7</v>
+        <v>-0.4</v>
       </c>
       <c r="D11">
         <v>7.1</v>
@@ -7892,7 +7892,7 @@
         <v>88</v>
       </c>
       <c r="C12">
-        <v>-7.9</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
         <v>7.4</v>
@@ -7912,7 +7912,7 @@
         <v>88</v>
       </c>
       <c r="C13">
-        <v>-8.9</v>
+        <v>4.3</v>
       </c>
       <c r="D13">
         <v>6.4</v>
@@ -7932,7 +7932,7 @@
         <v>88</v>
       </c>
       <c r="C14">
-        <v>-8.5</v>
+        <v>0.7</v>
       </c>
       <c r="D14">
         <v>5.9</v>
@@ -7996,7 +7996,7 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>-9.6</v>
+        <v>-3.7</v>
       </c>
       <c r="D2">
         <v>7.5</v>
@@ -8016,7 +8016,7 @@
         <v>110</v>
       </c>
       <c r="C3">
-        <v>-10.2</v>
+        <v>1.1</v>
       </c>
       <c r="D3">
         <v>5.3</v>
@@ -8036,7 +8036,7 @@
         <v>110</v>
       </c>
       <c r="C4">
-        <v>-9.9</v>
+        <v>4.1</v>
       </c>
       <c r="D4">
         <v>4.8</v>
@@ -8056,7 +8056,7 @@
         <v>110</v>
       </c>
       <c r="C5">
-        <v>-9.6</v>
+        <v>6.5</v>
       </c>
       <c r="D5">
         <v>4.8</v>
@@ -8076,7 +8076,7 @@
         <v>110</v>
       </c>
       <c r="C6">
-        <v>-9.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="D6">
         <v>5.7</v>
@@ -8096,7 +8096,7 @@
         <v>110</v>
       </c>
       <c r="C7">
-        <v>-12.9</v>
+        <v>2.6</v>
       </c>
       <c r="D7">
         <v>6.5</v>
@@ -8116,7 +8116,7 @@
         <v>110</v>
       </c>
       <c r="C8">
-        <v>-6.9</v>
+        <v>1.5</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -8136,7 +8136,7 @@
         <v>110</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>7.7</v>
       </c>
       <c r="D9">
         <v>6.3</v>
@@ -8156,7 +8156,7 @@
         <v>110</v>
       </c>
       <c r="C10">
-        <v>-8.199999999999999</v>
+        <v>-4.4</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -8176,7 +8176,7 @@
         <v>110</v>
       </c>
       <c r="C11">
-        <v>-7.9</v>
+        <v>5.5</v>
       </c>
       <c r="D11">
         <v>6.2</v>
@@ -8196,7 +8196,7 @@
         <v>110</v>
       </c>
       <c r="C12">
-        <v>-13.4</v>
+        <v>2.8</v>
       </c>
       <c r="D12">
         <v>5.5</v>
@@ -8216,7 +8216,7 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>-11.8</v>
+        <v>7.1</v>
       </c>
       <c r="D13">
         <v>5.8</v>
@@ -8274,7 +8274,7 @@
         <v>122</v>
       </c>
       <c r="C2">
-        <v>-10</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
         <v>8.5</v>
@@ -8294,7 +8294,7 @@
         <v>122</v>
       </c>
       <c r="C3">
-        <v>-8.1</v>
+        <v>5.9</v>
       </c>
       <c r="D3">
         <v>7.9</v>
@@ -8314,7 +8314,7 @@
         <v>122</v>
       </c>
       <c r="C4">
-        <v>-6.4</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
         <v>5.9</v>
@@ -8334,7 +8334,7 @@
         <v>122</v>
       </c>
       <c r="C5">
-        <v>-7.3</v>
+        <v>-0.5</v>
       </c>
       <c r="D5">
         <v>6.6</v>
@@ -8354,7 +8354,7 @@
         <v>122</v>
       </c>
       <c r="C6">
-        <v>-8.6</v>
+        <v>1.4</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -8374,7 +8374,7 @@
         <v>122</v>
       </c>
       <c r="C7">
-        <v>-10.4</v>
+        <v>2.1</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -8394,7 +8394,7 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>-19.8</v>
+        <v>-0.6</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -8414,7 +8414,7 @@
         <v>122</v>
       </c>
       <c r="C9">
-        <v>-9.800000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="D9">
         <v>7.1</v>

--- a/data/climate-data.xlsx
+++ b/data/climate-data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="457">
   <si>
     <t>Kommun</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Utsläppsförändring 2020-2021 (%)</t>
+  </si>
+  <si>
+    <t>Utsläppsförändring 2020-2021 (kton)</t>
   </si>
   <si>
     <t>KPI1: Förändringstakt andel laddbara bilar (%)</t>
@@ -1772,13 +1775,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,111 +1800,129 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>85.09999999999999</v>
       </c>
       <c r="D2">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="E2">
         <v>5.2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
       <c r="C3">
         <v>-1.4</v>
       </c>
       <c r="D3">
+        <v>-1.5</v>
+      </c>
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>4.8</v>
       </c>
       <c r="D4">
+        <v>1.3</v>
+      </c>
+      <c r="E4">
         <v>4.8</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
         <v>6.1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>5.4</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>6.8</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1909,13 +1930,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1934,293 +1955,338 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2">
         <v>6.5</v>
       </c>
       <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
         <v>6.4</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>2.2</v>
       </c>
       <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
         <v>3.1</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4">
         <v>5.3</v>
       </c>
       <c r="D4">
+        <v>5.9</v>
+      </c>
+      <c r="E4">
         <v>6.1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
         <v>144</v>
-      </c>
-      <c r="F4">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
       </c>
       <c r="C5">
         <v>-4.5</v>
       </c>
       <c r="D5">
+        <v>-17.9</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6">
         <v>-6.2</v>
       </c>
       <c r="D6">
+        <v>-1.8</v>
+      </c>
+      <c r="E6">
         <v>3.9</v>
       </c>
-      <c r="E6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6">
         <v>2012</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7">
         <v>5.6</v>
       </c>
       <c r="D7">
+        <v>1.7</v>
+      </c>
+      <c r="E7">
         <v>5.5</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8">
         <v>10.3</v>
       </c>
       <c r="D8">
+        <v>6.1</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9">
         <v>-2.4</v>
       </c>
       <c r="D9">
+        <v>-16.9</v>
+      </c>
+      <c r="E9">
         <v>3.9</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E10">
         <v>7.6</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11">
         <v>-1.3</v>
       </c>
       <c r="D11">
+        <v>-0.8</v>
+      </c>
+      <c r="E11">
         <v>4.7</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12">
         <v>4.6</v>
       </c>
       <c r="D12">
+        <v>5.9</v>
+      </c>
+      <c r="E12">
         <v>8.4</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12">
+      <c r="F12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>-8.1</v>
       </c>
       <c r="D13">
+        <v>-2</v>
+      </c>
+      <c r="E13">
         <v>5.5</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13">
+      <c r="F13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13">
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>-0.7</v>
       </c>
       <c r="D14">
+        <v>-0.2</v>
+      </c>
+      <c r="E14">
         <v>3.8</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <v>-3.2</v>
       </c>
       <c r="D15">
+        <v>-0.5</v>
+      </c>
+      <c r="E15">
         <v>6.8</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E12" r:id="rId3"/>
-    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+    <hyperlink ref="F12" r:id="rId3"/>
+    <hyperlink ref="F13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2228,13 +2294,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2253,688 +2319,790 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2">
         <v>1.3</v>
       </c>
       <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
         <v>4.6</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C3">
         <v>6.7</v>
       </c>
       <c r="D3">
+        <v>4.4</v>
+      </c>
+      <c r="E3">
         <v>7.1</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4">
         <v>-11.6</v>
       </c>
       <c r="D4">
+        <v>-6.7</v>
+      </c>
+      <c r="E4">
         <v>4.8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
         <v>183</v>
-      </c>
-      <c r="F4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" t="s">
-        <v>182</v>
       </c>
       <c r="C5">
         <v>0.6</v>
       </c>
       <c r="D5">
+        <v>0.3</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6">
         <v>-2.4</v>
       </c>
       <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
         <v>5.9</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <v>1.5</v>
       </c>
       <c r="D7">
+        <v>6.5</v>
+      </c>
+      <c r="E7">
         <v>6.3</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7">
+      <c r="F7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8">
         <v>-11.6</v>
       </c>
       <c r="D8">
+        <v>-22.9</v>
+      </c>
+      <c r="E8">
         <v>5.6</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C9">
         <v>19.2</v>
       </c>
       <c r="D9">
+        <v>38.8</v>
+      </c>
+      <c r="E9">
         <v>7.3</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <v>0.1</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11">
         <v>0.1</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>6.3</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12">
         <v>1.1</v>
       </c>
       <c r="D12">
+        <v>0.7</v>
+      </c>
+      <c r="E12">
         <v>6.4</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13">
         <v>-1.7</v>
       </c>
       <c r="D13">
+        <v>-3.5</v>
+      </c>
+      <c r="E13">
         <v>7.5</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13">
+      <c r="F13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
         <v>9.300000000000001</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>7.4</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16">
         <v>0.3</v>
       </c>
       <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
         <v>9</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16">
+      <c r="F16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16">
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17">
         <v>-3.3</v>
       </c>
       <c r="D17">
+        <v>-4.8</v>
+      </c>
+      <c r="E17">
         <v>10.4</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17">
+      <c r="F17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17">
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18">
+        <v>38</v>
+      </c>
+      <c r="E18">
         <v>6.4</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18">
+      <c r="F18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18">
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19">
         <v>-0.9</v>
       </c>
       <c r="D19">
+        <v>-0.3</v>
+      </c>
+      <c r="E19">
         <v>5.4</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19">
+      <c r="F19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19">
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20">
         <v>1.1</v>
       </c>
       <c r="D20">
+        <v>0.6</v>
+      </c>
+      <c r="E20">
         <v>6.4</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20">
+      <c r="F20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20">
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21">
         <v>0.2</v>
       </c>
       <c r="D21">
+        <v>0.1</v>
+      </c>
+      <c r="E21">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22">
         <v>0.4</v>
       </c>
       <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22">
         <v>6.6</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22">
+      <c r="F22" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22">
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>6.6</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23">
+      <c r="F23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23">
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C24">
         <v>0.1</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>8.199999999999999</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24">
+      <c r="F24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24">
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C25">
         <v>2.6</v>
       </c>
       <c r="D25">
+        <v>0.9</v>
+      </c>
+      <c r="E25">
         <v>6.7</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25">
+      <c r="F25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25">
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26">
         <v>4.6</v>
       </c>
       <c r="D26">
+        <v>3.1</v>
+      </c>
+      <c r="E26">
         <v>7.5</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26">
+      <c r="F26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26">
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C27">
         <v>-5.7</v>
       </c>
       <c r="D27">
+        <v>-2.1</v>
+      </c>
+      <c r="E27">
         <v>2.9</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27">
+      <c r="F27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27">
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C28">
         <v>4.2</v>
       </c>
       <c r="D28">
+        <v>2.9</v>
+      </c>
+      <c r="E28">
         <v>7.3</v>
       </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C29">
         <v>-0.5</v>
       </c>
       <c r="D29">
+        <v>-0.3</v>
+      </c>
+      <c r="E29">
         <v>8.4</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F29">
+      <c r="F29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29">
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30">
         <v>0.3</v>
       </c>
       <c r="D30">
+        <v>0.2</v>
+      </c>
+      <c r="E30">
         <v>5.7</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F30">
+      <c r="F30" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30">
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C31">
         <v>-2.3</v>
       </c>
       <c r="D31">
+        <v>-2.8</v>
+      </c>
+      <c r="E31">
         <v>6.3</v>
       </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32">
         <v>1.9</v>
       </c>
       <c r="D32">
+        <v>0.9</v>
+      </c>
+      <c r="E32">
         <v>7.2</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F32">
+      <c r="F32" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32">
         <v>2022</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C33">
         <v>1.1</v>
       </c>
       <c r="D33">
+        <v>0.6</v>
+      </c>
+      <c r="E33">
         <v>3.3</v>
       </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C34">
         <v>-0.8</v>
       </c>
       <c r="D34">
+        <v>-0.3</v>
+      </c>
+      <c r="E34">
         <v>7.5</v>
       </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4"/>
-    <hyperlink ref="E13" r:id="rId5"/>
-    <hyperlink ref="E16" r:id="rId6"/>
-    <hyperlink ref="E17" r:id="rId7"/>
-    <hyperlink ref="E18" r:id="rId8"/>
-    <hyperlink ref="E19" r:id="rId9"/>
-    <hyperlink ref="E20" r:id="rId10"/>
-    <hyperlink ref="E22" r:id="rId11"/>
-    <hyperlink ref="E23" r:id="rId12"/>
-    <hyperlink ref="E24" r:id="rId13"/>
-    <hyperlink ref="E25" r:id="rId14"/>
-    <hyperlink ref="E26" r:id="rId15"/>
-    <hyperlink ref="E27" r:id="rId16"/>
-    <hyperlink ref="E29" r:id="rId17"/>
-    <hyperlink ref="E30" r:id="rId18"/>
-    <hyperlink ref="E32" r:id="rId19"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId3"/>
+    <hyperlink ref="F12" r:id="rId4"/>
+    <hyperlink ref="F13" r:id="rId5"/>
+    <hyperlink ref="F16" r:id="rId6"/>
+    <hyperlink ref="F17" r:id="rId7"/>
+    <hyperlink ref="F18" r:id="rId8"/>
+    <hyperlink ref="F19" r:id="rId9"/>
+    <hyperlink ref="F20" r:id="rId10"/>
+    <hyperlink ref="F22" r:id="rId11"/>
+    <hyperlink ref="F23" r:id="rId12"/>
+    <hyperlink ref="F24" r:id="rId13"/>
+    <hyperlink ref="F25" r:id="rId14"/>
+    <hyperlink ref="F26" r:id="rId15"/>
+    <hyperlink ref="F27" r:id="rId16"/>
+    <hyperlink ref="F29" r:id="rId17"/>
+    <hyperlink ref="F30" r:id="rId18"/>
+    <hyperlink ref="F32" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2942,13 +3110,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2967,551 +3135,632 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2">
         <v>-0.3</v>
       </c>
       <c r="D2">
+        <v>-0.3</v>
+      </c>
+      <c r="E2">
         <v>6.4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
         <v>229</v>
-      </c>
-      <c r="F2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" t="s">
-        <v>228</v>
       </c>
       <c r="C3">
         <v>1.3</v>
       </c>
       <c r="D3">
+        <v>0.4</v>
+      </c>
+      <c r="E3">
         <v>10.5</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3">
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C4">
         <v>7.4</v>
       </c>
       <c r="D4">
+        <v>2.9</v>
+      </c>
+      <c r="E4">
         <v>9.1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C5">
         <v>-3.1</v>
       </c>
       <c r="D5">
+        <v>-3.5</v>
+      </c>
+      <c r="E5">
         <v>6.7</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C6">
         <v>0.3</v>
       </c>
       <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
         <v>6.9</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6">
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C7">
         <v>0.3</v>
       </c>
       <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
         <v>8.199999999999999</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F7">
+      <c r="F7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C8">
         <v>9.6</v>
       </c>
       <c r="D8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
         <v>8.6</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8">
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C9">
         <v>1.9</v>
       </c>
       <c r="D9">
+        <v>1.6</v>
+      </c>
+      <c r="E9">
         <v>9.4</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C10">
         <v>2.7</v>
       </c>
       <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
         <v>6.3</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10">
+      <c r="F10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10">
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C11">
         <v>0.1</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>6.5</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C12">
         <v>-1.6</v>
       </c>
       <c r="D12">
+        <v>-3</v>
+      </c>
+      <c r="E12">
         <v>7.3</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12">
+      <c r="F12" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12">
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C13">
         <v>0.8</v>
       </c>
       <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13">
         <v>7.1</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C14">
         <v>1.5</v>
       </c>
       <c r="D14">
+        <v>3.2</v>
+      </c>
+      <c r="E14">
         <v>8.199999999999999</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14">
+      <c r="F14" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
       <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
         <v>9.4</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15">
+      <c r="F15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15">
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>9.1</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16">
+      <c r="F16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16">
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C17">
         <v>5.6</v>
       </c>
       <c r="D17">
+        <v>55.6</v>
+      </c>
+      <c r="E17">
         <v>9.1</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17">
+      <c r="F17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17">
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C18">
         <v>-0</v>
       </c>
       <c r="D18">
+        <v>-0</v>
+      </c>
+      <c r="E18">
         <v>11.3</v>
       </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C19">
         <v>-1.7</v>
       </c>
       <c r="D19">
+        <v>-4.6</v>
+      </c>
+      <c r="E19">
         <v>7.7</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F19">
+      <c r="F19" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19">
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20">
         <v>0.7</v>
       </c>
       <c r="D20">
+        <v>0.1</v>
+      </c>
+      <c r="E20">
         <v>8.300000000000001</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F20">
+      <c r="F20" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20">
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C21">
         <v>0.4</v>
       </c>
       <c r="D21">
+        <v>0.3</v>
+      </c>
+      <c r="E21">
         <v>8.699999999999999</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22">
         <v>0.6</v>
       </c>
       <c r="D22">
+        <v>0.4</v>
+      </c>
+      <c r="E22">
         <v>7.7</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22">
+      <c r="F22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22">
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23">
         <v>2.6</v>
       </c>
       <c r="D23">
+        <v>4.4</v>
+      </c>
+      <c r="E23">
         <v>8.199999999999999</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23">
+      <c r="F23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23">
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C24">
         <v>0.7</v>
       </c>
       <c r="D24">
+        <v>0.4</v>
+      </c>
+      <c r="E24">
         <v>8.9</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F24">
+      <c r="F24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24">
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25">
         <v>12.3</v>
       </c>
       <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>8.5</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F25">
+      <c r="F25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25">
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C26">
         <v>6.8</v>
       </c>
       <c r="D26">
+        <v>5.7</v>
+      </c>
+      <c r="E26">
         <v>9.699999999999999</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F26">
+      <c r="F26" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26">
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C27">
         <v>2.1</v>
       </c>
       <c r="D27">
+        <v>1.4</v>
+      </c>
+      <c r="E27">
         <v>7.9</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F27">
+      <c r="F27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27">
         <v>2022</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E12" r:id="rId10"/>
-    <hyperlink ref="E14" r:id="rId11"/>
-    <hyperlink ref="E15" r:id="rId12"/>
-    <hyperlink ref="E16" r:id="rId13"/>
-    <hyperlink ref="E17" r:id="rId14"/>
-    <hyperlink ref="E19" r:id="rId15"/>
-    <hyperlink ref="E20" r:id="rId16"/>
-    <hyperlink ref="E22" r:id="rId17"/>
-    <hyperlink ref="E23" r:id="rId18"/>
-    <hyperlink ref="E24" r:id="rId19"/>
-    <hyperlink ref="E25" r:id="rId20"/>
-    <hyperlink ref="E26" r:id="rId21"/>
-    <hyperlink ref="E27" r:id="rId22"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F14" r:id="rId11"/>
+    <hyperlink ref="F15" r:id="rId12"/>
+    <hyperlink ref="F16" r:id="rId13"/>
+    <hyperlink ref="F17" r:id="rId14"/>
+    <hyperlink ref="F19" r:id="rId15"/>
+    <hyperlink ref="F20" r:id="rId16"/>
+    <hyperlink ref="F22" r:id="rId17"/>
+    <hyperlink ref="F23" r:id="rId18"/>
+    <hyperlink ref="F24" r:id="rId19"/>
+    <hyperlink ref="F25" r:id="rId20"/>
+    <hyperlink ref="F26" r:id="rId21"/>
+    <hyperlink ref="F27" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3519,13 +3768,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3544,194 +3793,224 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2">
         <v>3.8</v>
       </c>
       <c r="D2">
+        <v>6.1</v>
+      </c>
+      <c r="E2">
         <v>7.4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
         <v>261</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" t="s">
-        <v>260</v>
       </c>
       <c r="C3">
         <v>1.9</v>
       </c>
       <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
         <v>6.6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C4">
         <v>3.3</v>
       </c>
       <c r="D4">
+        <v>0.6</v>
+      </c>
+      <c r="E4">
         <v>7.9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C5">
         <v>3.5</v>
       </c>
       <c r="D5">
+        <v>2.4</v>
+      </c>
+      <c r="E5">
         <v>6.8</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>6.7</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6">
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C7">
         <v>8.9</v>
       </c>
       <c r="D7">
+        <v>138.4</v>
+      </c>
+      <c r="E7">
         <v>6.9</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C8">
         <v>2.4</v>
       </c>
       <c r="D8">
+        <v>2.3</v>
+      </c>
+      <c r="E8">
         <v>6.1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8">
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C9">
         <v>0.9</v>
       </c>
       <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C10">
         <v>1.4</v>
       </c>
       <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
         <v>6.4</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3739,13 +4018,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3764,173 +4043,200 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C2">
         <v>-2.1</v>
       </c>
       <c r="D2">
+        <v>-3.2</v>
+      </c>
+      <c r="E2">
         <v>7.3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
         <v>275</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" t="s">
-        <v>274</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
+        <v>1.3</v>
+      </c>
+      <c r="E3">
         <v>7.3</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C4">
         <v>5.6</v>
       </c>
       <c r="D4">
+        <v>3.7</v>
+      </c>
+      <c r="E4">
         <v>6.3</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
         <v>9.6</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C6">
         <v>-1.3</v>
       </c>
       <c r="D6">
+        <v>-1.3</v>
+      </c>
+      <c r="E6">
         <v>8.1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C7">
         <v>2.9</v>
       </c>
       <c r="D7">
+        <v>13.1</v>
+      </c>
+      <c r="E7">
         <v>7.6</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F7">
+      <c r="F7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7">
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C8">
         <v>1.8</v>
       </c>
       <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
+        <v>1.9</v>
+      </c>
+      <c r="E9">
         <v>5.8</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3938,13 +4244,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3963,33 +4269,39 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C2">
         <v>4.6</v>
       </c>
       <c r="D2">
+        <v>2.7</v>
+      </c>
+      <c r="E2">
         <v>6.3</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C3">
         <v>7.9</v>
@@ -3997,301 +4309,346 @@
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
         <v>296</v>
-      </c>
-      <c r="F3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" t="s">
-        <v>295</v>
       </c>
       <c r="C4">
         <v>-1.3</v>
       </c>
       <c r="D4">
+        <v>-0.5</v>
+      </c>
+      <c r="E4">
         <v>4.8</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C5">
         <v>4.2</v>
       </c>
       <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
         <v>7.1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C6">
         <v>-8.199999999999999</v>
       </c>
       <c r="D6">
+        <v>-4.7</v>
+      </c>
+      <c r="E6">
         <v>7.6</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C7">
         <v>16.7</v>
       </c>
       <c r="D7">
+        <v>11.4</v>
+      </c>
+      <c r="E7">
         <v>2.4</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7">
+      <c r="F7" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7">
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C8">
         <v>3.8</v>
       </c>
       <c r="D8">
+        <v>2.2</v>
+      </c>
+      <c r="E8">
         <v>7.1</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C9">
         <v>1.5</v>
       </c>
       <c r="D9">
+        <v>2.9</v>
+      </c>
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G9">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C10">
         <v>5.8</v>
       </c>
       <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>6.4</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C11">
         <v>0.3</v>
       </c>
       <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
         <v>5.6</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C12">
         <v>-2.6</v>
       </c>
       <c r="D12">
+        <v>-0.2</v>
+      </c>
+      <c r="E12">
         <v>5.8</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C13">
         <v>3.6</v>
       </c>
       <c r="D13">
+        <v>0.4</v>
+      </c>
+      <c r="E13">
         <v>6.2</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>5.3</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F14">
+      <c r="F14" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C15">
         <v>10.7</v>
       </c>
       <c r="D15">
+        <v>6.1</v>
+      </c>
+      <c r="E15">
         <v>6.7</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F15">
+      <c r="F15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C16">
         <v>3.6</v>
       </c>
       <c r="D16">
+        <v>1.3</v>
+      </c>
+      <c r="E16">
         <v>4.9</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C17">
         <v>1.8</v>
       </c>
       <c r="D17">
+        <v>0.7</v>
+      </c>
+      <c r="E17">
         <v>4.7</v>
       </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="E15" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
+    <hyperlink ref="F14" r:id="rId5"/>
+    <hyperlink ref="F15" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4299,13 +4656,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4324,313 +4681,361 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C2">
         <v>-5.4</v>
       </c>
       <c r="D2">
+        <v>-0.7</v>
+      </c>
+      <c r="E2">
         <v>6.2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" t="s">
         <v>318</v>
-      </c>
-      <c r="F2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" t="s">
-        <v>317</v>
       </c>
       <c r="C3">
         <v>-4.8</v>
       </c>
       <c r="D3">
+        <v>-0.6</v>
+      </c>
+      <c r="E3">
         <v>3.7</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C4">
         <v>7.4</v>
       </c>
       <c r="D4">
+        <v>3.7</v>
+      </c>
+      <c r="E4">
         <v>6.3</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C5">
         <v>1.3</v>
       </c>
       <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
         <v>3.9</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C6">
         <v>1.1</v>
       </c>
       <c r="D6">
+        <v>0.4</v>
+      </c>
+      <c r="E6">
         <v>8.5</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
       <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
         <v>10.2</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C8">
         <v>-0.6</v>
       </c>
       <c r="D8">
+        <v>-0.2</v>
+      </c>
+      <c r="E8">
         <v>10.1</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C9">
         <v>3.3</v>
       </c>
       <c r="D9">
+        <v>15.8</v>
+      </c>
+      <c r="E9">
         <v>8.199999999999999</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C10">
         <v>3.4</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
         <v>1.8</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C11">
         <v>0.8</v>
       </c>
       <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
         <v>5.9</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F11">
+      <c r="F11" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C12">
         <v>3.9</v>
       </c>
       <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>7.3</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F12">
+      <c r="F12" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12">
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C13">
         <v>-1.5</v>
       </c>
       <c r="D13">
+        <v>-0.4</v>
+      </c>
+      <c r="E13">
         <v>5.7</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C14">
         <v>-0.3</v>
       </c>
       <c r="D14">
+        <v>-0.1</v>
+      </c>
+      <c r="E14">
         <v>8.199999999999999</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C15">
         <v>2.1</v>
       </c>
       <c r="D15">
+        <v>0.4</v>
+      </c>
+      <c r="E15">
         <v>8.300000000000001</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C16">
         <v>4.2</v>
       </c>
       <c r="D16">
+        <v>0.9</v>
+      </c>
+      <c r="E16">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E11" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId3"/>
+    <hyperlink ref="F12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4638,13 +5043,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4663,152 +5068,176 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C2">
         <v>0.9</v>
       </c>
       <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
         <v>7.2</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C3">
         <v>2.2</v>
       </c>
       <c r="D3">
+        <v>1.7</v>
+      </c>
+      <c r="E3">
         <v>8.1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" t="s">
         <v>330</v>
-      </c>
-      <c r="F3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" t="s">
-        <v>329</v>
       </c>
       <c r="C4">
         <v>-3.8</v>
       </c>
       <c r="D4">
+        <v>-2.2</v>
+      </c>
+      <c r="E4">
         <v>6.2</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C5">
         <v>-1.4</v>
       </c>
       <c r="D5">
+        <v>-7.1</v>
+      </c>
+      <c r="E5">
         <v>6.6</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5">
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C6">
         <v>-16.8</v>
       </c>
       <c r="D6">
+        <v>-16.2</v>
+      </c>
+      <c r="E6">
         <v>7.5</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C7">
         <v>7.5</v>
       </c>
       <c r="D7">
+        <v>4.5</v>
+      </c>
+      <c r="E7">
         <v>5.9</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C8">
         <v>29.1</v>
       </c>
       <c r="D8">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="E8">
         <v>6.1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8">
         <v>2021</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4816,13 +5245,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4841,213 +5270,246 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C2">
         <v>-0.9</v>
       </c>
       <c r="D2">
+        <v>-0.4</v>
+      </c>
+      <c r="E2">
         <v>7.7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" t="s">
         <v>344</v>
-      </c>
-      <c r="F2">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" t="s">
-        <v>343</v>
       </c>
       <c r="C3">
         <v>2.6</v>
       </c>
       <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C4">
         <v>0.6</v>
       </c>
       <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
         <v>8.1</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C5">
         <v>1.9</v>
       </c>
       <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
         <v>7.7</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C6">
         <v>5.7</v>
       </c>
       <c r="D6">
+        <v>14.6</v>
+      </c>
+      <c r="E6">
         <v>6.7</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C7">
         <v>0.8</v>
       </c>
       <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
         <v>8.199999999999999</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F7">
+      <c r="F7" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7">
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C8">
         <v>0.7</v>
       </c>
       <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
         <v>6.9</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G8">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C9">
         <v>-2.1</v>
       </c>
       <c r="D9">
+        <v>-0.3</v>
+      </c>
+      <c r="E9">
         <v>8.5</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C10">
         <v>2.1</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
         <v>8.300000000000001</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C11">
         <v>14.6</v>
       </c>
       <c r="D11">
+        <v>55.1</v>
+      </c>
+      <c r="E11">
         <v>7.6</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F11">
+      <c r="F11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11">
         <v>2017</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E11" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5055,13 +5517,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5080,1011 +5542,1161 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C2">
         <v>5.5</v>
       </c>
       <c r="D2">
+        <v>7.3</v>
+      </c>
+      <c r="E2">
         <v>7.8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" t="s">
         <v>398</v>
-      </c>
-      <c r="F2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" t="s">
-        <v>397</v>
       </c>
       <c r="C3">
         <v>-4.9</v>
       </c>
       <c r="D3">
+        <v>-3.3</v>
+      </c>
+      <c r="E3">
         <v>5.7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C4">
         <v>0.1</v>
       </c>
       <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
         <v>5.5</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
         <v>7.5</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C6">
         <v>0.2</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
         <v>6.9</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G6">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C7">
         <v>1.4</v>
       </c>
       <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F7">
+      <c r="F7" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G7">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C8">
         <v>-2.7</v>
       </c>
       <c r="D8">
+        <v>-0.4</v>
+      </c>
+      <c r="E8">
         <v>5.5</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C9">
         <v>0.9</v>
       </c>
       <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G9">
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C10">
         <v>-2</v>
       </c>
       <c r="D10">
+        <v>-0.4</v>
+      </c>
+      <c r="E10">
         <v>5.5</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C11">
         <v>1.5</v>
       </c>
       <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
         <v>6.3</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C12">
         <v>0.8</v>
       </c>
       <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
         <v>4.7</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C13">
         <v>1.7</v>
       </c>
       <c r="D13">
+        <v>34.4</v>
+      </c>
+      <c r="E13">
         <v>8.1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F13">
+      <c r="F13" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G13">
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C14">
         <v>-1.3</v>
       </c>
       <c r="D14">
+        <v>-1.3</v>
+      </c>
+      <c r="E14">
         <v>5.8</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F14">
+      <c r="F14" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G14">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C15">
         <v>1.7</v>
       </c>
       <c r="D15">
+        <v>0.4</v>
+      </c>
+      <c r="E15">
         <v>7.4</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
         <v>7.4</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F16">
+      <c r="F16" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C17">
         <v>0.6</v>
       </c>
       <c r="D17">
+        <v>0.8</v>
+      </c>
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F17">
+      <c r="F17" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G17">
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C18">
         <v>0.9</v>
       </c>
       <c r="D18">
+        <v>0.2</v>
+      </c>
+      <c r="E18">
         <v>6.6</v>
       </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C19">
         <v>-0.1</v>
       </c>
       <c r="D19">
+        <v>-0.1</v>
+      </c>
+      <c r="E19">
         <v>6.5</v>
       </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C20">
         <v>3.1</v>
       </c>
       <c r="D20">
+        <v>1.8</v>
+      </c>
+      <c r="E20">
         <v>8.9</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C21">
         <v>-5.9</v>
       </c>
       <c r="D21">
+        <v>-7.3</v>
+      </c>
+      <c r="E21">
         <v>6.3</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C22">
         <v>-0.7</v>
       </c>
       <c r="D22">
+        <v>-0.3</v>
+      </c>
+      <c r="E22">
         <v>7.1</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C23">
         <v>41.6</v>
       </c>
       <c r="D23">
+        <v>512.7</v>
+      </c>
+      <c r="E23">
         <v>6.8</v>
       </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B24" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C24">
         <v>-2.2</v>
       </c>
       <c r="D24">
+        <v>-1.9</v>
+      </c>
+      <c r="E24">
         <v>5.8</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F24">
+      <c r="F24" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G24">
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C25">
         <v>2.1</v>
       </c>
       <c r="D25">
+        <v>1.4</v>
+      </c>
+      <c r="E25">
         <v>5.9</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B26" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C26">
         <v>0.6</v>
       </c>
       <c r="D26">
+        <v>0.2</v>
+      </c>
+      <c r="E26">
         <v>5.5</v>
       </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B27" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
       <c r="D27">
+        <v>3.7</v>
+      </c>
+      <c r="E27">
         <v>7.6</v>
       </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B28" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C28">
         <v>2.7</v>
       </c>
       <c r="D28">
+        <v>3.5</v>
+      </c>
+      <c r="E28">
         <v>8.300000000000001</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F28">
+      <c r="F28" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G28">
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B29" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C29">
         <v>5.1</v>
       </c>
       <c r="D29">
+        <v>1.9</v>
+      </c>
+      <c r="E29">
         <v>7.6</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F29">
+      <c r="F29" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G29">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C30">
         <v>-0.2</v>
       </c>
       <c r="D30">
+        <v>-0.1</v>
+      </c>
+      <c r="E30">
         <v>7.8</v>
       </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C31">
         <v>-0.2</v>
       </c>
       <c r="D31">
+        <v>-0.1</v>
+      </c>
+      <c r="E31">
         <v>6.3</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F31">
+      <c r="F31" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G31">
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B32" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C32">
         <v>21.8</v>
       </c>
       <c r="D32">
+        <v>23.7</v>
+      </c>
+      <c r="E32">
         <v>6</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F32">
+      <c r="F32" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G32">
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B33" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C33">
         <v>-1.2</v>
       </c>
       <c r="D33">
+        <v>-0.3</v>
+      </c>
+      <c r="E33">
         <v>8.300000000000001</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F33">
+      <c r="F33" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G33">
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B34" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C34">
         <v>66.90000000000001</v>
       </c>
       <c r="D34">
+        <v>422.5</v>
+      </c>
+      <c r="E34">
         <v>8.199999999999999</v>
       </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C35">
         <v>7.4</v>
       </c>
       <c r="D35">
+        <v>3.7</v>
+      </c>
+      <c r="E35">
         <v>8</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F35">
+      <c r="F35" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G35">
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C36">
         <v>10.5</v>
       </c>
       <c r="D36">
+        <v>2.9</v>
+      </c>
+      <c r="E36">
         <v>7.1</v>
       </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B37" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C37">
         <v>3.3</v>
       </c>
       <c r="D37">
+        <v>2.4</v>
+      </c>
+      <c r="E37">
         <v>7.7</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F37">
+      <c r="F37" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G37">
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B38" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C38">
         <v>-0.9</v>
       </c>
       <c r="D38">
+        <v>-0.2</v>
+      </c>
+      <c r="E38">
         <v>7.9</v>
       </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C39">
         <v>13.2</v>
       </c>
       <c r="D39">
+        <v>3.8</v>
+      </c>
+      <c r="E39">
         <v>6.3</v>
       </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C40">
         <v>2.1</v>
       </c>
       <c r="D40">
+        <v>0.7</v>
+      </c>
+      <c r="E40">
         <v>8.199999999999999</v>
       </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B41" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C41">
         <v>0.7</v>
       </c>
       <c r="D41">
+        <v>0.7</v>
+      </c>
+      <c r="E41">
         <v>7</v>
       </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C42">
         <v>0.1</v>
       </c>
       <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>7.7</v>
       </c>
-      <c r="E42" t="s">
-        <v>12</v>
-      </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C43">
         <v>1.4</v>
       </c>
       <c r="D43">
+        <v>0.4</v>
+      </c>
+      <c r="E43">
         <v>5.8</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F43">
+      <c r="F43" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G43">
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C44">
         <v>11.9</v>
       </c>
       <c r="D44">
+        <v>23.7</v>
+      </c>
+      <c r="E44">
         <v>8.4</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F44">
+      <c r="F44" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G44">
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
+        <v>0.8</v>
+      </c>
+      <c r="E45">
         <v>5.4</v>
       </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C46">
         <v>0.2</v>
       </c>
       <c r="D46">
+        <v>0.1</v>
+      </c>
+      <c r="E46">
         <v>8.1</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F46">
+      <c r="F46" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G46">
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C47">
         <v>3.8</v>
       </c>
       <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
         <v>6.9</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F47">
+      <c r="F47" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G47">
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B48" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C48">
         <v>1.3</v>
       </c>
       <c r="D48">
+        <v>0.6</v>
+      </c>
+      <c r="E48">
         <v>7.4</v>
       </c>
-      <c r="E48" t="s">
-        <v>12</v>
-      </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C49">
         <v>-0.1</v>
       </c>
       <c r="D49">
+        <v>-0</v>
+      </c>
+      <c r="E49">
         <v>4.7</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F49">
+      <c r="F49" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49">
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C50">
         <v>-8.1</v>
       </c>
       <c r="D50">
+        <v>-2.2</v>
+      </c>
+      <c r="E50">
         <v>7.7</v>
       </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-    <hyperlink ref="E9" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
-    <hyperlink ref="E14" r:id="rId7"/>
-    <hyperlink ref="E16" r:id="rId8"/>
-    <hyperlink ref="E17" r:id="rId9"/>
-    <hyperlink ref="E24" r:id="rId10"/>
-    <hyperlink ref="E28" r:id="rId11"/>
-    <hyperlink ref="E29" r:id="rId12"/>
-    <hyperlink ref="E31" r:id="rId13"/>
-    <hyperlink ref="E32" r:id="rId14"/>
-    <hyperlink ref="E33" r:id="rId15"/>
-    <hyperlink ref="E35" r:id="rId16"/>
-    <hyperlink ref="E37" r:id="rId17"/>
-    <hyperlink ref="E43" r:id="rId18"/>
-    <hyperlink ref="E44" r:id="rId19"/>
-    <hyperlink ref="E46" r:id="rId20"/>
-    <hyperlink ref="E47" r:id="rId21"/>
-    <hyperlink ref="E49" r:id="rId22"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F13" r:id="rId6"/>
+    <hyperlink ref="F14" r:id="rId7"/>
+    <hyperlink ref="F16" r:id="rId8"/>
+    <hyperlink ref="F17" r:id="rId9"/>
+    <hyperlink ref="F24" r:id="rId10"/>
+    <hyperlink ref="F28" r:id="rId11"/>
+    <hyperlink ref="F29" r:id="rId12"/>
+    <hyperlink ref="F31" r:id="rId13"/>
+    <hyperlink ref="F32" r:id="rId14"/>
+    <hyperlink ref="F33" r:id="rId15"/>
+    <hyperlink ref="F35" r:id="rId16"/>
+    <hyperlink ref="F37" r:id="rId17"/>
+    <hyperlink ref="F43" r:id="rId18"/>
+    <hyperlink ref="F44" r:id="rId19"/>
+    <hyperlink ref="F46" r:id="rId20"/>
+    <hyperlink ref="F47" r:id="rId21"/>
+    <hyperlink ref="F49" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6092,13 +6704,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6117,313 +6729,361 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
       <c r="D2">
+        <v>7.3</v>
+      </c>
+      <c r="E2">
         <v>6.4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
-      </c>
-      <c r="F2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
       <c r="C3">
         <v>6.1</v>
       </c>
       <c r="D3">
+        <v>21.5</v>
+      </c>
+      <c r="E3">
         <v>6.9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1.4</v>
       </c>
       <c r="D4">
+        <v>1.3</v>
+      </c>
+      <c r="E4">
         <v>7.3</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>-2.3</v>
       </c>
       <c r="D5">
+        <v>-0.5</v>
+      </c>
+      <c r="E5">
         <v>7.9</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>-2.6</v>
       </c>
       <c r="D6">
+        <v>-1.5</v>
+      </c>
+      <c r="E6">
         <v>7.3</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>4.8</v>
       </c>
       <c r="D7">
+        <v>1.6</v>
+      </c>
+      <c r="E7">
         <v>7.4</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>-0.3</v>
       </c>
       <c r="D8">
+        <v>-0.2</v>
+      </c>
+      <c r="E8">
         <v>6.3</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1.8</v>
       </c>
       <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
         <v>6.8</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>-2.1</v>
       </c>
       <c r="D10">
+        <v>-1.2</v>
+      </c>
+      <c r="E10">
         <v>7.6</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>-0</v>
       </c>
       <c r="D11">
+        <v>-0</v>
+      </c>
+      <c r="E11">
         <v>6.6</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>-0.4</v>
       </c>
       <c r="D12">
+        <v>-0.7</v>
+      </c>
+      <c r="E12">
         <v>6.7</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>23.5</v>
       </c>
       <c r="D13">
+        <v>13.5</v>
+      </c>
+      <c r="E13">
         <v>7.1</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14">
         <v>8.6</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>0.3</v>
       </c>
       <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
         <v>6.9</v>
       </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15">
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>-1</v>
       </c>
       <c r="D16">
+        <v>-0.3</v>
+      </c>
+      <c r="E16">
         <v>5.1</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6431,13 +7091,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6456,254 +7116,293 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C2">
         <v>13.1</v>
       </c>
       <c r="D2">
+        <v>9.6</v>
+      </c>
+      <c r="E2">
         <v>8.199999999999999</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3" t="s">
         <v>433</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B3" t="s">
-        <v>432</v>
       </c>
       <c r="C3">
         <v>2.9</v>
       </c>
       <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G3">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C4">
         <v>3.5</v>
       </c>
       <c r="D4">
+        <v>1.5</v>
+      </c>
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5">
+        <v>2.1</v>
+      </c>
+      <c r="E5">
         <v>2.3</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C6">
         <v>-1</v>
       </c>
       <c r="D6">
+        <v>-0.8</v>
+      </c>
+      <c r="E6">
         <v>6.7</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G6">
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C7">
         <v>8.4</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <v>7.4</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C8">
         <v>-3.1</v>
       </c>
       <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C9">
         <v>0.9</v>
       </c>
       <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
         <v>8.800000000000001</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G9">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C10">
         <v>8.199999999999999</v>
       </c>
       <c r="D10">
+        <v>5.7</v>
+      </c>
+      <c r="E10">
         <v>6.3</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C11">
         <v>-1.4</v>
       </c>
       <c r="D11">
+        <v>-0.4</v>
+      </c>
+      <c r="E11">
         <v>6.2</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C12">
         <v>1.1</v>
       </c>
       <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
         <v>7.8</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C13">
         <v>19.1</v>
       </c>
       <c r="D13">
+        <v>51.5</v>
+      </c>
+      <c r="E13">
         <v>6.8</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F13">
+      <c r="F13" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G13">
         <v>2016</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E13" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
+    <hyperlink ref="F13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6711,13 +7410,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6736,272 +7435,314 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C2">
         <v>16.2</v>
       </c>
       <c r="D2">
+        <v>5.9</v>
+      </c>
+      <c r="E2">
         <v>6.8</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C3">
         <v>-0.4</v>
       </c>
       <c r="D3">
+        <v>-0.3</v>
+      </c>
+      <c r="E3">
         <v>6.6</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C4">
         <v>1.1</v>
       </c>
       <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
         <v>7.7</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C5">
         <v>4.5</v>
       </c>
       <c r="D5">
+        <v>23.2</v>
+      </c>
+      <c r="E5">
         <v>7.8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" t="s">
         <v>452</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B6" t="s">
-        <v>451</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>8.300000000000001</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G6">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C7">
         <v>3.3</v>
       </c>
       <c r="D7">
+        <v>2.4</v>
+      </c>
+      <c r="E7">
         <v>6.1</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C8">
         <v>6.2</v>
       </c>
       <c r="D8">
+        <v>31.8</v>
+      </c>
+      <c r="E8">
         <v>6.9</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C9">
         <v>1.2</v>
       </c>
       <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="E9">
         <v>7.9</v>
       </c>
-      <c r="E9" t="s">
-        <v>454</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G9">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C10">
         <v>0.3</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>8.300000000000001</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C11">
         <v>4.5</v>
       </c>
       <c r="D11">
+        <v>1.3</v>
+      </c>
+      <c r="E11">
         <v>6.3</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C12">
         <v>-1.1</v>
       </c>
       <c r="D12">
+        <v>-0.1</v>
+      </c>
+      <c r="E12">
         <v>6.1</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C13">
         <v>1.5</v>
       </c>
       <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13">
         <v>7.8</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F13">
+      <c r="F13" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G13">
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C14">
         <v>0.1</v>
       </c>
       <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
         <v>7.1</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E13" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7009,13 +7750,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7034,30 +7775,36 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>-38.7</v>
       </c>
       <c r="D2">
+        <v>-75.8</v>
+      </c>
+      <c r="E2">
         <v>6.6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2">
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2">
         <v>2022</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7065,13 +7812,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7090,213 +7837,246 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>4.1</v>
       </c>
       <c r="D2">
+        <v>3.3</v>
+      </c>
+      <c r="E2">
         <v>4.6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
       </c>
       <c r="C3">
         <v>4.3</v>
       </c>
       <c r="D3">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E3">
         <v>6.1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>17</v>
       </c>
       <c r="D4">
+        <v>12.8</v>
+      </c>
+      <c r="E4">
         <v>5.6</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>1.3</v>
       </c>
       <c r="D5">
+        <v>1.5</v>
+      </c>
+      <c r="E5">
         <v>6.8</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>-4.7</v>
       </c>
       <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
         <v>3.8</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0.4</v>
       </c>
       <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
         <v>7.4</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>-3</v>
       </c>
       <c r="D8">
+        <v>-0.4</v>
+      </c>
+      <c r="E8">
         <v>6.5</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8">
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>-4.6</v>
       </c>
       <c r="D9">
+        <v>-1.4</v>
+      </c>
+      <c r="E9">
         <v>6.4</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>-10.1</v>
       </c>
       <c r="D10">
+        <v>-18.9</v>
+      </c>
+      <c r="E10">
         <v>4.7</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>-3.3</v>
       </c>
       <c r="D11">
+        <v>-3.3</v>
+      </c>
+      <c r="E11">
         <v>6.1</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7304,13 +8084,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7329,131 +8109,152 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>4.3</v>
       </c>
       <c r="D2">
+        <v>6.2</v>
+      </c>
+      <c r="E2">
         <v>6.6</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>5.5</v>
       </c>
       <c r="D3">
+        <v>16.9</v>
+      </c>
+      <c r="E3">
         <v>6.7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
-      </c>
-      <c r="F3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
       </c>
       <c r="C4">
         <v>12.1</v>
       </c>
       <c r="D4">
+        <v>4.7</v>
+      </c>
+      <c r="E4">
         <v>7.4</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>0.2</v>
       </c>
       <c r="D5">
+        <v>0.3</v>
+      </c>
+      <c r="E5">
         <v>8.1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5">
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>-1.9</v>
       </c>
       <c r="D6">
+        <v>-1.5</v>
+      </c>
+      <c r="E6">
         <v>6.1</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>-0.8</v>
       </c>
       <c r="D7">
+        <v>-1.6</v>
+      </c>
+      <c r="E7">
         <v>7.1</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7461,13 +8262,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7486,171 +8287,198 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>-1.2</v>
       </c>
       <c r="D2">
+        <v>-0.3</v>
+      </c>
+      <c r="E2">
         <v>8.1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
       </c>
       <c r="C3">
         <v>-5.4</v>
       </c>
       <c r="D3">
+        <v>-1.6</v>
+      </c>
+      <c r="E3">
         <v>7.1</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>-6.6</v>
       </c>
       <c r="D4">
+        <v>-2.9</v>
+      </c>
+      <c r="E4">
         <v>4.7</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>-0.6</v>
       </c>
       <c r="D5">
+        <v>-0.2</v>
+      </c>
+      <c r="E5">
         <v>9.300000000000001</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>-1</v>
       </c>
       <c r="D6">
+        <v>-0.3</v>
+      </c>
+      <c r="E6">
         <v>5.1</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>5.1</v>
       </c>
       <c r="D7">
+        <v>2.2</v>
+      </c>
+      <c r="E7">
         <v>2.4</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>-1.6</v>
       </c>
       <c r="D8">
+        <v>-0.4</v>
+      </c>
+      <c r="E8">
         <v>7.5</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7658,13 +8486,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7683,113 +8511,131 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>0.2</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>8.199999999999999</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>89</v>
-      </c>
-      <c r="F2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
       </c>
       <c r="C3">
         <v>2.4</v>
       </c>
       <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>1.4</v>
       </c>
       <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
         <v>7.4</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>-5.9</v>
       </c>
       <c r="D5">
+        <v>-1.3</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>3.6</v>
       </c>
       <c r="D6">
+        <v>1.2</v>
+      </c>
+      <c r="E6">
         <v>7.8</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6">
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>1.6</v>
@@ -7797,164 +8643,188 @@
       <c r="D7">
         <v>6.1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7">
+      <c r="E7">
+        <v>6.1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7">
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>1.1</v>
       </c>
       <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
         <v>7.8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8">
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>2.1</v>
       </c>
       <c r="D9">
+        <v>1.3</v>
+      </c>
+      <c r="E9">
         <v>6.3</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>0.9</v>
       </c>
       <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
         <v>6.4</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>-0.4</v>
       </c>
       <c r="D11">
+        <v>-0.1</v>
+      </c>
+      <c r="E11">
         <v>7.1</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11">
+      <c r="F11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11">
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>0.3</v>
       </c>
       <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
         <v>7.4</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12">
+      <c r="F12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12">
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>4.3</v>
       </c>
       <c r="D13">
+        <v>3.5</v>
+      </c>
+      <c r="E13">
         <v>6.4</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>0.7</v>
       </c>
       <c r="D14">
+        <v>0.7</v>
+      </c>
+      <c r="E14">
         <v>5.9</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14">
+      <c r="F14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14">
         <v>2023</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E11" r:id="rId7"/>
-    <hyperlink ref="E12" r:id="rId8"/>
-    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="F12" r:id="rId8"/>
+    <hyperlink ref="F14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7962,13 +8832,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7987,252 +8857,291 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2">
         <v>-3.7</v>
       </c>
       <c r="D2">
+        <v>-1.7</v>
+      </c>
+      <c r="E2">
         <v>7.5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
         <v>111</v>
-      </c>
-      <c r="F2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
       </c>
       <c r="C3">
         <v>1.1</v>
       </c>
       <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
         <v>5.3</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>4.1</v>
       </c>
       <c r="D4">
+        <v>1.6</v>
+      </c>
+      <c r="E4">
         <v>4.8</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>6.5</v>
       </c>
       <c r="D5">
+        <v>1.1</v>
+      </c>
+      <c r="E5">
         <v>4.8</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>1.9</v>
       </c>
       <c r="D6">
+        <v>2.2</v>
+      </c>
+      <c r="E6">
         <v>5.7</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>2.6</v>
       </c>
       <c r="D7">
+        <v>1.3</v>
+      </c>
+      <c r="E7">
         <v>6.5</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>1.5</v>
       </c>
       <c r="D8">
+        <v>0.6</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9">
         <v>7.7</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>6.3</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>-4.4</v>
       </c>
       <c r="D10">
+        <v>-3.3</v>
+      </c>
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11">
         <v>5.5</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>6.2</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12">
         <v>2.8</v>
       </c>
       <c r="D12">
+        <v>1.3</v>
+      </c>
+      <c r="E12">
         <v>5.5</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13">
         <v>7.1</v>
       </c>
       <c r="D13">
+        <v>7.5</v>
+      </c>
+      <c r="E13">
         <v>5.8</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13">
+      <c r="F13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13">
         <v>2021</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E13" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8240,13 +9149,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8265,175 +9174,202 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2">
         <v>0.4</v>
       </c>
       <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
         <v>8.5</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3">
         <v>5.9</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>7.9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
         <v>123</v>
-      </c>
-      <c r="F3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
         <v>5.9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5">
         <v>-0.5</v>
       </c>
       <c r="D5">
+        <v>-0.3</v>
+      </c>
+      <c r="E5">
         <v>6.6</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6">
         <v>1.4</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6">
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7">
         <v>2.1</v>
       </c>
       <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7">
+      <c r="F7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7">
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>-0.6</v>
       </c>
       <c r="D8">
+        <v>-0.7</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9">
         <v>2.7</v>
       </c>
       <c r="D9">
+        <v>1.3</v>
+      </c>
+      <c r="E9">
         <v>7.1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9">
         <v>2020</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
